--- a/Code/Results/Cases/Case_0_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_30/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8856525663153422</v>
+        <v>0.8856525663153451</v>
       </c>
       <c r="D2">
-        <v>0.8949129770838981</v>
+        <v>0.8949129770839011</v>
       </c>
       <c r="E2">
-        <v>0.9074535295454732</v>
+        <v>0.9074535295454754</v>
       </c>
       <c r="F2">
-        <v>0.8796430773413424</v>
+        <v>0.8796430773413456</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.026410705784911</v>
       </c>
       <c r="J2">
-        <v>0.9118886509845371</v>
+        <v>0.9118886509845396</v>
       </c>
       <c r="K2">
-        <v>0.9080603651878567</v>
+        <v>0.9080603651878597</v>
       </c>
       <c r="L2">
-        <v>0.9203728027374256</v>
+        <v>0.9203728027374278</v>
       </c>
       <c r="M2">
-        <v>0.893079738494544</v>
+        <v>0.8930797384945471</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.908377532269637</v>
+        <v>0.9083775322696351</v>
       </c>
       <c r="D3">
-        <v>0.9168334418435931</v>
+        <v>0.9168334418435908</v>
       </c>
       <c r="E3">
-        <v>0.9266505484588693</v>
+        <v>0.9266505484588675</v>
       </c>
       <c r="F3">
-        <v>0.9042139506391302</v>
+        <v>0.9042139506391285</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030822899122111</v>
+        <v>1.03082289912211</v>
       </c>
       <c r="J3">
-        <v>0.9317209614274603</v>
+        <v>0.9317209614274585</v>
       </c>
       <c r="K3">
-        <v>0.9286540057361787</v>
+        <v>0.9286540057361766</v>
       </c>
       <c r="L3">
-        <v>0.9383167450744114</v>
+        <v>0.93831674507441</v>
       </c>
       <c r="M3">
-        <v>0.9162392826874515</v>
+        <v>0.91623928268745</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9216095430700348</v>
+        <v>0.9216095430700357</v>
       </c>
       <c r="D4">
-        <v>0.9296083528240772</v>
+        <v>0.9296083528240779</v>
       </c>
       <c r="E4">
-        <v>0.9378510497124538</v>
+        <v>0.9378510497124548</v>
       </c>
       <c r="F4">
-        <v>0.9185298102738442</v>
+        <v>0.9185298102738449</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.033361648282496</v>
       </c>
       <c r="J4">
-        <v>0.9432557899845063</v>
+        <v>0.943255789984507</v>
       </c>
       <c r="K4">
-        <v>0.940637774678347</v>
+        <v>0.9406377746783476</v>
       </c>
       <c r="L4">
-        <v>0.9487623241127445</v>
+        <v>0.9487623241127455</v>
       </c>
       <c r="M4">
-        <v>0.9297222756498438</v>
+        <v>0.9297222756498446</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9268842320511027</v>
+        <v>0.9268842320511049</v>
       </c>
       <c r="D5">
-        <v>0.9347030067129857</v>
+        <v>0.934703006712988</v>
       </c>
       <c r="E5">
-        <v>0.94232034143622</v>
+        <v>0.9423203414362219</v>
       </c>
       <c r="F5">
-        <v>0.9242391891295076</v>
+        <v>0.9242391891295102</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.034364990896168</v>
       </c>
       <c r="J5">
-        <v>0.9478504266041258</v>
+        <v>0.9478504266041282</v>
       </c>
       <c r="K5">
-        <v>0.9454127527501863</v>
+        <v>0.9454127527501889</v>
       </c>
       <c r="L5">
-        <v>0.9529250609154242</v>
+        <v>0.9529250609154259</v>
       </c>
       <c r="M5">
-        <v>0.9350967809919639</v>
+        <v>0.9350967809919662</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.927754474134422</v>
+        <v>0.9277544741344191</v>
       </c>
       <c r="D6">
-        <v>0.9355436614853064</v>
+        <v>0.9355436614853035</v>
       </c>
       <c r="E6">
-        <v>0.9430579422147566</v>
+        <v>0.9430579422147538</v>
       </c>
       <c r="F6">
-        <v>0.9251813140653141</v>
+        <v>0.9251813140653111</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.03452998062407</v>
       </c>
       <c r="J6">
-        <v>0.9486082544576794</v>
+        <v>0.9486082544576764</v>
       </c>
       <c r="K6">
-        <v>0.9462004160768294</v>
+        <v>0.9462004160768263</v>
       </c>
       <c r="L6">
-        <v>0.9536117643059994</v>
+        <v>0.9536117643059966</v>
       </c>
       <c r="M6">
-        <v>0.935983483397842</v>
+        <v>0.9359834833978393</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9216810858937735</v>
+        <v>0.9216810858937728</v>
       </c>
       <c r="D7">
-        <v>0.9296774456230271</v>
+        <v>0.9296774456230265</v>
       </c>
       <c r="E7">
-        <v>0.9379116519912879</v>
+        <v>0.937911651991287</v>
       </c>
       <c r="F7">
-        <v>0.9186072379203652</v>
+        <v>0.9186072379203645</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.033375293466527</v>
       </c>
       <c r="J7">
-        <v>0.9433181234710214</v>
+        <v>0.9433181234710207</v>
       </c>
       <c r="K7">
-        <v>0.9407025486519611</v>
+        <v>0.9407025486519603</v>
       </c>
       <c r="L7">
-        <v>0.9488187904827187</v>
+        <v>0.9488187904827178</v>
       </c>
       <c r="M7">
-        <v>0.929795172978218</v>
+        <v>0.9297951729782172</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8936842512809637</v>
+        <v>0.893684251280966</v>
       </c>
       <c r="D8">
-        <v>0.9026573926959726</v>
+        <v>0.9026573926959746</v>
       </c>
       <c r="E8">
-        <v>0.9142325032636077</v>
+        <v>0.9142325032636096</v>
       </c>
       <c r="F8">
-        <v>0.8883255304924836</v>
+        <v>0.8883255304924859</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.02797578077738</v>
+        <v>1.027975780777381</v>
       </c>
       <c r="J8">
-        <v>0.918900521224695</v>
+        <v>0.918900521224697</v>
       </c>
       <c r="K8">
-        <v>0.9153400813930829</v>
+        <v>0.9153400813930849</v>
       </c>
       <c r="L8">
-        <v>0.9267148616430608</v>
+        <v>0.9267148616430627</v>
       </c>
       <c r="M8">
-        <v>0.9012656822538374</v>
+        <v>0.9012656822538399</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,13 +687,13 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.827984276164547</v>
+        <v>0.8279842761645477</v>
       </c>
       <c r="D9">
-        <v>0.8394139517756479</v>
+        <v>0.8394139517756491</v>
       </c>
       <c r="E9">
-        <v>0.8589878009178625</v>
+        <v>0.8589878009178635</v>
       </c>
       <c r="F9">
         <v>0.8173019026334563</v>
@@ -705,16 +705,16 @@
         <v>1.015130820977057</v>
       </c>
       <c r="J9">
-        <v>0.8615142408973407</v>
+        <v>0.8615142408973415</v>
       </c>
       <c r="K9">
-        <v>0.8557891493482453</v>
+        <v>0.855789149348246</v>
       </c>
       <c r="L9">
-        <v>0.8748745773385065</v>
+        <v>0.8748745773385073</v>
       </c>
       <c r="M9">
-        <v>0.8342673010967885</v>
+        <v>0.8342673010967889</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7533176226798433</v>
+        <v>0.7533176226798427</v>
       </c>
       <c r="D10">
-        <v>0.7679023306173386</v>
+        <v>0.767902330617338</v>
       </c>
       <c r="E10">
-        <v>0.7968964388590493</v>
+        <v>0.7968964388590487</v>
       </c>
       <c r="F10">
-        <v>0.7363376836732134</v>
+        <v>0.7363376836732124</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.00090525274719</v>
       </c>
       <c r="J10">
-        <v>0.7964292605239587</v>
+        <v>0.796429260523958</v>
       </c>
       <c r="K10">
-        <v>0.7882667416810343</v>
+        <v>0.7882667416810335</v>
       </c>
       <c r="L10">
-        <v>0.816245289186313</v>
+        <v>0.8162452891863126</v>
       </c>
       <c r="M10">
-        <v>0.7579377228435501</v>
+        <v>0.7579377228435493</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7533176226798433</v>
+        <v>0.7533176226798427</v>
       </c>
       <c r="D11">
-        <v>0.7679023306173386</v>
+        <v>0.767902330617338</v>
       </c>
       <c r="E11">
-        <v>0.7968964388590493</v>
+        <v>0.7968964388590487</v>
       </c>
       <c r="F11">
-        <v>0.7363376836732134</v>
+        <v>0.7363376836732124</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.00090525274719</v>
       </c>
       <c r="J11">
-        <v>0.7964292605239587</v>
+        <v>0.796429260523958</v>
       </c>
       <c r="K11">
-        <v>0.7882667416810343</v>
+        <v>0.7882667416810335</v>
       </c>
       <c r="L11">
-        <v>0.816245289186313</v>
+        <v>0.8162452891863126</v>
       </c>
       <c r="M11">
-        <v>0.7579377228435501</v>
+        <v>0.7579377228435493</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7533176226798433</v>
+        <v>0.7533176226798427</v>
       </c>
       <c r="D12">
-        <v>0.7679023306173386</v>
+        <v>0.767902330617338</v>
       </c>
       <c r="E12">
-        <v>0.7968964388590493</v>
+        <v>0.7968964388590487</v>
       </c>
       <c r="F12">
-        <v>0.7363376836732134</v>
+        <v>0.7363376836732124</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.00090525274719</v>
       </c>
       <c r="J12">
-        <v>0.7964292605239587</v>
+        <v>0.796429260523958</v>
       </c>
       <c r="K12">
-        <v>0.7882667416810343</v>
+        <v>0.7882667416810335</v>
       </c>
       <c r="L12">
-        <v>0.816245289186313</v>
+        <v>0.8162452891863126</v>
       </c>
       <c r="M12">
-        <v>0.7579377228435501</v>
+        <v>0.7579377228435493</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7533176226798433</v>
+        <v>0.7533176226798427</v>
       </c>
       <c r="D13">
-        <v>0.7679023306173386</v>
+        <v>0.767902330617338</v>
       </c>
       <c r="E13">
-        <v>0.7968964388590493</v>
+        <v>0.7968964388590487</v>
       </c>
       <c r="F13">
-        <v>0.7363376836732134</v>
+        <v>0.7363376836732124</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.00090525274719</v>
       </c>
       <c r="J13">
-        <v>0.7964292605239587</v>
+        <v>0.796429260523958</v>
       </c>
       <c r="K13">
-        <v>0.7882667416810343</v>
+        <v>0.7882667416810335</v>
       </c>
       <c r="L13">
-        <v>0.816245289186313</v>
+        <v>0.8162452891863126</v>
       </c>
       <c r="M13">
-        <v>0.7579377228435501</v>
+        <v>0.7579377228435493</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7533176226798433</v>
+        <v>0.7533176226798427</v>
       </c>
       <c r="D14">
-        <v>0.7679023306173386</v>
+        <v>0.767902330617338</v>
       </c>
       <c r="E14">
-        <v>0.7968964388590493</v>
+        <v>0.7968964388590487</v>
       </c>
       <c r="F14">
-        <v>0.7363376836732134</v>
+        <v>0.7363376836732124</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.00090525274719</v>
       </c>
       <c r="J14">
-        <v>0.7964292605239587</v>
+        <v>0.796429260523958</v>
       </c>
       <c r="K14">
-        <v>0.7882667416810343</v>
+        <v>0.7882667416810335</v>
       </c>
       <c r="L14">
-        <v>0.816245289186313</v>
+        <v>0.8162452891863126</v>
       </c>
       <c r="M14">
-        <v>0.7579377228435501</v>
+        <v>0.7579377228435493</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7533176226798433</v>
+        <v>0.685793693566929</v>
       </c>
       <c r="D15">
-        <v>0.7679023306173386</v>
+        <v>0.7036932661818536</v>
       </c>
       <c r="E15">
-        <v>0.7968964388590493</v>
+        <v>0.7416060826495643</v>
       </c>
       <c r="F15">
-        <v>0.7363376836732134</v>
+        <v>0.6624394409199348</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.00090525274719</v>
+        <v>0.9889360036781384</v>
       </c>
       <c r="J15">
-        <v>0.7964292605239587</v>
+        <v>0.7379903935833252</v>
       </c>
       <c r="K15">
-        <v>0.7882667416810343</v>
+        <v>0.7275769481749087</v>
       </c>
       <c r="L15">
-        <v>0.816245289186313</v>
+        <v>0.7637552810845344</v>
       </c>
       <c r="M15">
-        <v>0.7579377228435501</v>
+        <v>0.6885453416137225</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7533176226798433</v>
+        <v>0.7564395943851149</v>
       </c>
       <c r="D16">
-        <v>0.7679023306173386</v>
+        <v>0.7708828598075365</v>
       </c>
       <c r="E16">
-        <v>0.7968964388590493</v>
+        <v>0.7994747260907639</v>
       </c>
       <c r="F16">
-        <v>0.7363376836732134</v>
+        <v>0.7397343531981428</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.00090525274719</v>
+        <v>1.001483037085433</v>
       </c>
       <c r="J16">
-        <v>0.7964292605239587</v>
+        <v>0.7991432552025761</v>
       </c>
       <c r="K16">
-        <v>0.7882667416810343</v>
+        <v>0.7910831967398244</v>
       </c>
       <c r="L16">
-        <v>0.816245289186313</v>
+        <v>0.818686624448955</v>
       </c>
       <c r="M16">
-        <v>0.7579377228435501</v>
+        <v>0.7611356510973765</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7533176226798433</v>
+        <v>0.7801895679653145</v>
       </c>
       <c r="D17">
-        <v>0.7679023306173386</v>
+        <v>0.7935860936556172</v>
       </c>
       <c r="E17">
-        <v>0.7968964388590493</v>
+        <v>0.8191434033483052</v>
       </c>
       <c r="F17">
-        <v>0.7363376836732134</v>
+        <v>0.7655345213160085</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.00090525274719</v>
+        <v>1.00593497792341</v>
       </c>
       <c r="J17">
-        <v>0.7964292605239587</v>
+        <v>0.8198150769836179</v>
       </c>
       <c r="K17">
-        <v>0.7882667416810343</v>
+        <v>0.8125319115798796</v>
       </c>
       <c r="L17">
-        <v>0.816245289186313</v>
+        <v>0.8372916476210631</v>
       </c>
       <c r="M17">
-        <v>0.7579377228435501</v>
+        <v>0.7854420483258449</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7533176226798433</v>
+        <v>0.7918164906979113</v>
       </c>
       <c r="D18">
-        <v>0.7679023306173386</v>
+        <v>0.8047183229286544</v>
       </c>
       <c r="E18">
-        <v>0.7968964388590493</v>
+        <v>0.8288055985029124</v>
       </c>
       <c r="F18">
-        <v>0.7363376836732134</v>
+        <v>0.7781435001066229</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.00090525274719</v>
+        <v>1.008146913810149</v>
       </c>
       <c r="J18">
-        <v>0.7964292605239587</v>
+        <v>0.8299491438277532</v>
       </c>
       <c r="K18">
-        <v>0.7882667416810343</v>
+        <v>0.8230451814580459</v>
       </c>
       <c r="L18">
-        <v>0.816245289186313</v>
+        <v>0.8464188689887059</v>
       </c>
       <c r="M18">
-        <v>0.7579377228435501</v>
+        <v>0.7973292889592781</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7533176226798433</v>
+        <v>0.795513987402679</v>
       </c>
       <c r="D19">
-        <v>0.7679023306173386</v>
+        <v>0.8082607982016864</v>
       </c>
       <c r="E19">
-        <v>0.7968964388590493</v>
+        <v>0.8318826162021555</v>
       </c>
       <c r="F19">
-        <v>0.7363376836732134</v>
+        <v>0.7821508227967608</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.00090525274719</v>
+        <v>1.008854232578889</v>
       </c>
       <c r="J19">
-        <v>0.7964292605239587</v>
+        <v>0.8331735090341061</v>
       </c>
       <c r="K19">
-        <v>0.7882667416810343</v>
+        <v>0.8263900542790156</v>
       </c>
       <c r="L19">
-        <v>0.816245289186313</v>
+        <v>0.8493237583012481</v>
       </c>
       <c r="M19">
-        <v>0.7579377228435501</v>
+        <v>0.8011081213315022</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7533176226798433</v>
+        <v>0.7779035016024883</v>
       </c>
       <c r="D20">
-        <v>0.7679023306173386</v>
+        <v>0.7913986185698644</v>
       </c>
       <c r="E20">
-        <v>0.7968964388590493</v>
+        <v>0.8172461309691094</v>
       </c>
       <c r="F20">
-        <v>0.7363376836732134</v>
+        <v>0.7630538510935927</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.00090525274719</v>
+        <v>1.005502406694702</v>
       </c>
       <c r="J20">
-        <v>0.7964292605239587</v>
+        <v>0.8178235209688839</v>
       </c>
       <c r="K20">
-        <v>0.7882667416810343</v>
+        <v>0.8104657323010328</v>
       </c>
       <c r="L20">
-        <v>0.816245289186313</v>
+        <v>0.8354984483652853</v>
       </c>
       <c r="M20">
-        <v>0.7579377228435501</v>
+        <v>0.7831039338366012</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7533176226798433</v>
+        <v>0.7779035016024883</v>
       </c>
       <c r="D21">
-        <v>0.7679023306173386</v>
+        <v>0.7913986185698644</v>
       </c>
       <c r="E21">
-        <v>0.7968964388590493</v>
+        <v>0.8172461309691094</v>
       </c>
       <c r="F21">
-        <v>0.7363376836732134</v>
+        <v>0.7630538510935927</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.00090525274719</v>
+        <v>1.005502406694702</v>
       </c>
       <c r="J21">
-        <v>0.7964292605239587</v>
+        <v>0.8178235209688839</v>
       </c>
       <c r="K21">
-        <v>0.7882667416810343</v>
+        <v>0.8104657323010328</v>
       </c>
       <c r="L21">
-        <v>0.816245289186313</v>
+        <v>0.8354984483652853</v>
       </c>
       <c r="M21">
-        <v>0.7579377228435501</v>
+        <v>0.7831039338366012</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7533176226798433</v>
+        <v>0.7779035016024883</v>
       </c>
       <c r="D22">
-        <v>0.7679023306173386</v>
+        <v>0.7913986185698644</v>
       </c>
       <c r="E22">
-        <v>0.7968964388590493</v>
+        <v>0.8172461309691094</v>
       </c>
       <c r="F22">
-        <v>0.7363376836732134</v>
+        <v>0.7630538510935927</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.00090525274719</v>
+        <v>1.005502406694702</v>
       </c>
       <c r="J22">
-        <v>0.7964292605239587</v>
+        <v>0.8178235209688839</v>
       </c>
       <c r="K22">
-        <v>0.7882667416810343</v>
+        <v>0.8104657323010328</v>
       </c>
       <c r="L22">
-        <v>0.816245289186313</v>
+        <v>0.8354984483652853</v>
       </c>
       <c r="M22">
-        <v>0.7579377228435501</v>
+        <v>0.7831039338366012</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7533176226798433</v>
+        <v>0.7779035016024883</v>
       </c>
       <c r="D23">
-        <v>0.7679023306173386</v>
+        <v>0.7913986185698644</v>
       </c>
       <c r="E23">
-        <v>0.7968964388590493</v>
+        <v>0.8172461309691094</v>
       </c>
       <c r="F23">
-        <v>0.7363376836732134</v>
+        <v>0.7630538510935927</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.00090525274719</v>
+        <v>1.005502406694702</v>
       </c>
       <c r="J23">
-        <v>0.7964292605239587</v>
+        <v>0.8178235209688839</v>
       </c>
       <c r="K23">
-        <v>0.7882667416810343</v>
+        <v>0.8104657323010328</v>
       </c>
       <c r="L23">
-        <v>0.816245289186313</v>
+        <v>0.8354984483652853</v>
       </c>
       <c r="M23">
-        <v>0.7579377228435501</v>
+        <v>0.7831039338366012</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7533176226798433</v>
+        <v>0.7779035016024883</v>
       </c>
       <c r="D24">
-        <v>0.7679023306173386</v>
+        <v>0.7913986185698644</v>
       </c>
       <c r="E24">
-        <v>0.7968964388590493</v>
+        <v>0.8172461309691094</v>
       </c>
       <c r="F24">
-        <v>0.7363376836732134</v>
+        <v>0.7630538510935927</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.00090525274719</v>
+        <v>1.005502406694702</v>
       </c>
       <c r="J24">
-        <v>0.7964292605239587</v>
+        <v>0.8178235209688839</v>
       </c>
       <c r="K24">
-        <v>0.7882667416810343</v>
+        <v>0.8104657323010328</v>
       </c>
       <c r="L24">
-        <v>0.816245289186313</v>
+        <v>0.8354984483652853</v>
       </c>
       <c r="M24">
-        <v>0.7579377228435501</v>
+        <v>0.7831039338366012</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7533176226798433</v>
+        <v>0.7779035016024883</v>
       </c>
       <c r="D25">
-        <v>0.7679023306173386</v>
+        <v>0.7913986185698644</v>
       </c>
       <c r="E25">
-        <v>0.7968964388590493</v>
+        <v>0.8172461309691094</v>
       </c>
       <c r="F25">
-        <v>0.7363376836732134</v>
+        <v>0.7630538510935927</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.00090525274719</v>
+        <v>1.005502406694702</v>
       </c>
       <c r="J25">
-        <v>0.7964292605239587</v>
+        <v>0.8178235209688839</v>
       </c>
       <c r="K25">
-        <v>0.7882667416810343</v>
+        <v>0.8104657323010328</v>
       </c>
       <c r="L25">
-        <v>0.816245289186313</v>
+        <v>0.8354984483652853</v>
       </c>
       <c r="M25">
-        <v>0.7579377228435501</v>
+        <v>0.7831039338366012</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_30/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8856525663153451</v>
+        <v>0.8856525663153422</v>
       </c>
       <c r="D2">
-        <v>0.8949129770839011</v>
+        <v>0.8949129770838981</v>
       </c>
       <c r="E2">
-        <v>0.9074535295454754</v>
+        <v>0.9074535295454732</v>
       </c>
       <c r="F2">
-        <v>0.8796430773413456</v>
+        <v>0.8796430773413424</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.026410705784911</v>
       </c>
       <c r="J2">
-        <v>0.9118886509845396</v>
+        <v>0.9118886509845371</v>
       </c>
       <c r="K2">
-        <v>0.9080603651878597</v>
+        <v>0.9080603651878567</v>
       </c>
       <c r="L2">
-        <v>0.9203728027374278</v>
+        <v>0.9203728027374256</v>
       </c>
       <c r="M2">
-        <v>0.8930797384945471</v>
+        <v>0.893079738494544</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9083775322696351</v>
+        <v>0.908377532269637</v>
       </c>
       <c r="D3">
-        <v>0.9168334418435908</v>
+        <v>0.9168334418435931</v>
       </c>
       <c r="E3">
-        <v>0.9266505484588675</v>
+        <v>0.9266505484588693</v>
       </c>
       <c r="F3">
-        <v>0.9042139506391285</v>
+        <v>0.9042139506391302</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03082289912211</v>
+        <v>1.030822899122111</v>
       </c>
       <c r="J3">
-        <v>0.9317209614274585</v>
+        <v>0.9317209614274603</v>
       </c>
       <c r="K3">
-        <v>0.9286540057361766</v>
+        <v>0.9286540057361787</v>
       </c>
       <c r="L3">
-        <v>0.93831674507441</v>
+        <v>0.9383167450744114</v>
       </c>
       <c r="M3">
-        <v>0.91623928268745</v>
+        <v>0.9162392826874515</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9216095430700357</v>
+        <v>0.9216095430700348</v>
       </c>
       <c r="D4">
-        <v>0.9296083528240779</v>
+        <v>0.9296083528240772</v>
       </c>
       <c r="E4">
-        <v>0.9378510497124548</v>
+        <v>0.9378510497124538</v>
       </c>
       <c r="F4">
-        <v>0.9185298102738449</v>
+        <v>0.9185298102738442</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.033361648282496</v>
       </c>
       <c r="J4">
-        <v>0.943255789984507</v>
+        <v>0.9432557899845063</v>
       </c>
       <c r="K4">
-        <v>0.9406377746783476</v>
+        <v>0.940637774678347</v>
       </c>
       <c r="L4">
-        <v>0.9487623241127455</v>
+        <v>0.9487623241127445</v>
       </c>
       <c r="M4">
-        <v>0.9297222756498446</v>
+        <v>0.9297222756498438</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9268842320511049</v>
+        <v>0.9268842320511027</v>
       </c>
       <c r="D5">
-        <v>0.934703006712988</v>
+        <v>0.9347030067129857</v>
       </c>
       <c r="E5">
-        <v>0.9423203414362219</v>
+        <v>0.94232034143622</v>
       </c>
       <c r="F5">
-        <v>0.9242391891295102</v>
+        <v>0.9242391891295076</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.034364990896168</v>
       </c>
       <c r="J5">
-        <v>0.9478504266041282</v>
+        <v>0.9478504266041258</v>
       </c>
       <c r="K5">
-        <v>0.9454127527501889</v>
+        <v>0.9454127527501863</v>
       </c>
       <c r="L5">
-        <v>0.9529250609154259</v>
+        <v>0.9529250609154242</v>
       </c>
       <c r="M5">
-        <v>0.9350967809919662</v>
+        <v>0.9350967809919639</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9277544741344191</v>
+        <v>0.927754474134422</v>
       </c>
       <c r="D6">
-        <v>0.9355436614853035</v>
+        <v>0.9355436614853064</v>
       </c>
       <c r="E6">
-        <v>0.9430579422147538</v>
+        <v>0.9430579422147566</v>
       </c>
       <c r="F6">
-        <v>0.9251813140653111</v>
+        <v>0.9251813140653141</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.03452998062407</v>
       </c>
       <c r="J6">
-        <v>0.9486082544576764</v>
+        <v>0.9486082544576794</v>
       </c>
       <c r="K6">
-        <v>0.9462004160768263</v>
+        <v>0.9462004160768294</v>
       </c>
       <c r="L6">
-        <v>0.9536117643059966</v>
+        <v>0.9536117643059994</v>
       </c>
       <c r="M6">
-        <v>0.9359834833978393</v>
+        <v>0.935983483397842</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9216810858937728</v>
+        <v>0.9216810858937735</v>
       </c>
       <c r="D7">
-        <v>0.9296774456230265</v>
+        <v>0.9296774456230271</v>
       </c>
       <c r="E7">
-        <v>0.937911651991287</v>
+        <v>0.9379116519912879</v>
       </c>
       <c r="F7">
-        <v>0.9186072379203645</v>
+        <v>0.9186072379203652</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.033375293466527</v>
       </c>
       <c r="J7">
-        <v>0.9433181234710207</v>
+        <v>0.9433181234710214</v>
       </c>
       <c r="K7">
-        <v>0.9407025486519603</v>
+        <v>0.9407025486519611</v>
       </c>
       <c r="L7">
-        <v>0.9488187904827178</v>
+        <v>0.9488187904827187</v>
       </c>
       <c r="M7">
-        <v>0.9297951729782172</v>
+        <v>0.929795172978218</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.893684251280966</v>
+        <v>0.8936842512809637</v>
       </c>
       <c r="D8">
-        <v>0.9026573926959746</v>
+        <v>0.9026573926959726</v>
       </c>
       <c r="E8">
-        <v>0.9142325032636096</v>
+        <v>0.9142325032636077</v>
       </c>
       <c r="F8">
-        <v>0.8883255304924859</v>
+        <v>0.8883255304924836</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027975780777381</v>
+        <v>1.02797578077738</v>
       </c>
       <c r="J8">
-        <v>0.918900521224697</v>
+        <v>0.918900521224695</v>
       </c>
       <c r="K8">
-        <v>0.9153400813930849</v>
+        <v>0.9153400813930829</v>
       </c>
       <c r="L8">
-        <v>0.9267148616430627</v>
+        <v>0.9267148616430608</v>
       </c>
       <c r="M8">
-        <v>0.9012656822538399</v>
+        <v>0.9012656822538374</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,13 +687,13 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8279842761645477</v>
+        <v>0.827984276164547</v>
       </c>
       <c r="D9">
-        <v>0.8394139517756491</v>
+        <v>0.8394139517756479</v>
       </c>
       <c r="E9">
-        <v>0.8589878009178635</v>
+        <v>0.8589878009178625</v>
       </c>
       <c r="F9">
         <v>0.8173019026334563</v>
@@ -705,16 +705,16 @@
         <v>1.015130820977057</v>
       </c>
       <c r="J9">
-        <v>0.8615142408973415</v>
+        <v>0.8615142408973407</v>
       </c>
       <c r="K9">
-        <v>0.855789149348246</v>
+        <v>0.8557891493482453</v>
       </c>
       <c r="L9">
-        <v>0.8748745773385073</v>
+        <v>0.8748745773385065</v>
       </c>
       <c r="M9">
-        <v>0.8342673010967889</v>
+        <v>0.8342673010967885</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7533176226798427</v>
+        <v>0.7533176226798433</v>
       </c>
       <c r="D10">
-        <v>0.767902330617338</v>
+        <v>0.7679023306173386</v>
       </c>
       <c r="E10">
-        <v>0.7968964388590487</v>
+        <v>0.7968964388590493</v>
       </c>
       <c r="F10">
-        <v>0.7363376836732124</v>
+        <v>0.7363376836732134</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.00090525274719</v>
       </c>
       <c r="J10">
-        <v>0.796429260523958</v>
+        <v>0.7964292605239587</v>
       </c>
       <c r="K10">
-        <v>0.7882667416810335</v>
+        <v>0.7882667416810343</v>
       </c>
       <c r="L10">
-        <v>0.8162452891863126</v>
+        <v>0.816245289186313</v>
       </c>
       <c r="M10">
-        <v>0.7579377228435493</v>
+        <v>0.7579377228435501</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7533176226798427</v>
+        <v>0.7533176226798433</v>
       </c>
       <c r="D11">
-        <v>0.767902330617338</v>
+        <v>0.7679023306173386</v>
       </c>
       <c r="E11">
-        <v>0.7968964388590487</v>
+        <v>0.7968964388590493</v>
       </c>
       <c r="F11">
-        <v>0.7363376836732124</v>
+        <v>0.7363376836732134</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.00090525274719</v>
       </c>
       <c r="J11">
-        <v>0.796429260523958</v>
+        <v>0.7964292605239587</v>
       </c>
       <c r="K11">
-        <v>0.7882667416810335</v>
+        <v>0.7882667416810343</v>
       </c>
       <c r="L11">
-        <v>0.8162452891863126</v>
+        <v>0.816245289186313</v>
       </c>
       <c r="M11">
-        <v>0.7579377228435493</v>
+        <v>0.7579377228435501</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7533176226798427</v>
+        <v>0.7533176226798433</v>
       </c>
       <c r="D12">
-        <v>0.767902330617338</v>
+        <v>0.7679023306173386</v>
       </c>
       <c r="E12">
-        <v>0.7968964388590487</v>
+        <v>0.7968964388590493</v>
       </c>
       <c r="F12">
-        <v>0.7363376836732124</v>
+        <v>0.7363376836732134</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.00090525274719</v>
       </c>
       <c r="J12">
-        <v>0.796429260523958</v>
+        <v>0.7964292605239587</v>
       </c>
       <c r="K12">
-        <v>0.7882667416810335</v>
+        <v>0.7882667416810343</v>
       </c>
       <c r="L12">
-        <v>0.8162452891863126</v>
+        <v>0.816245289186313</v>
       </c>
       <c r="M12">
-        <v>0.7579377228435493</v>
+        <v>0.7579377228435501</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7533176226798427</v>
+        <v>0.7533176226798433</v>
       </c>
       <c r="D13">
-        <v>0.767902330617338</v>
+        <v>0.7679023306173386</v>
       </c>
       <c r="E13">
-        <v>0.7968964388590487</v>
+        <v>0.7968964388590493</v>
       </c>
       <c r="F13">
-        <v>0.7363376836732124</v>
+        <v>0.7363376836732134</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.00090525274719</v>
       </c>
       <c r="J13">
-        <v>0.796429260523958</v>
+        <v>0.7964292605239587</v>
       </c>
       <c r="K13">
-        <v>0.7882667416810335</v>
+        <v>0.7882667416810343</v>
       </c>
       <c r="L13">
-        <v>0.8162452891863126</v>
+        <v>0.816245289186313</v>
       </c>
       <c r="M13">
-        <v>0.7579377228435493</v>
+        <v>0.7579377228435501</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7533176226798427</v>
+        <v>0.7533176226798433</v>
       </c>
       <c r="D14">
-        <v>0.767902330617338</v>
+        <v>0.7679023306173386</v>
       </c>
       <c r="E14">
-        <v>0.7968964388590487</v>
+        <v>0.7968964388590493</v>
       </c>
       <c r="F14">
-        <v>0.7363376836732124</v>
+        <v>0.7363376836732134</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.00090525274719</v>
       </c>
       <c r="J14">
-        <v>0.796429260523958</v>
+        <v>0.7964292605239587</v>
       </c>
       <c r="K14">
-        <v>0.7882667416810335</v>
+        <v>0.7882667416810343</v>
       </c>
       <c r="L14">
-        <v>0.8162452891863126</v>
+        <v>0.816245289186313</v>
       </c>
       <c r="M14">
-        <v>0.7579377228435493</v>
+        <v>0.7579377228435501</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.685793693566929</v>
+        <v>0.7533176226798433</v>
       </c>
       <c r="D15">
-        <v>0.7036932661818536</v>
+        <v>0.7679023306173386</v>
       </c>
       <c r="E15">
-        <v>0.7416060826495643</v>
+        <v>0.7968964388590493</v>
       </c>
       <c r="F15">
-        <v>0.6624394409199348</v>
+        <v>0.7363376836732134</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9889360036781384</v>
+        <v>1.00090525274719</v>
       </c>
       <c r="J15">
-        <v>0.7379903935833252</v>
+        <v>0.7964292605239587</v>
       </c>
       <c r="K15">
-        <v>0.7275769481749087</v>
+        <v>0.7882667416810343</v>
       </c>
       <c r="L15">
-        <v>0.7637552810845344</v>
+        <v>0.816245289186313</v>
       </c>
       <c r="M15">
-        <v>0.6885453416137225</v>
+        <v>0.7579377228435501</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7564395943851149</v>
+        <v>0.7533176226798433</v>
       </c>
       <c r="D16">
-        <v>0.7708828598075365</v>
+        <v>0.7679023306173386</v>
       </c>
       <c r="E16">
-        <v>0.7994747260907639</v>
+        <v>0.7968964388590493</v>
       </c>
       <c r="F16">
-        <v>0.7397343531981428</v>
+        <v>0.7363376836732134</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.001483037085433</v>
+        <v>1.00090525274719</v>
       </c>
       <c r="J16">
-        <v>0.7991432552025761</v>
+        <v>0.7964292605239587</v>
       </c>
       <c r="K16">
-        <v>0.7910831967398244</v>
+        <v>0.7882667416810343</v>
       </c>
       <c r="L16">
-        <v>0.818686624448955</v>
+        <v>0.816245289186313</v>
       </c>
       <c r="M16">
-        <v>0.7611356510973765</v>
+        <v>0.7579377228435501</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7801895679653145</v>
+        <v>0.7533176226798433</v>
       </c>
       <c r="D17">
-        <v>0.7935860936556172</v>
+        <v>0.7679023306173386</v>
       </c>
       <c r="E17">
-        <v>0.8191434033483052</v>
+        <v>0.7968964388590493</v>
       </c>
       <c r="F17">
-        <v>0.7655345213160085</v>
+        <v>0.7363376836732134</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.00593497792341</v>
+        <v>1.00090525274719</v>
       </c>
       <c r="J17">
-        <v>0.8198150769836179</v>
+        <v>0.7964292605239587</v>
       </c>
       <c r="K17">
-        <v>0.8125319115798796</v>
+        <v>0.7882667416810343</v>
       </c>
       <c r="L17">
-        <v>0.8372916476210631</v>
+        <v>0.816245289186313</v>
       </c>
       <c r="M17">
-        <v>0.7854420483258449</v>
+        <v>0.7579377228435501</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7918164906979113</v>
+        <v>0.7533176226798433</v>
       </c>
       <c r="D18">
-        <v>0.8047183229286544</v>
+        <v>0.7679023306173386</v>
       </c>
       <c r="E18">
-        <v>0.8288055985029124</v>
+        <v>0.7968964388590493</v>
       </c>
       <c r="F18">
-        <v>0.7781435001066229</v>
+        <v>0.7363376836732134</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.008146913810149</v>
+        <v>1.00090525274719</v>
       </c>
       <c r="J18">
-        <v>0.8299491438277532</v>
+        <v>0.7964292605239587</v>
       </c>
       <c r="K18">
-        <v>0.8230451814580459</v>
+        <v>0.7882667416810343</v>
       </c>
       <c r="L18">
-        <v>0.8464188689887059</v>
+        <v>0.816245289186313</v>
       </c>
       <c r="M18">
-        <v>0.7973292889592781</v>
+        <v>0.7579377228435501</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.795513987402679</v>
+        <v>0.7533176226798433</v>
       </c>
       <c r="D19">
-        <v>0.8082607982016864</v>
+        <v>0.7679023306173386</v>
       </c>
       <c r="E19">
-        <v>0.8318826162021555</v>
+        <v>0.7968964388590493</v>
       </c>
       <c r="F19">
-        <v>0.7821508227967608</v>
+        <v>0.7363376836732134</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.008854232578889</v>
+        <v>1.00090525274719</v>
       </c>
       <c r="J19">
-        <v>0.8331735090341061</v>
+        <v>0.7964292605239587</v>
       </c>
       <c r="K19">
-        <v>0.8263900542790156</v>
+        <v>0.7882667416810343</v>
       </c>
       <c r="L19">
-        <v>0.8493237583012481</v>
+        <v>0.816245289186313</v>
       </c>
       <c r="M19">
-        <v>0.8011081213315022</v>
+        <v>0.7579377228435501</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7779035016024883</v>
+        <v>0.7533176226798433</v>
       </c>
       <c r="D20">
-        <v>0.7913986185698644</v>
+        <v>0.7679023306173386</v>
       </c>
       <c r="E20">
-        <v>0.8172461309691094</v>
+        <v>0.7968964388590493</v>
       </c>
       <c r="F20">
-        <v>0.7630538510935927</v>
+        <v>0.7363376836732134</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.005502406694702</v>
+        <v>1.00090525274719</v>
       </c>
       <c r="J20">
-        <v>0.8178235209688839</v>
+        <v>0.7964292605239587</v>
       </c>
       <c r="K20">
-        <v>0.8104657323010328</v>
+        <v>0.7882667416810343</v>
       </c>
       <c r="L20">
-        <v>0.8354984483652853</v>
+        <v>0.816245289186313</v>
       </c>
       <c r="M20">
-        <v>0.7831039338366012</v>
+        <v>0.7579377228435501</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7779035016024883</v>
+        <v>0.7533176226798433</v>
       </c>
       <c r="D21">
-        <v>0.7913986185698644</v>
+        <v>0.7679023306173386</v>
       </c>
       <c r="E21">
-        <v>0.8172461309691094</v>
+        <v>0.7968964388590493</v>
       </c>
       <c r="F21">
-        <v>0.7630538510935927</v>
+        <v>0.7363376836732134</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.005502406694702</v>
+        <v>1.00090525274719</v>
       </c>
       <c r="J21">
-        <v>0.8178235209688839</v>
+        <v>0.7964292605239587</v>
       </c>
       <c r="K21">
-        <v>0.8104657323010328</v>
+        <v>0.7882667416810343</v>
       </c>
       <c r="L21">
-        <v>0.8354984483652853</v>
+        <v>0.816245289186313</v>
       </c>
       <c r="M21">
-        <v>0.7831039338366012</v>
+        <v>0.7579377228435501</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7779035016024883</v>
+        <v>0.7533176226798433</v>
       </c>
       <c r="D22">
-        <v>0.7913986185698644</v>
+        <v>0.7679023306173386</v>
       </c>
       <c r="E22">
-        <v>0.8172461309691094</v>
+        <v>0.7968964388590493</v>
       </c>
       <c r="F22">
-        <v>0.7630538510935927</v>
+        <v>0.7363376836732134</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.005502406694702</v>
+        <v>1.00090525274719</v>
       </c>
       <c r="J22">
-        <v>0.8178235209688839</v>
+        <v>0.7964292605239587</v>
       </c>
       <c r="K22">
-        <v>0.8104657323010328</v>
+        <v>0.7882667416810343</v>
       </c>
       <c r="L22">
-        <v>0.8354984483652853</v>
+        <v>0.816245289186313</v>
       </c>
       <c r="M22">
-        <v>0.7831039338366012</v>
+        <v>0.7579377228435501</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7779035016024883</v>
+        <v>0.7533176226798433</v>
       </c>
       <c r="D23">
-        <v>0.7913986185698644</v>
+        <v>0.7679023306173386</v>
       </c>
       <c r="E23">
-        <v>0.8172461309691094</v>
+        <v>0.7968964388590493</v>
       </c>
       <c r="F23">
-        <v>0.7630538510935927</v>
+        <v>0.7363376836732134</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.005502406694702</v>
+        <v>1.00090525274719</v>
       </c>
       <c r="J23">
-        <v>0.8178235209688839</v>
+        <v>0.7964292605239587</v>
       </c>
       <c r="K23">
-        <v>0.8104657323010328</v>
+        <v>0.7882667416810343</v>
       </c>
       <c r="L23">
-        <v>0.8354984483652853</v>
+        <v>0.816245289186313</v>
       </c>
       <c r="M23">
-        <v>0.7831039338366012</v>
+        <v>0.7579377228435501</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7779035016024883</v>
+        <v>0.7533176226798433</v>
       </c>
       <c r="D24">
-        <v>0.7913986185698644</v>
+        <v>0.7679023306173386</v>
       </c>
       <c r="E24">
-        <v>0.8172461309691094</v>
+        <v>0.7968964388590493</v>
       </c>
       <c r="F24">
-        <v>0.7630538510935927</v>
+        <v>0.7363376836732134</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.005502406694702</v>
+        <v>1.00090525274719</v>
       </c>
       <c r="J24">
-        <v>0.8178235209688839</v>
+        <v>0.7964292605239587</v>
       </c>
       <c r="K24">
-        <v>0.8104657323010328</v>
+        <v>0.7882667416810343</v>
       </c>
       <c r="L24">
-        <v>0.8354984483652853</v>
+        <v>0.816245289186313</v>
       </c>
       <c r="M24">
-        <v>0.7831039338366012</v>
+        <v>0.7579377228435501</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7779035016024883</v>
+        <v>0.7533176226798433</v>
       </c>
       <c r="D25">
-        <v>0.7913986185698644</v>
+        <v>0.7679023306173386</v>
       </c>
       <c r="E25">
-        <v>0.8172461309691094</v>
+        <v>0.7968964388590493</v>
       </c>
       <c r="F25">
-        <v>0.7630538510935927</v>
+        <v>0.7363376836732134</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.005502406694702</v>
+        <v>1.00090525274719</v>
       </c>
       <c r="J25">
-        <v>0.8178235209688839</v>
+        <v>0.7964292605239587</v>
       </c>
       <c r="K25">
-        <v>0.8104657323010328</v>
+        <v>0.7882667416810343</v>
       </c>
       <c r="L25">
-        <v>0.8354984483652853</v>
+        <v>0.816245289186313</v>
       </c>
       <c r="M25">
-        <v>0.7831039338366012</v>
+        <v>0.7579377228435501</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_30/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8856525663153422</v>
+        <v>0.8858019210410673</v>
       </c>
       <c r="D2">
-        <v>0.8949129770838981</v>
+        <v>0.895060718731339</v>
       </c>
       <c r="E2">
-        <v>0.9074535295454732</v>
+        <v>0.907583393529665</v>
       </c>
       <c r="F2">
-        <v>0.8796430773413424</v>
+        <v>0.8797974177739243</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026410705784911</v>
+        <v>1.026432865303607</v>
       </c>
       <c r="J2">
-        <v>0.9118886509845371</v>
+        <v>0.9120317314079593</v>
       </c>
       <c r="K2">
-        <v>0.9080603651878567</v>
+        <v>0.9082053708722128</v>
       </c>
       <c r="L2">
-        <v>0.9203728027374256</v>
+        <v>0.9205003472921973</v>
       </c>
       <c r="M2">
-        <v>0.893079738494544</v>
+        <v>0.8932310892644214</v>
+      </c>
+      <c r="N2">
+        <v>0.9423814444555204</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.908377532269637</v>
+        <v>0.9084917565062679</v>
       </c>
       <c r="D3">
-        <v>0.9168334418435931</v>
+        <v>0.9169467176669255</v>
       </c>
       <c r="E3">
-        <v>0.9266505484588693</v>
+        <v>0.9267503039837049</v>
       </c>
       <c r="F3">
-        <v>0.9042139506391302</v>
+        <v>0.9043315778670629</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030822899122111</v>
+        <v>1.030839691109901</v>
       </c>
       <c r="J3">
-        <v>0.9317209614274603</v>
+        <v>0.9318311258829619</v>
       </c>
       <c r="K3">
-        <v>0.9286540057361787</v>
+        <v>0.9287654762188099</v>
       </c>
       <c r="L3">
-        <v>0.9383167450744114</v>
+        <v>0.9384149534568064</v>
       </c>
       <c r="M3">
-        <v>0.9162392826874515</v>
+        <v>0.9163549673036991</v>
+      </c>
+      <c r="N3">
+        <v>0.9558635738575961</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9216095430700348</v>
+        <v>0.9217054598878165</v>
       </c>
       <c r="D4">
-        <v>0.9296083528240772</v>
+        <v>0.9297036017065283</v>
       </c>
       <c r="E4">
-        <v>0.9378510497124538</v>
+        <v>0.9379350327953958</v>
       </c>
       <c r="F4">
-        <v>0.9185298102738442</v>
+        <v>0.9186283984994643</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033361648282496</v>
+        <v>1.033375678543706</v>
       </c>
       <c r="J4">
-        <v>0.9432557899845063</v>
+        <v>0.9433486392834003</v>
       </c>
       <c r="K4">
-        <v>0.940637774678347</v>
+        <v>0.9407316431364916</v>
       </c>
       <c r="L4">
-        <v>0.9487623241127445</v>
+        <v>0.9488451169299125</v>
       </c>
       <c r="M4">
-        <v>0.9297222756498438</v>
+        <v>0.9298193908880262</v>
+      </c>
+      <c r="N4">
+        <v>0.9637050001643711</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9268842320511027</v>
+        <v>0.9269732206200356</v>
       </c>
       <c r="D5">
-        <v>0.9347030067129857</v>
+        <v>0.9347914211132091</v>
       </c>
       <c r="E5">
-        <v>0.94232034143622</v>
+        <v>0.9423983405557985</v>
       </c>
       <c r="F5">
-        <v>0.9242391891295076</v>
+        <v>0.9243305897378213</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034364990896168</v>
+        <v>1.034377982946756</v>
       </c>
       <c r="J5">
-        <v>0.9478504266041258</v>
+        <v>0.9479366920234135</v>
       </c>
       <c r="K5">
-        <v>0.9454127527501863</v>
+        <v>0.9454999357184423</v>
       </c>
       <c r="L5">
-        <v>0.9529250609154242</v>
+        <v>0.9530019956525404</v>
       </c>
       <c r="M5">
-        <v>0.9350967809919639</v>
+        <v>0.9351868718338235</v>
+      </c>
+      <c r="N5">
+        <v>0.966828262297212</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.927754474134422</v>
+        <v>0.9278423383500636</v>
       </c>
       <c r="D6">
-        <v>0.9355436614853064</v>
+        <v>0.9356309660965565</v>
       </c>
       <c r="E6">
-        <v>0.9430579422147566</v>
+        <v>0.9431349694416418</v>
       </c>
       <c r="F6">
-        <v>0.9251813140653141</v>
+        <v>0.9252715491523952</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03452998062407</v>
+        <v>1.034542804558809</v>
       </c>
       <c r="J6">
-        <v>0.9486082544576794</v>
+        <v>0.9486934497476048</v>
       </c>
       <c r="K6">
-        <v>0.9462004160768294</v>
+        <v>0.9462865127983338</v>
       </c>
       <c r="L6">
-        <v>0.9536117643059994</v>
+        <v>0.9536877470797203</v>
       </c>
       <c r="M6">
-        <v>0.935983483397842</v>
+        <v>0.9360724344352851</v>
+      </c>
+      <c r="N6">
+        <v>0.9673433898311889</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9216810858937735</v>
+        <v>0.9217769074069013</v>
       </c>
       <c r="D7">
-        <v>0.9296774456230271</v>
+        <v>0.9297726005373759</v>
       </c>
       <c r="E7">
-        <v>0.9379116519912879</v>
+        <v>0.9379955528154</v>
       </c>
       <c r="F7">
-        <v>0.9186072379203652</v>
+        <v>0.9187057272074139</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033375293466527</v>
+        <v>1.033389309419737</v>
       </c>
       <c r="J7">
-        <v>0.9433181234710214</v>
+        <v>0.9434108823208752</v>
       </c>
       <c r="K7">
-        <v>0.9407025486519611</v>
+        <v>0.9407963252367998</v>
       </c>
       <c r="L7">
-        <v>0.9488187904827187</v>
+        <v>0.9489015028080983</v>
       </c>
       <c r="M7">
-        <v>0.929795172978218</v>
+        <v>0.9298921915781405</v>
+      </c>
+      <c r="N7">
+        <v>0.9637473731055688</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8936842512809637</v>
+        <v>0.8938205908676667</v>
       </c>
       <c r="D8">
-        <v>0.9026573926959726</v>
+        <v>0.9027923841197881</v>
       </c>
       <c r="E8">
-        <v>0.9142325032636077</v>
+        <v>0.9143512362830619</v>
       </c>
       <c r="F8">
-        <v>0.8883255304924836</v>
+        <v>0.8884662429418339</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.02797578077738</v>
+        <v>1.027995942026658</v>
       </c>
       <c r="J8">
-        <v>0.918900521224695</v>
+        <v>0.9190314520782327</v>
       </c>
       <c r="K8">
-        <v>0.9153400813930829</v>
+        <v>0.9154726981485836</v>
       </c>
       <c r="L8">
-        <v>0.9267148616430608</v>
+        <v>0.9268315736877492</v>
       </c>
       <c r="M8">
-        <v>0.9012656822538374</v>
+        <v>0.9014038143061528</v>
+      </c>
+      <c r="N8">
+        <v>0.9471480132877096</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.827984276164547</v>
+        <v>0.8282557634022305</v>
       </c>
       <c r="D9">
-        <v>0.8394139517756479</v>
+        <v>0.8396804415685516</v>
       </c>
       <c r="E9">
-        <v>0.8589878009178625</v>
+        <v>0.8592209393661121</v>
       </c>
       <c r="F9">
-        <v>0.8173019026334563</v>
+        <v>0.8175854320401311</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.015130820977057</v>
+        <v>1.015172133744596</v>
       </c>
       <c r="J9">
-        <v>0.8615142408973407</v>
+        <v>0.8617692506148489</v>
       </c>
       <c r="K9">
-        <v>0.8557891493482453</v>
+        <v>0.8560487825274804</v>
       </c>
       <c r="L9">
-        <v>0.8748745773385065</v>
+        <v>0.8751020784860948</v>
       </c>
       <c r="M9">
-        <v>0.8342673010967885</v>
+        <v>0.8345429869980372</v>
+      </c>
+      <c r="N9">
+        <v>0.9081566502516878</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7533176226798433</v>
+        <v>0.7539348601905942</v>
       </c>
       <c r="D10">
-        <v>0.7679023306173386</v>
+        <v>0.7684999965254948</v>
       </c>
       <c r="E10">
-        <v>0.7968964388590493</v>
+        <v>0.7974150893571372</v>
       </c>
       <c r="F10">
-        <v>0.7363376836732134</v>
+        <v>0.7369948695716835</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.00090525274719</v>
+        <v>1.001002212697502</v>
       </c>
       <c r="J10">
-        <v>0.7964292605239587</v>
+        <v>0.7969903473187872</v>
       </c>
       <c r="K10">
-        <v>0.7882667416810343</v>
+        <v>0.7888423848729326</v>
       </c>
       <c r="L10">
-        <v>0.816245289186313</v>
+        <v>0.8167467068978086</v>
       </c>
       <c r="M10">
-        <v>0.7579377228435501</v>
+        <v>0.7585676456763765</v>
+      </c>
+      <c r="N10">
+        <v>0.8640858969268514</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7533176226798433</v>
+        <v>0.7539348601905942</v>
       </c>
       <c r="D11">
-        <v>0.7679023306173386</v>
+        <v>0.7684999965254948</v>
       </c>
       <c r="E11">
-        <v>0.7968964388590493</v>
+        <v>0.7974150893571372</v>
       </c>
       <c r="F11">
-        <v>0.7363376836732134</v>
+        <v>0.7369948695716835</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.00090525274719</v>
+        <v>1.001002212697502</v>
       </c>
       <c r="J11">
-        <v>0.7964292605239587</v>
+        <v>0.7969903473187872</v>
       </c>
       <c r="K11">
-        <v>0.7882667416810343</v>
+        <v>0.7888423848729326</v>
       </c>
       <c r="L11">
-        <v>0.816245289186313</v>
+        <v>0.8167467068978086</v>
       </c>
       <c r="M11">
-        <v>0.7579377228435501</v>
+        <v>0.7585676456763765</v>
+      </c>
+      <c r="N11">
+        <v>0.8640858969268514</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7533176226798433</v>
+        <v>0.7539348601905942</v>
       </c>
       <c r="D12">
-        <v>0.7679023306173386</v>
+        <v>0.7684999965254948</v>
       </c>
       <c r="E12">
-        <v>0.7968964388590493</v>
+        <v>0.7974150893571372</v>
       </c>
       <c r="F12">
-        <v>0.7363376836732134</v>
+        <v>0.7369948695716835</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.00090525274719</v>
+        <v>1.001002212697502</v>
       </c>
       <c r="J12">
-        <v>0.7964292605239587</v>
+        <v>0.7969903473187872</v>
       </c>
       <c r="K12">
-        <v>0.7882667416810343</v>
+        <v>0.7888423848729326</v>
       </c>
       <c r="L12">
-        <v>0.816245289186313</v>
+        <v>0.8167467068978086</v>
       </c>
       <c r="M12">
-        <v>0.7579377228435501</v>
+        <v>0.7585676456763765</v>
+      </c>
+      <c r="N12">
+        <v>0.8640858969268514</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7533176226798433</v>
+        <v>0.7539348601905942</v>
       </c>
       <c r="D13">
-        <v>0.7679023306173386</v>
+        <v>0.7684999965254948</v>
       </c>
       <c r="E13">
-        <v>0.7968964388590493</v>
+        <v>0.7974150893571372</v>
       </c>
       <c r="F13">
-        <v>0.7363376836732134</v>
+        <v>0.7369948695716835</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.00090525274719</v>
+        <v>1.001002212697502</v>
       </c>
       <c r="J13">
-        <v>0.7964292605239587</v>
+        <v>0.7969903473187872</v>
       </c>
       <c r="K13">
-        <v>0.7882667416810343</v>
+        <v>0.7888423848729326</v>
       </c>
       <c r="L13">
-        <v>0.816245289186313</v>
+        <v>0.8167467068978086</v>
       </c>
       <c r="M13">
-        <v>0.7579377228435501</v>
+        <v>0.7585676456763765</v>
+      </c>
+      <c r="N13">
+        <v>0.8640858969268514</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7533176226798433</v>
+        <v>0.7539348601905942</v>
       </c>
       <c r="D14">
-        <v>0.7679023306173386</v>
+        <v>0.7684999965254948</v>
       </c>
       <c r="E14">
-        <v>0.7968964388590493</v>
+        <v>0.7974150893571372</v>
       </c>
       <c r="F14">
-        <v>0.7363376836732134</v>
+        <v>0.7369948695716835</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.00090525274719</v>
+        <v>1.001002212697502</v>
       </c>
       <c r="J14">
-        <v>0.7964292605239587</v>
+        <v>0.7969903473187872</v>
       </c>
       <c r="K14">
-        <v>0.7882667416810343</v>
+        <v>0.7888423848729326</v>
       </c>
       <c r="L14">
-        <v>0.816245289186313</v>
+        <v>0.8167467068978086</v>
       </c>
       <c r="M14">
-        <v>0.7579377228435501</v>
+        <v>0.7585676456763765</v>
+      </c>
+      <c r="N14">
+        <v>0.8640858969268514</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7533176226798433</v>
+        <v>0.7539348601905942</v>
       </c>
       <c r="D15">
-        <v>0.7679023306173386</v>
+        <v>0.7684999965254948</v>
       </c>
       <c r="E15">
-        <v>0.7968964388590493</v>
+        <v>0.7974150893571372</v>
       </c>
       <c r="F15">
-        <v>0.7363376836732134</v>
+        <v>0.7369948695716835</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.00090525274719</v>
+        <v>1.001002212697502</v>
       </c>
       <c r="J15">
-        <v>0.7964292605239587</v>
+        <v>0.7969903473187872</v>
       </c>
       <c r="K15">
-        <v>0.7882667416810343</v>
+        <v>0.7888423848729326</v>
       </c>
       <c r="L15">
-        <v>0.816245289186313</v>
+        <v>0.8167467068978086</v>
       </c>
       <c r="M15">
-        <v>0.7579377228435501</v>
+        <v>0.7585676456763765</v>
+      </c>
+      <c r="N15">
+        <v>0.8640858969268514</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7533176226798433</v>
+        <v>0.7539348601905942</v>
       </c>
       <c r="D16">
-        <v>0.7679023306173386</v>
+        <v>0.7684999965254948</v>
       </c>
       <c r="E16">
-        <v>0.7968964388590493</v>
+        <v>0.7974150893571372</v>
       </c>
       <c r="F16">
-        <v>0.7363376836732134</v>
+        <v>0.7369948695716835</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.00090525274719</v>
+        <v>1.001002212697502</v>
       </c>
       <c r="J16">
-        <v>0.7964292605239587</v>
+        <v>0.7969903473187872</v>
       </c>
       <c r="K16">
-        <v>0.7882667416810343</v>
+        <v>0.7888423848729326</v>
       </c>
       <c r="L16">
-        <v>0.816245289186313</v>
+        <v>0.8167467068978086</v>
       </c>
       <c r="M16">
-        <v>0.7579377228435501</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.7585676456763765</v>
+      </c>
+      <c r="N16">
+        <v>0.8640858969268514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7533176226798433</v>
+        <v>0.7539348601905942</v>
       </c>
       <c r="D17">
-        <v>0.7679023306173386</v>
+        <v>0.7684999965254948</v>
       </c>
       <c r="E17">
-        <v>0.7968964388590493</v>
+        <v>0.7974150893571372</v>
       </c>
       <c r="F17">
-        <v>0.7363376836732134</v>
+        <v>0.7369948695716835</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.00090525274719</v>
+        <v>1.001002212697502</v>
       </c>
       <c r="J17">
-        <v>0.7964292605239587</v>
+        <v>0.7969903473187872</v>
       </c>
       <c r="K17">
-        <v>0.7882667416810343</v>
+        <v>0.7888423848729326</v>
       </c>
       <c r="L17">
-        <v>0.816245289186313</v>
+        <v>0.8167467068978086</v>
       </c>
       <c r="M17">
-        <v>0.7579377228435501</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.7585676456763765</v>
+      </c>
+      <c r="N17">
+        <v>0.8640858969268514</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7533176226798433</v>
+        <v>0.7539348601905942</v>
       </c>
       <c r="D18">
-        <v>0.7679023306173386</v>
+        <v>0.7684999965254948</v>
       </c>
       <c r="E18">
-        <v>0.7968964388590493</v>
+        <v>0.7974150893571372</v>
       </c>
       <c r="F18">
-        <v>0.7363376836732134</v>
+        <v>0.7369948695716835</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.00090525274719</v>
+        <v>1.001002212697502</v>
       </c>
       <c r="J18">
-        <v>0.7964292605239587</v>
+        <v>0.7969903473187872</v>
       </c>
       <c r="K18">
-        <v>0.7882667416810343</v>
+        <v>0.7888423848729326</v>
       </c>
       <c r="L18">
-        <v>0.816245289186313</v>
+        <v>0.8167467068978086</v>
       </c>
       <c r="M18">
-        <v>0.7579377228435501</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.7585676456763765</v>
+      </c>
+      <c r="N18">
+        <v>0.8640858969268514</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7533176226798433</v>
+        <v>0.7539348601905942</v>
       </c>
       <c r="D19">
-        <v>0.7679023306173386</v>
+        <v>0.7684999965254948</v>
       </c>
       <c r="E19">
-        <v>0.7968964388590493</v>
+        <v>0.7974150893571372</v>
       </c>
       <c r="F19">
-        <v>0.7363376836732134</v>
+        <v>0.7369948695716835</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.00090525274719</v>
+        <v>1.001002212697502</v>
       </c>
       <c r="J19">
-        <v>0.7964292605239587</v>
+        <v>0.7969903473187872</v>
       </c>
       <c r="K19">
-        <v>0.7882667416810343</v>
+        <v>0.7888423848729326</v>
       </c>
       <c r="L19">
-        <v>0.816245289186313</v>
+        <v>0.8167467068978086</v>
       </c>
       <c r="M19">
-        <v>0.7579377228435501</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.7585676456763765</v>
+      </c>
+      <c r="N19">
+        <v>0.8640858969268514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7533176226798433</v>
+        <v>0.7539348601905942</v>
       </c>
       <c r="D20">
-        <v>0.7679023306173386</v>
+        <v>0.7684999965254948</v>
       </c>
       <c r="E20">
-        <v>0.7968964388590493</v>
+        <v>0.7974150893571372</v>
       </c>
       <c r="F20">
-        <v>0.7363376836732134</v>
+        <v>0.7369948695716835</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.00090525274719</v>
+        <v>1.001002212697502</v>
       </c>
       <c r="J20">
-        <v>0.7964292605239587</v>
+        <v>0.7969903473187872</v>
       </c>
       <c r="K20">
-        <v>0.7882667416810343</v>
+        <v>0.7888423848729326</v>
       </c>
       <c r="L20">
-        <v>0.816245289186313</v>
+        <v>0.8167467068978086</v>
       </c>
       <c r="M20">
-        <v>0.7579377228435501</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.7585676456763765</v>
+      </c>
+      <c r="N20">
+        <v>0.8640858969268514</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7533176226798433</v>
+        <v>0.7539348601905942</v>
       </c>
       <c r="D21">
-        <v>0.7679023306173386</v>
+        <v>0.7684999965254948</v>
       </c>
       <c r="E21">
-        <v>0.7968964388590493</v>
+        <v>0.7974150893571372</v>
       </c>
       <c r="F21">
-        <v>0.7363376836732134</v>
+        <v>0.7369948695716835</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.00090525274719</v>
+        <v>1.001002212697502</v>
       </c>
       <c r="J21">
-        <v>0.7964292605239587</v>
+        <v>0.7969903473187872</v>
       </c>
       <c r="K21">
-        <v>0.7882667416810343</v>
+        <v>0.7888423848729326</v>
       </c>
       <c r="L21">
-        <v>0.816245289186313</v>
+        <v>0.8167467068978086</v>
       </c>
       <c r="M21">
-        <v>0.7579377228435501</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7585676456763765</v>
+      </c>
+      <c r="N21">
+        <v>0.8640858969268514</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7533176226798433</v>
+        <v>0.7539348601905942</v>
       </c>
       <c r="D22">
-        <v>0.7679023306173386</v>
+        <v>0.7684999965254948</v>
       </c>
       <c r="E22">
-        <v>0.7968964388590493</v>
+        <v>0.7974150893571372</v>
       </c>
       <c r="F22">
-        <v>0.7363376836732134</v>
+        <v>0.7369948695716835</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.00090525274719</v>
+        <v>1.001002212697502</v>
       </c>
       <c r="J22">
-        <v>0.7964292605239587</v>
+        <v>0.7969903473187872</v>
       </c>
       <c r="K22">
-        <v>0.7882667416810343</v>
+        <v>0.7888423848729326</v>
       </c>
       <c r="L22">
-        <v>0.816245289186313</v>
+        <v>0.8167467068978086</v>
       </c>
       <c r="M22">
-        <v>0.7579377228435501</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7585676456763765</v>
+      </c>
+      <c r="N22">
+        <v>0.8640858969268514</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7533176226798433</v>
+        <v>0.7539348601905942</v>
       </c>
       <c r="D23">
-        <v>0.7679023306173386</v>
+        <v>0.7684999965254948</v>
       </c>
       <c r="E23">
-        <v>0.7968964388590493</v>
+        <v>0.7974150893571372</v>
       </c>
       <c r="F23">
-        <v>0.7363376836732134</v>
+        <v>0.7369948695716835</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.00090525274719</v>
+        <v>1.001002212697502</v>
       </c>
       <c r="J23">
-        <v>0.7964292605239587</v>
+        <v>0.7969903473187872</v>
       </c>
       <c r="K23">
-        <v>0.7882667416810343</v>
+        <v>0.7888423848729326</v>
       </c>
       <c r="L23">
-        <v>0.816245289186313</v>
+        <v>0.8167467068978086</v>
       </c>
       <c r="M23">
-        <v>0.7579377228435501</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7585676456763765</v>
+      </c>
+      <c r="N23">
+        <v>0.8640858969268514</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7533176226798433</v>
+        <v>0.7539348601905942</v>
       </c>
       <c r="D24">
-        <v>0.7679023306173386</v>
+        <v>0.7684999965254948</v>
       </c>
       <c r="E24">
-        <v>0.7968964388590493</v>
+        <v>0.7974150893571372</v>
       </c>
       <c r="F24">
-        <v>0.7363376836732134</v>
+        <v>0.7369948695716835</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.00090525274719</v>
+        <v>1.001002212697502</v>
       </c>
       <c r="J24">
-        <v>0.7964292605239587</v>
+        <v>0.7969903473187872</v>
       </c>
       <c r="K24">
-        <v>0.7882667416810343</v>
+        <v>0.7888423848729326</v>
       </c>
       <c r="L24">
-        <v>0.816245289186313</v>
+        <v>0.8167467068978086</v>
       </c>
       <c r="M24">
-        <v>0.7579377228435501</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.7585676456763765</v>
+      </c>
+      <c r="N24">
+        <v>0.8640858969268514</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7533176226798433</v>
+        <v>0.7539348601905942</v>
       </c>
       <c r="D25">
-        <v>0.7679023306173386</v>
+        <v>0.7684999965254948</v>
       </c>
       <c r="E25">
-        <v>0.7968964388590493</v>
+        <v>0.7974150893571372</v>
       </c>
       <c r="F25">
-        <v>0.7363376836732134</v>
+        <v>0.7369948695716835</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.00090525274719</v>
+        <v>1.001002212697502</v>
       </c>
       <c r="J25">
-        <v>0.7964292605239587</v>
+        <v>0.7969903473187872</v>
       </c>
       <c r="K25">
-        <v>0.7882667416810343</v>
+        <v>0.7888423848729326</v>
       </c>
       <c r="L25">
-        <v>0.816245289186313</v>
+        <v>0.8167467068978086</v>
       </c>
       <c r="M25">
-        <v>0.7579377228435501</v>
+        <v>0.7585676456763765</v>
+      </c>
+      <c r="N25">
+        <v>0.8640858969268514</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_30/res_bus/vm_pu.xlsx
@@ -418,40 +418,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.8858019210410673</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.895060718731339</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.907583393529665</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8797974177739243</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.026432865303607</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.9120317314079593</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9082053708722128</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.9205003472921973</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8932310892644214</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9423814444555204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +465,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9084917565062679</v>
+        <v>0.8330693681401604</v>
       </c>
       <c r="D3">
-        <v>0.9169467176669255</v>
+        <v>0.8429790916850075</v>
       </c>
       <c r="E3">
-        <v>0.9267503039837049</v>
+        <v>0.8623180113033221</v>
       </c>
       <c r="F3">
-        <v>0.9043315778670629</v>
+        <v>0.8710274465264249</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030839691109901</v>
+        <v>1.033352914007367</v>
       </c>
       <c r="J3">
-        <v>0.9318311258829619</v>
+        <v>0.8594400456481448</v>
       </c>
       <c r="K3">
-        <v>0.9287654762188099</v>
+        <v>0.8561124563233197</v>
       </c>
       <c r="L3">
-        <v>0.9384149534568064</v>
+        <v>0.8750792523821302</v>
       </c>
       <c r="M3">
-        <v>0.9163549673036991</v>
+        <v>0.8836281204775465</v>
       </c>
       <c r="N3">
-        <v>0.9558635738575961</v>
+        <v>0.8606605490921164</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +506,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9217054598878165</v>
+        <v>0.875158713140949</v>
       </c>
       <c r="D4">
-        <v>0.9297036017065283</v>
+        <v>0.8838859122466181</v>
       </c>
       <c r="E4">
-        <v>0.9379350327953958</v>
+        <v>0.8994888703889233</v>
       </c>
       <c r="F4">
-        <v>0.9186283984994643</v>
+        <v>0.9078059711635662</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033375678543706</v>
+        <v>1.036241776036885</v>
       </c>
       <c r="J4">
-        <v>0.9433486392834003</v>
+        <v>0.8984020284479891</v>
       </c>
       <c r="K4">
-        <v>0.9407316431364916</v>
+        <v>0.8956221523216762</v>
       </c>
       <c r="L4">
-        <v>0.9488451169299125</v>
+        <v>0.9109735690282892</v>
       </c>
       <c r="M4">
-        <v>0.9298193908880262</v>
+        <v>0.9191610972322209</v>
       </c>
       <c r="N4">
-        <v>0.9637050001643711</v>
+        <v>0.8996778623765382</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +547,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9269732206200356</v>
+        <v>0.889721237909461</v>
       </c>
       <c r="D5">
-        <v>0.9347914211132091</v>
+        <v>0.8980558183230588</v>
       </c>
       <c r="E5">
-        <v>0.9423983405557985</v>
+        <v>0.9123765741744744</v>
       </c>
       <c r="F5">
-        <v>0.9243305897378213</v>
+        <v>0.9205728011087994</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034377982946756</v>
+        <v>1.037245593996935</v>
       </c>
       <c r="J5">
-        <v>0.9479366920234135</v>
+        <v>0.9118912803458791</v>
       </c>
       <c r="K5">
-        <v>0.9454999357184423</v>
+        <v>0.909302626523453</v>
       </c>
       <c r="L5">
-        <v>0.9530019956525404</v>
+        <v>0.9234069866064639</v>
       </c>
       <c r="M5">
-        <v>0.9351868718338235</v>
+        <v>0.9314832039602029</v>
       </c>
       <c r="N5">
-        <v>0.966828262297212</v>
+        <v>0.9131862705593621</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +588,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9278423383500636</v>
+        <v>0.8920385874184205</v>
       </c>
       <c r="D6">
-        <v>0.9356309660965565</v>
+        <v>0.9003113974135771</v>
       </c>
       <c r="E6">
-        <v>0.9431349694416418</v>
+        <v>0.9144284598315661</v>
       </c>
       <c r="F6">
-        <v>0.9252715491523952</v>
+        <v>0.9226060817670773</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034542804558809</v>
+        <v>1.03740538133187</v>
       </c>
       <c r="J6">
-        <v>0.9486934497476048</v>
+        <v>0.9140380953049134</v>
       </c>
       <c r="K6">
-        <v>0.9462865127983338</v>
+        <v>0.9114799729640691</v>
       </c>
       <c r="L6">
-        <v>0.9536877470797203</v>
+        <v>0.9253859454672798</v>
       </c>
       <c r="M6">
-        <v>0.9360724344352851</v>
+        <v>0.9334450308124974</v>
       </c>
       <c r="N6">
-        <v>0.9673433898311889</v>
+        <v>0.9153361342418813</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +629,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9217769074069013</v>
+        <v>0.8753627444022556</v>
       </c>
       <c r="D7">
-        <v>0.9297726005373759</v>
+        <v>0.8840843881234453</v>
       </c>
       <c r="E7">
-        <v>0.9379955528154</v>
+        <v>0.8996693527470067</v>
       </c>
       <c r="F7">
-        <v>0.9187057272074139</v>
+        <v>0.9079847112030723</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033389309419737</v>
+        <v>1.036255833066787</v>
       </c>
       <c r="J7">
-        <v>0.9434108823208752</v>
+        <v>0.8985909998287718</v>
       </c>
       <c r="K7">
-        <v>0.9407963252367998</v>
+        <v>0.8958137956686054</v>
       </c>
       <c r="L7">
-        <v>0.9489015028080983</v>
+        <v>0.9111477332518856</v>
       </c>
       <c r="M7">
-        <v>0.9298921915781405</v>
+        <v>0.9193336568998326</v>
       </c>
       <c r="N7">
-        <v>0.9637473731055688</v>
+        <v>0.8998671021183566</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +670,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8938205908676667</v>
+        <v>0.7624275673979303</v>
       </c>
       <c r="D8">
-        <v>0.9027923841197881</v>
+        <v>0.7745205550651616</v>
       </c>
       <c r="E8">
-        <v>0.9143512362830619</v>
+        <v>0.8002977925861875</v>
       </c>
       <c r="F8">
-        <v>0.8884662429418339</v>
+        <v>0.809841296319645</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027995942026658</v>
+        <v>1.028601567868896</v>
       </c>
       <c r="J8">
-        <v>0.9190314520782327</v>
+        <v>0.7942043460045394</v>
       </c>
       <c r="K8">
-        <v>0.9154726981485836</v>
+        <v>0.7899657702730142</v>
       </c>
       <c r="L8">
-        <v>0.9268315736877492</v>
+        <v>0.8150916730870359</v>
       </c>
       <c r="M8">
-        <v>0.9014038143061528</v>
+        <v>0.8244081047062168</v>
       </c>
       <c r="N8">
-        <v>0.9471480132877096</v>
+        <v>0.7953322072723776</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +711,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8282557634022305</v>
+        <v>0.7624275673979303</v>
       </c>
       <c r="D9">
-        <v>0.8396804415685516</v>
+        <v>0.7745205550651616</v>
       </c>
       <c r="E9">
-        <v>0.8592209393661121</v>
+        <v>0.8002977925861875</v>
       </c>
       <c r="F9">
-        <v>0.8175854320401311</v>
+        <v>0.809841296319645</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.015172133744596</v>
+        <v>1.028601567868896</v>
       </c>
       <c r="J9">
-        <v>0.8617692506148489</v>
+        <v>0.7942043460045394</v>
       </c>
       <c r="K9">
-        <v>0.8560487825274804</v>
+        <v>0.7899657702730142</v>
       </c>
       <c r="L9">
-        <v>0.8751020784860948</v>
+        <v>0.8150916730870359</v>
       </c>
       <c r="M9">
-        <v>0.8345429869980372</v>
+        <v>0.8244081047062168</v>
       </c>
       <c r="N9">
-        <v>0.9081566502516878</v>
+        <v>0.7953322072723776</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +752,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7539348601905942</v>
+        <v>0.7624275673979303</v>
       </c>
       <c r="D10">
-        <v>0.7684999965254948</v>
+        <v>0.7745205550651616</v>
       </c>
       <c r="E10">
-        <v>0.7974150893571372</v>
+        <v>0.8002977925861875</v>
       </c>
       <c r="F10">
-        <v>0.7369948695716835</v>
+        <v>0.809841296319645</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.001002212697502</v>
+        <v>1.028601567868896</v>
       </c>
       <c r="J10">
-        <v>0.7969903473187872</v>
+        <v>0.7942043460045394</v>
       </c>
       <c r="K10">
-        <v>0.7888423848729326</v>
+        <v>0.7899657702730142</v>
       </c>
       <c r="L10">
-        <v>0.8167467068978086</v>
+        <v>0.8150916730870359</v>
       </c>
       <c r="M10">
-        <v>0.7585676456763765</v>
+        <v>0.8244081047062168</v>
       </c>
       <c r="N10">
-        <v>0.8640858969268514</v>
+        <v>0.7953322072723776</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +793,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7539348601905942</v>
+        <v>0.7624275673979303</v>
       </c>
       <c r="D11">
-        <v>0.7684999965254948</v>
+        <v>0.7745205550651616</v>
       </c>
       <c r="E11">
-        <v>0.7974150893571372</v>
+        <v>0.8002977925861875</v>
       </c>
       <c r="F11">
-        <v>0.7369948695716835</v>
+        <v>0.809841296319645</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.001002212697502</v>
+        <v>1.028601567868896</v>
       </c>
       <c r="J11">
-        <v>0.7969903473187872</v>
+        <v>0.7942043460045394</v>
       </c>
       <c r="K11">
-        <v>0.7888423848729326</v>
+        <v>0.7899657702730142</v>
       </c>
       <c r="L11">
-        <v>0.8167467068978086</v>
+        <v>0.8150916730870359</v>
       </c>
       <c r="M11">
-        <v>0.7585676456763765</v>
+        <v>0.8244081047062168</v>
       </c>
       <c r="N11">
-        <v>0.8640858969268514</v>
+        <v>0.7953322072723776</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +834,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7539348601905942</v>
+        <v>0.7624275673979303</v>
       </c>
       <c r="D12">
-        <v>0.7684999965254948</v>
+        <v>0.7745205550651616</v>
       </c>
       <c r="E12">
-        <v>0.7974150893571372</v>
+        <v>0.8002977925861875</v>
       </c>
       <c r="F12">
-        <v>0.7369948695716835</v>
+        <v>0.809841296319645</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.001002212697502</v>
+        <v>1.028601567868896</v>
       </c>
       <c r="J12">
-        <v>0.7969903473187872</v>
+        <v>0.7942043460045394</v>
       </c>
       <c r="K12">
-        <v>0.7888423848729326</v>
+        <v>0.7899657702730142</v>
       </c>
       <c r="L12">
-        <v>0.8167467068978086</v>
+        <v>0.8150916730870359</v>
       </c>
       <c r="M12">
-        <v>0.7585676456763765</v>
+        <v>0.8244081047062168</v>
       </c>
       <c r="N12">
-        <v>0.8640858969268514</v>
+        <v>0.7953322072723776</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +875,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7539348601905942</v>
+        <v>0.7624275673979303</v>
       </c>
       <c r="D13">
-        <v>0.7684999965254948</v>
+        <v>0.7745205550651616</v>
       </c>
       <c r="E13">
-        <v>0.7974150893571372</v>
+        <v>0.8002977925861875</v>
       </c>
       <c r="F13">
-        <v>0.7369948695716835</v>
+        <v>0.809841296319645</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.001002212697502</v>
+        <v>1.028601567868896</v>
       </c>
       <c r="J13">
-        <v>0.7969903473187872</v>
+        <v>0.7942043460045394</v>
       </c>
       <c r="K13">
-        <v>0.7888423848729326</v>
+        <v>0.7899657702730142</v>
       </c>
       <c r="L13">
-        <v>0.8167467068978086</v>
+        <v>0.8150916730870359</v>
       </c>
       <c r="M13">
-        <v>0.7585676456763765</v>
+        <v>0.8244081047062168</v>
       </c>
       <c r="N13">
-        <v>0.8640858969268514</v>
+        <v>0.7953322072723776</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +916,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7539348601905942</v>
+        <v>0.7624275673979303</v>
       </c>
       <c r="D14">
-        <v>0.7684999965254948</v>
+        <v>0.7745205550651616</v>
       </c>
       <c r="E14">
-        <v>0.7974150893571372</v>
+        <v>0.8002977925861875</v>
       </c>
       <c r="F14">
-        <v>0.7369948695716835</v>
+        <v>0.809841296319645</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.001002212697502</v>
+        <v>1.028601567868896</v>
       </c>
       <c r="J14">
-        <v>0.7969903473187872</v>
+        <v>0.7942043460045394</v>
       </c>
       <c r="K14">
-        <v>0.7888423848729326</v>
+        <v>0.7899657702730142</v>
       </c>
       <c r="L14">
-        <v>0.8167467068978086</v>
+        <v>0.8150916730870359</v>
       </c>
       <c r="M14">
-        <v>0.7585676456763765</v>
+        <v>0.8244081047062168</v>
       </c>
       <c r="N14">
-        <v>0.8640858969268514</v>
+        <v>0.7953322072723776</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +957,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7539348601905942</v>
+        <v>0.7624275673979303</v>
       </c>
       <c r="D15">
-        <v>0.7684999965254948</v>
+        <v>0.7745205550651616</v>
       </c>
       <c r="E15">
-        <v>0.7974150893571372</v>
+        <v>0.8002977925861875</v>
       </c>
       <c r="F15">
-        <v>0.7369948695716835</v>
+        <v>0.809841296319645</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.001002212697502</v>
+        <v>1.028601567868896</v>
       </c>
       <c r="J15">
-        <v>0.7969903473187872</v>
+        <v>0.7942043460045394</v>
       </c>
       <c r="K15">
-        <v>0.7888423848729326</v>
+        <v>0.7899657702730142</v>
       </c>
       <c r="L15">
-        <v>0.8167467068978086</v>
+        <v>0.8150916730870359</v>
       </c>
       <c r="M15">
-        <v>0.7585676456763765</v>
+        <v>0.8244081047062168</v>
       </c>
       <c r="N15">
-        <v>0.8640858969268514</v>
+        <v>0.7953322072723776</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +998,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7539348601905942</v>
+        <v>0.7624275673979303</v>
       </c>
       <c r="D16">
-        <v>0.7684999965254948</v>
+        <v>0.7745205550651616</v>
       </c>
       <c r="E16">
-        <v>0.7974150893571372</v>
+        <v>0.8002977925861875</v>
       </c>
       <c r="F16">
-        <v>0.7369948695716835</v>
+        <v>0.809841296319645</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.001002212697502</v>
+        <v>1.028601567868896</v>
       </c>
       <c r="J16">
-        <v>0.7969903473187872</v>
+        <v>0.7942043460045394</v>
       </c>
       <c r="K16">
-        <v>0.7888423848729326</v>
+        <v>0.7899657702730142</v>
       </c>
       <c r="L16">
-        <v>0.8167467068978086</v>
+        <v>0.8150916730870359</v>
       </c>
       <c r="M16">
-        <v>0.7585676456763765</v>
+        <v>0.8244081047062168</v>
       </c>
       <c r="N16">
-        <v>0.8640858969268514</v>
+        <v>0.7953322072723776</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1039,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7539348601905942</v>
+        <v>0.7624275673979303</v>
       </c>
       <c r="D17">
-        <v>0.7684999965254948</v>
+        <v>0.7745205550651616</v>
       </c>
       <c r="E17">
-        <v>0.7974150893571372</v>
+        <v>0.8002977925861875</v>
       </c>
       <c r="F17">
-        <v>0.7369948695716835</v>
+        <v>0.809841296319645</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.001002212697502</v>
+        <v>1.028601567868896</v>
       </c>
       <c r="J17">
-        <v>0.7969903473187872</v>
+        <v>0.7942043460045394</v>
       </c>
       <c r="K17">
-        <v>0.7888423848729326</v>
+        <v>0.7899657702730142</v>
       </c>
       <c r="L17">
-        <v>0.8167467068978086</v>
+        <v>0.8150916730870359</v>
       </c>
       <c r="M17">
-        <v>0.7585676456763765</v>
+        <v>0.8244081047062168</v>
       </c>
       <c r="N17">
-        <v>0.8640858969268514</v>
+        <v>0.7953322072723776</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1080,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7539348601905942</v>
+        <v>0.7624275673979303</v>
       </c>
       <c r="D18">
-        <v>0.7684999965254948</v>
+        <v>0.7745205550651616</v>
       </c>
       <c r="E18">
-        <v>0.7974150893571372</v>
+        <v>0.8002977925861875</v>
       </c>
       <c r="F18">
-        <v>0.7369948695716835</v>
+        <v>0.809841296319645</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.001002212697502</v>
+        <v>1.028601567868896</v>
       </c>
       <c r="J18">
-        <v>0.7969903473187872</v>
+        <v>0.7942043460045394</v>
       </c>
       <c r="K18">
-        <v>0.7888423848729326</v>
+        <v>0.7899657702730142</v>
       </c>
       <c r="L18">
-        <v>0.8167467068978086</v>
+        <v>0.8150916730870359</v>
       </c>
       <c r="M18">
-        <v>0.7585676456763765</v>
+        <v>0.8244081047062168</v>
       </c>
       <c r="N18">
-        <v>0.8640858969268514</v>
+        <v>0.7953322072723776</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1121,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7539348601905942</v>
+        <v>0.7624275673979303</v>
       </c>
       <c r="D19">
-        <v>0.7684999965254948</v>
+        <v>0.7745205550651616</v>
       </c>
       <c r="E19">
-        <v>0.7974150893571372</v>
+        <v>0.8002977925861875</v>
       </c>
       <c r="F19">
-        <v>0.7369948695716835</v>
+        <v>0.809841296319645</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.001002212697502</v>
+        <v>1.028601567868896</v>
       </c>
       <c r="J19">
-        <v>0.7969903473187872</v>
+        <v>0.7942043460045394</v>
       </c>
       <c r="K19">
-        <v>0.7888423848729326</v>
+        <v>0.7899657702730142</v>
       </c>
       <c r="L19">
-        <v>0.8167467068978086</v>
+        <v>0.8150916730870359</v>
       </c>
       <c r="M19">
-        <v>0.7585676456763765</v>
+        <v>0.8244081047062168</v>
       </c>
       <c r="N19">
-        <v>0.8640858969268514</v>
+        <v>0.7953322072723776</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1162,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7539348601905942</v>
+        <v>0.7624275673979303</v>
       </c>
       <c r="D20">
-        <v>0.7684999965254948</v>
+        <v>0.7745205550651616</v>
       </c>
       <c r="E20">
-        <v>0.7974150893571372</v>
+        <v>0.8002977925861875</v>
       </c>
       <c r="F20">
-        <v>0.7369948695716835</v>
+        <v>0.809841296319645</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.001002212697502</v>
+        <v>1.028601567868896</v>
       </c>
       <c r="J20">
-        <v>0.7969903473187872</v>
+        <v>0.7942043460045394</v>
       </c>
       <c r="K20">
-        <v>0.7888423848729326</v>
+        <v>0.7899657702730142</v>
       </c>
       <c r="L20">
-        <v>0.8167467068978086</v>
+        <v>0.8150916730870359</v>
       </c>
       <c r="M20">
-        <v>0.7585676456763765</v>
+        <v>0.8244081047062168</v>
       </c>
       <c r="N20">
-        <v>0.8640858969268514</v>
+        <v>0.7953322072723776</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1203,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7539348601905942</v>
+        <v>0.7624275673979303</v>
       </c>
       <c r="D21">
-        <v>0.7684999965254948</v>
+        <v>0.7745205550651616</v>
       </c>
       <c r="E21">
-        <v>0.7974150893571372</v>
+        <v>0.8002977925861875</v>
       </c>
       <c r="F21">
-        <v>0.7369948695716835</v>
+        <v>0.809841296319645</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.001002212697502</v>
+        <v>1.028601567868896</v>
       </c>
       <c r="J21">
-        <v>0.7969903473187872</v>
+        <v>0.7942043460045394</v>
       </c>
       <c r="K21">
-        <v>0.7888423848729326</v>
+        <v>0.7899657702730142</v>
       </c>
       <c r="L21">
-        <v>0.8167467068978086</v>
+        <v>0.8150916730870359</v>
       </c>
       <c r="M21">
-        <v>0.7585676456763765</v>
+        <v>0.8244081047062168</v>
       </c>
       <c r="N21">
-        <v>0.8640858969268514</v>
+        <v>0.7953322072723776</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1244,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7539348601905942</v>
+        <v>0.7624275673979303</v>
       </c>
       <c r="D22">
-        <v>0.7684999965254948</v>
+        <v>0.7745205550651616</v>
       </c>
       <c r="E22">
-        <v>0.7974150893571372</v>
+        <v>0.8002977925861875</v>
       </c>
       <c r="F22">
-        <v>0.7369948695716835</v>
+        <v>0.809841296319645</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.001002212697502</v>
+        <v>1.028601567868896</v>
       </c>
       <c r="J22">
-        <v>0.7969903473187872</v>
+        <v>0.7942043460045394</v>
       </c>
       <c r="K22">
-        <v>0.7888423848729326</v>
+        <v>0.7899657702730142</v>
       </c>
       <c r="L22">
-        <v>0.8167467068978086</v>
+        <v>0.8150916730870359</v>
       </c>
       <c r="M22">
-        <v>0.7585676456763765</v>
+        <v>0.8244081047062168</v>
       </c>
       <c r="N22">
-        <v>0.8640858969268514</v>
+        <v>0.7953322072723776</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1285,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7539348601905942</v>
+        <v>0.7624275673979303</v>
       </c>
       <c r="D23">
-        <v>0.7684999965254948</v>
+        <v>0.7745205550651616</v>
       </c>
       <c r="E23">
-        <v>0.7974150893571372</v>
+        <v>0.8002977925861875</v>
       </c>
       <c r="F23">
-        <v>0.7369948695716835</v>
+        <v>0.809841296319645</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.001002212697502</v>
+        <v>1.028601567868896</v>
       </c>
       <c r="J23">
-        <v>0.7969903473187872</v>
+        <v>0.7942043460045394</v>
       </c>
       <c r="K23">
-        <v>0.7888423848729326</v>
+        <v>0.7899657702730142</v>
       </c>
       <c r="L23">
-        <v>0.8167467068978086</v>
+        <v>0.8150916730870359</v>
       </c>
       <c r="M23">
-        <v>0.7585676456763765</v>
+        <v>0.8244081047062168</v>
       </c>
       <c r="N23">
-        <v>0.8640858969268514</v>
+        <v>0.7953322072723776</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1326,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7539348601905942</v>
+        <v>0.7624275673979303</v>
       </c>
       <c r="D24">
-        <v>0.7684999965254948</v>
+        <v>0.7745205550651616</v>
       </c>
       <c r="E24">
-        <v>0.7974150893571372</v>
+        <v>0.8002977925861875</v>
       </c>
       <c r="F24">
-        <v>0.7369948695716835</v>
+        <v>0.809841296319645</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.001002212697502</v>
+        <v>1.028601567868896</v>
       </c>
       <c r="J24">
-        <v>0.7969903473187872</v>
+        <v>0.7942043460045394</v>
       </c>
       <c r="K24">
-        <v>0.7888423848729326</v>
+        <v>0.7899657702730142</v>
       </c>
       <c r="L24">
-        <v>0.8167467068978086</v>
+        <v>0.8150916730870359</v>
       </c>
       <c r="M24">
-        <v>0.7585676456763765</v>
+        <v>0.8244081047062168</v>
       </c>
       <c r="N24">
-        <v>0.8640858969268514</v>
+        <v>0.7953322072723776</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1367,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7539348601905942</v>
+        <v>0.7624275673979303</v>
       </c>
       <c r="D25">
-        <v>0.7684999965254948</v>
+        <v>0.7745205550651616</v>
       </c>
       <c r="E25">
-        <v>0.7974150893571372</v>
+        <v>0.8002977925861875</v>
       </c>
       <c r="F25">
-        <v>0.7369948695716835</v>
+        <v>0.809841296319645</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.001002212697502</v>
+        <v>1.028601567868896</v>
       </c>
       <c r="J25">
-        <v>0.7969903473187872</v>
+        <v>0.7942043460045394</v>
       </c>
       <c r="K25">
-        <v>0.7888423848729326</v>
+        <v>0.7899657702730142</v>
       </c>
       <c r="L25">
-        <v>0.8167467068978086</v>
+        <v>0.8150916730870359</v>
       </c>
       <c r="M25">
-        <v>0.7585676456763765</v>
+        <v>0.8244081047062168</v>
       </c>
       <c r="N25">
-        <v>0.8640858969268514</v>
+        <v>0.7953322072723776</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_30/res_bus/vm_pu.xlsx
@@ -418,43 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.920672473437085</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.9299987051174089</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9368067666714419</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.9441505507444166</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.040917352208846</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.9455156060290532</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.9425278227943399</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.9492228162617951</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9564469812330506</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.9834275374890271</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -465,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8330693681401604</v>
+        <v>0.9328611544850587</v>
       </c>
       <c r="D3">
-        <v>0.8429790916850075</v>
+        <v>0.9413297316689435</v>
       </c>
       <c r="E3">
-        <v>0.8623180113033221</v>
+        <v>0.9471096080355247</v>
       </c>
       <c r="F3">
-        <v>0.8710274465264249</v>
+        <v>0.955655699815231</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033352914007367</v>
+        <v>1.041757103069852</v>
       </c>
       <c r="J3">
-        <v>0.8594400456481448</v>
+        <v>0.955365916296957</v>
       </c>
       <c r="K3">
-        <v>0.8561124563233197</v>
+        <v>0.9527727489303385</v>
       </c>
       <c r="L3">
-        <v>0.8750792523821302</v>
+        <v>0.9584671594390941</v>
       </c>
       <c r="M3">
-        <v>0.8836281204775465</v>
+        <v>0.9668892808859625</v>
       </c>
       <c r="N3">
-        <v>0.8606605490921164</v>
+        <v>0.9870394287031984</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -506,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.875158713140949</v>
+        <v>0.9403618754400772</v>
       </c>
       <c r="D4">
-        <v>0.8838859122466181</v>
+        <v>0.9483123717013862</v>
       </c>
       <c r="E4">
-        <v>0.8994888703889233</v>
+        <v>0.9534597901296908</v>
       </c>
       <c r="F4">
-        <v>0.9078059711635662</v>
+        <v>0.9627409046400047</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036241776036885</v>
+        <v>1.042255067594463</v>
       </c>
       <c r="J4">
-        <v>0.8984020284479891</v>
+        <v>0.9614247693831717</v>
       </c>
       <c r="K4">
-        <v>0.8956221523216762</v>
+        <v>0.9590774264273068</v>
       </c>
       <c r="L4">
-        <v>0.9109735690282892</v>
+        <v>0.9641543810115244</v>
       </c>
       <c r="M4">
-        <v>0.9191610972322209</v>
+        <v>0.9733108349736664</v>
       </c>
       <c r="N4">
-        <v>0.8996778623765382</v>
+        <v>0.9892575965029728</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -547,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.889721237909461</v>
+        <v>0.9434314754417175</v>
       </c>
       <c r="D5">
-        <v>0.8980558183230588</v>
+        <v>0.9511720494623714</v>
       </c>
       <c r="E5">
-        <v>0.9123765741744744</v>
+        <v>0.9560606271065886</v>
       </c>
       <c r="F5">
-        <v>0.9205728011087994</v>
+        <v>0.9656410299389503</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037245593996935</v>
+        <v>1.042454096550337</v>
       </c>
       <c r="J5">
-        <v>0.9118912803458791</v>
+        <v>0.9639034110457805</v>
       </c>
       <c r="K5">
-        <v>0.909302626523453</v>
+        <v>0.9616573770385016</v>
       </c>
       <c r="L5">
-        <v>0.9234069866064639</v>
+        <v>0.9664812058595061</v>
       </c>
       <c r="M5">
-        <v>0.9314832039602029</v>
+        <v>0.9759370947069135</v>
       </c>
       <c r="N5">
-        <v>0.9131862705593621</v>
+        <v>0.9901640849355742</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -588,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8920385874184205</v>
+        <v>0.943942195874413</v>
       </c>
       <c r="D6">
-        <v>0.9003113974135771</v>
+        <v>0.9516479603550714</v>
       </c>
       <c r="E6">
-        <v>0.9144284598315661</v>
+        <v>0.9564934691832283</v>
       </c>
       <c r="F6">
-        <v>0.9226060817670773</v>
+        <v>0.9661235691996324</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03740538133187</v>
+        <v>1.042486924119122</v>
       </c>
       <c r="J6">
-        <v>0.9140380953049134</v>
+        <v>0.9643157502631076</v>
       </c>
       <c r="K6">
-        <v>0.9114799729640691</v>
+        <v>0.9620866134852449</v>
       </c>
       <c r="L6">
-        <v>0.9253859454672798</v>
+        <v>0.9668683007411745</v>
       </c>
       <c r="M6">
-        <v>0.9334450308124974</v>
+        <v>0.9763739351089846</v>
       </c>
       <c r="N6">
-        <v>0.9153361342418813</v>
+        <v>0.9903148264316305</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -629,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8753627444022556</v>
+        <v>0.9404032099208525</v>
       </c>
       <c r="D7">
-        <v>0.8840843881234453</v>
+        <v>0.9483508713696656</v>
       </c>
       <c r="E7">
-        <v>0.8996693527470067</v>
+        <v>0.9534948044599457</v>
       </c>
       <c r="F7">
-        <v>0.9079847112030723</v>
+        <v>0.9627799555566415</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036255833066787</v>
+        <v>1.042257766887378</v>
       </c>
       <c r="J7">
-        <v>0.8985909998287718</v>
+        <v>0.9614581499324363</v>
       </c>
       <c r="K7">
-        <v>0.8958137956686054</v>
+        <v>0.9591121683767239</v>
       </c>
       <c r="L7">
-        <v>0.9111477332518856</v>
+        <v>0.9641857162030737</v>
       </c>
       <c r="M7">
-        <v>0.9193336568998326</v>
+        <v>0.9733462070805309</v>
       </c>
       <c r="N7">
-        <v>0.8998671021183566</v>
+        <v>0.9892698083566159</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -670,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.7624275673979303</v>
+        <v>0.9248773784092502</v>
       </c>
       <c r="D8">
-        <v>0.7745205550651616</v>
+        <v>0.9339054997865632</v>
       </c>
       <c r="E8">
-        <v>0.8002977925861875</v>
+        <v>0.9403587426591268</v>
       </c>
       <c r="F8">
-        <v>0.809841296319645</v>
+        <v>0.9481181130707753</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028601567868896</v>
+        <v>1.041210915473886</v>
       </c>
       <c r="J8">
-        <v>0.7942043460045394</v>
+        <v>0.9489142900794207</v>
       </c>
       <c r="K8">
-        <v>0.7899657702730142</v>
+        <v>0.9460619989932469</v>
       </c>
       <c r="L8">
-        <v>0.8150916730870359</v>
+        <v>0.9524121554122756</v>
       </c>
       <c r="M8">
-        <v>0.8244081047062168</v>
+        <v>0.9600499488187452</v>
       </c>
       <c r="N8">
-        <v>0.7953322072723776</v>
+        <v>0.9846744274302227</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -711,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7624275673979303</v>
+        <v>0.8940754288149148</v>
       </c>
       <c r="D9">
-        <v>0.7745205550651616</v>
+        <v>0.9053436759779825</v>
       </c>
       <c r="E9">
-        <v>0.8002977925861875</v>
+        <v>0.9144015226254033</v>
       </c>
       <c r="F9">
-        <v>0.809841296319645</v>
+        <v>0.919112684625329</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028601567868896</v>
+        <v>1.038987778424663</v>
       </c>
       <c r="J9">
-        <v>0.7942043460045394</v>
+        <v>0.9240158872757382</v>
       </c>
       <c r="K9">
-        <v>0.7899657702730142</v>
+        <v>0.9201850260659994</v>
       </c>
       <c r="L9">
-        <v>0.8150916730870359</v>
+        <v>0.9290549158658364</v>
       </c>
       <c r="M9">
-        <v>0.8244081047062168</v>
+        <v>0.9336702462350212</v>
       </c>
       <c r="N9">
-        <v>0.7953322072723776</v>
+        <v>0.9755301449075342</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -752,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7624275673979303</v>
+        <v>0.8703361371997652</v>
       </c>
       <c r="D10">
-        <v>0.7745205550651616</v>
+        <v>0.8834246632921808</v>
       </c>
       <c r="E10">
-        <v>0.8002977925861875</v>
+        <v>0.8945037326505573</v>
       </c>
       <c r="F10">
-        <v>0.809841296319645</v>
+        <v>0.8968870674961418</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028601567868896</v>
+        <v>1.037195714603193</v>
       </c>
       <c r="J10">
-        <v>0.7942043460045394</v>
+        <v>0.9048404510112652</v>
       </c>
       <c r="K10">
-        <v>0.7899657702730142</v>
+        <v>0.900274461476957</v>
       </c>
       <c r="L10">
-        <v>0.8150916730870359</v>
+        <v>0.9110803707803135</v>
       </c>
       <c r="M10">
-        <v>0.8244081047062168</v>
+        <v>0.9134061277020592</v>
       </c>
       <c r="N10">
-        <v>0.7953322072723776</v>
+        <v>0.9684838374444216</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -793,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7624275673979303</v>
+        <v>0.8590049632660715</v>
       </c>
       <c r="D11">
-        <v>0.7745205550651616</v>
+        <v>0.8729933007166643</v>
       </c>
       <c r="E11">
-        <v>0.8002977925861875</v>
+        <v>0.8850433303951976</v>
       </c>
       <c r="F11">
-        <v>0.809841296319645</v>
+        <v>0.8863318489619446</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028601567868896</v>
+        <v>1.036328286390668</v>
       </c>
       <c r="J11">
-        <v>0.7942043460045394</v>
+        <v>0.8956984000596512</v>
       </c>
       <c r="K11">
-        <v>0.7899657702730142</v>
+        <v>0.8907863873913869</v>
       </c>
       <c r="L11">
-        <v>0.8150916730870359</v>
+        <v>0.9025159820984615</v>
       </c>
       <c r="M11">
-        <v>0.8244081047062168</v>
+        <v>0.9037709346308304</v>
       </c>
       <c r="N11">
-        <v>0.7953322072723776</v>
+        <v>0.9651272349547353</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -834,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7624275673979303</v>
+        <v>0.8546023718728026</v>
       </c>
       <c r="D12">
-        <v>0.7745205550651616</v>
+        <v>0.8689459801339708</v>
       </c>
       <c r="E12">
-        <v>0.8002977925861875</v>
+        <v>0.8813745370074343</v>
       </c>
       <c r="F12">
-        <v>0.809841296319645</v>
+        <v>0.8822414052867972</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028601567868896</v>
+        <v>1.035990184606838</v>
       </c>
       <c r="J12">
-        <v>0.7942043460045394</v>
+        <v>0.8921488574825794</v>
       </c>
       <c r="K12">
-        <v>0.7899657702730142</v>
+        <v>0.8871031675900189</v>
       </c>
       <c r="L12">
-        <v>0.8150916730870359</v>
+        <v>0.8991917093293113</v>
       </c>
       <c r="M12">
-        <v>0.8244081047062168</v>
+        <v>0.9000353477227344</v>
       </c>
       <c r="N12">
-        <v>0.7953322072723776</v>
+        <v>0.9638248220987596</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -875,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7624275673979303</v>
+        <v>0.8555562183990109</v>
       </c>
       <c r="D13">
-        <v>0.7745205550651616</v>
+        <v>0.8698225813807716</v>
       </c>
       <c r="E13">
-        <v>0.8002977925861875</v>
+        <v>0.882169064416478</v>
       </c>
       <c r="F13">
-        <v>0.809841296319645</v>
+        <v>0.8831270937638699</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028601567868896</v>
+        <v>1.036063470851983</v>
       </c>
       <c r="J13">
-        <v>0.7942043460045394</v>
+        <v>0.8929177570257697</v>
       </c>
       <c r="K13">
-        <v>0.7899657702730142</v>
+        <v>0.8879009939937648</v>
       </c>
       <c r="L13">
-        <v>0.8150916730870359</v>
+        <v>0.8999117627378248</v>
       </c>
       <c r="M13">
-        <v>0.8244081047062168</v>
+        <v>0.9008442750125224</v>
       </c>
       <c r="N13">
-        <v>0.7953322072723776</v>
+        <v>0.9641069041645322</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -916,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7624275673979303</v>
+        <v>0.8586452460154348</v>
       </c>
       <c r="D14">
-        <v>0.7745205550651616</v>
+        <v>0.8726624905694073</v>
       </c>
       <c r="E14">
-        <v>0.8002977925861875</v>
+        <v>0.8847434202335531</v>
       </c>
       <c r="F14">
-        <v>0.809841296319645</v>
+        <v>0.8859974040531692</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028601567868896</v>
+        <v>1.036300678262528</v>
       </c>
       <c r="J14">
-        <v>0.7942043460045394</v>
+        <v>0.8954083257628401</v>
       </c>
       <c r="K14">
-        <v>0.7899657702730142</v>
+        <v>0.8904853752690012</v>
       </c>
       <c r="L14">
-        <v>0.8150916730870359</v>
+        <v>0.9022442959888517</v>
       </c>
       <c r="M14">
-        <v>0.8244081047062168</v>
+        <v>0.9034655371625154</v>
       </c>
       <c r="N14">
-        <v>0.7953322072723776</v>
+        <v>0.9650207799985842</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -957,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7624275673979303</v>
+        <v>0.8605215548406401</v>
       </c>
       <c r="D15">
-        <v>0.7745205550651616</v>
+        <v>0.8743882522149329</v>
       </c>
       <c r="E15">
-        <v>0.8002977925861875</v>
+        <v>0.8863080589234608</v>
       </c>
       <c r="F15">
-        <v>0.809841296319645</v>
+        <v>0.8877423364866724</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028601567868896</v>
+        <v>1.036444645728188</v>
       </c>
       <c r="J15">
-        <v>0.7942043460045394</v>
+        <v>0.8969214783793599</v>
       </c>
       <c r="K15">
-        <v>0.7899657702730142</v>
+        <v>0.8920556113094814</v>
       </c>
       <c r="L15">
-        <v>0.8150916730870359</v>
+        <v>0.9036615688526148</v>
       </c>
       <c r="M15">
-        <v>0.8244081047062168</v>
+        <v>0.9050588502814028</v>
       </c>
       <c r="N15">
-        <v>0.7953322072723776</v>
+        <v>0.9655761314933897</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -998,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7624275673979303</v>
+        <v>0.8710632098895917</v>
       </c>
       <c r="D16">
-        <v>0.7745205550651616</v>
+        <v>0.884094700788254</v>
       </c>
       <c r="E16">
-        <v>0.8002977925861875</v>
+        <v>0.8951116188189244</v>
       </c>
       <c r="F16">
-        <v>0.809841296319645</v>
+        <v>0.8975656300054159</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028601567868896</v>
+        <v>1.037251187205849</v>
       </c>
       <c r="J16">
-        <v>0.7942043460045394</v>
+        <v>0.9054273401214056</v>
       </c>
       <c r="K16">
-        <v>0.7899657702730142</v>
+        <v>0.9008836543855325</v>
       </c>
       <c r="L16">
-        <v>0.8150916730870359</v>
+        <v>0.911630295669175</v>
       </c>
       <c r="M16">
-        <v>0.8244081047062168</v>
+        <v>0.9140253155170498</v>
       </c>
       <c r="N16">
-        <v>0.7953322072723776</v>
+        <v>0.9686994086077224</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1039,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7624275673979303</v>
+        <v>0.8773724124144733</v>
       </c>
       <c r="D17">
-        <v>0.7745205550651616</v>
+        <v>0.8899124534155965</v>
       </c>
       <c r="E17">
-        <v>0.8002977925861875</v>
+        <v>0.9003907582533849</v>
       </c>
       <c r="F17">
-        <v>0.809841296319645</v>
+        <v>0.9034599631407616</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028601567868896</v>
+        <v>1.037731303422822</v>
       </c>
       <c r="J17">
-        <v>0.7942043460045394</v>
+        <v>0.9105213415686788</v>
       </c>
       <c r="K17">
-        <v>0.7899657702730142</v>
+        <v>0.9061717337355898</v>
       </c>
       <c r="L17">
-        <v>0.8150916730870359</v>
+        <v>0.9164040397716426</v>
       </c>
       <c r="M17">
-        <v>0.8244081047062168</v>
+        <v>0.9194026319174314</v>
       </c>
       <c r="N17">
-        <v>0.7953322072723776</v>
+        <v>0.9705708369626922</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1080,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7624275673979303</v>
+        <v>0.8809538818058359</v>
       </c>
       <c r="D18">
-        <v>0.7745205550651616</v>
+        <v>0.8932176857949811</v>
       </c>
       <c r="E18">
-        <v>0.8002977925861875</v>
+        <v>0.9033907802661207</v>
       </c>
       <c r="F18">
-        <v>0.809841296319645</v>
+        <v>0.9068105923209129</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028601567868896</v>
+        <v>1.038002698707219</v>
       </c>
       <c r="J18">
-        <v>0.7942043460045394</v>
+        <v>0.9134139006500327</v>
       </c>
       <c r="K18">
-        <v>0.7899657702730142</v>
+        <v>0.9091749022781469</v>
       </c>
       <c r="L18">
-        <v>0.8150916730870359</v>
+        <v>0.9191151954961378</v>
       </c>
       <c r="M18">
-        <v>0.8244081047062168</v>
+        <v>0.9224583105129647</v>
       </c>
       <c r="N18">
-        <v>0.7953322072723776</v>
+        <v>0.971633724521466</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1121,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7624275673979303</v>
+        <v>0.8821592487910427</v>
       </c>
       <c r="D19">
-        <v>0.7745205550651616</v>
+        <v>0.8943305237103826</v>
       </c>
       <c r="E19">
-        <v>0.8002977925861875</v>
+        <v>0.9044009806248053</v>
       </c>
       <c r="F19">
-        <v>0.809841296319645</v>
+        <v>0.9079389959121993</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028601567868896</v>
+        <v>1.03809382550496</v>
       </c>
       <c r="J19">
-        <v>0.7942043460045394</v>
+        <v>0.9143875433058889</v>
       </c>
       <c r="K19">
-        <v>0.7899657702730142</v>
+        <v>0.9101858450007548</v>
       </c>
       <c r="L19">
-        <v>0.8150916730870359</v>
+        <v>0.9200278486153347</v>
       </c>
       <c r="M19">
-        <v>0.8244081047062168</v>
+        <v>0.9234872024944482</v>
       </c>
       <c r="N19">
-        <v>0.7953322072723776</v>
+        <v>0.9719915225160586</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1162,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7624275673979303</v>
+        <v>0.8767059118497964</v>
       </c>
       <c r="D20">
-        <v>0.7745205550651616</v>
+        <v>0.8892975771460019</v>
       </c>
       <c r="E20">
-        <v>0.8002977925861875</v>
+        <v>0.8998327225419757</v>
       </c>
       <c r="F20">
-        <v>0.809841296319645</v>
+        <v>0.9028367859880272</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028601567868896</v>
+        <v>1.037680699482122</v>
       </c>
       <c r="J20">
-        <v>0.7942043460045394</v>
+        <v>0.9099831139937736</v>
       </c>
       <c r="K20">
-        <v>0.7899657702730142</v>
+        <v>0.9056129577328449</v>
       </c>
       <c r="L20">
-        <v>0.8150916730870359</v>
+        <v>0.9158996019659044</v>
       </c>
       <c r="M20">
-        <v>0.8244081047062168</v>
+        <v>0.9188342258778587</v>
       </c>
       <c r="N20">
-        <v>0.7953322072723776</v>
+        <v>0.9703730777238131</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1203,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7624275673979303</v>
+        <v>0.8577413003487316</v>
       </c>
       <c r="D21">
-        <v>0.7745205550651616</v>
+        <v>0.8718312808753704</v>
       </c>
       <c r="E21">
-        <v>0.8002977925861875</v>
+        <v>0.8839898818144234</v>
       </c>
       <c r="F21">
-        <v>0.809841296319645</v>
+        <v>0.8851571465809466</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028601567868896</v>
+        <v>1.036231286528904</v>
       </c>
       <c r="J21">
-        <v>0.7942043460045394</v>
+        <v>0.8946794314938252</v>
       </c>
       <c r="K21">
-        <v>0.7899657702730142</v>
+        <v>0.8897290073303137</v>
       </c>
       <c r="L21">
-        <v>0.8150916730870359</v>
+        <v>0.9015616238233639</v>
       </c>
       <c r="M21">
-        <v>0.8244081047062168</v>
+        <v>0.902698231666645</v>
       </c>
       <c r="N21">
-        <v>0.7953322072723776</v>
+        <v>0.9647532966530789</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1244,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7624275673979303</v>
+        <v>0.8446686855533978</v>
       </c>
       <c r="D22">
-        <v>0.7745205550651616</v>
+        <v>0.8598259247300484</v>
       </c>
       <c r="E22">
-        <v>0.8002977925861875</v>
+        <v>0.8731114287312451</v>
       </c>
       <c r="F22">
-        <v>0.809841296319645</v>
+        <v>0.8730356809564416</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028601567868896</v>
+        <v>1.035226308168048</v>
       </c>
       <c r="J22">
-        <v>0.7942043460045394</v>
+        <v>0.8841458562017952</v>
       </c>
       <c r="K22">
-        <v>0.7899657702730142</v>
+        <v>0.8788000267339962</v>
       </c>
       <c r="L22">
-        <v>0.8150916730870359</v>
+        <v>0.8916987585080312</v>
       </c>
       <c r="M22">
-        <v>0.8244081047062168</v>
+        <v>0.8916251702880192</v>
       </c>
       <c r="N22">
-        <v>0.7953322072723776</v>
+        <v>0.9608904846148574</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1285,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7624275673979303</v>
+        <v>0.8517231616821276</v>
       </c>
       <c r="D23">
-        <v>0.7745205550651616</v>
+        <v>0.8663008641214076</v>
       </c>
       <c r="E23">
-        <v>0.8002977925861875</v>
+        <v>0.878977382379892</v>
       </c>
       <c r="F23">
-        <v>0.809841296319645</v>
+        <v>0.8795697463058607</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028601567868896</v>
+        <v>1.035768878002381</v>
       </c>
       <c r="J23">
-        <v>0.7942043460045394</v>
+        <v>0.889828365229906</v>
       </c>
       <c r="K23">
-        <v>0.7899657702730142</v>
+        <v>0.8846954744997012</v>
       </c>
       <c r="L23">
-        <v>0.8150916730870359</v>
+        <v>0.8970187966196923</v>
       </c>
       <c r="M23">
-        <v>0.8244081047062168</v>
+        <v>0.8975949948953679</v>
       </c>
       <c r="N23">
-        <v>0.7953322072723776</v>
+        <v>0.9629736782638066</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1326,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7624275673979303</v>
+        <v>0.8770073768660761</v>
       </c>
       <c r="D24">
-        <v>0.7745205550651616</v>
+        <v>0.8895756834762121</v>
       </c>
       <c r="E24">
-        <v>0.8002977925861875</v>
+        <v>0.9000851176495756</v>
       </c>
       <c r="F24">
-        <v>0.809841296319645</v>
+        <v>0.9031186409864282</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028601567868896</v>
+        <v>1.037703591796009</v>
       </c>
       <c r="J24">
-        <v>0.7942043460045394</v>
+        <v>0.9102265570471222</v>
       </c>
       <c r="K24">
-        <v>0.7899657702730142</v>
+        <v>0.9058656936786352</v>
       </c>
       <c r="L24">
-        <v>0.8150916730870359</v>
+        <v>0.9161277603428755</v>
       </c>
       <c r="M24">
-        <v>0.8244081047062168</v>
+        <v>0.91909131189955</v>
       </c>
       <c r="N24">
-        <v>0.7953322072723776</v>
+        <v>0.9704625245609598</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1367,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7624275673979303</v>
+        <v>0.9025248260050421</v>
       </c>
       <c r="D25">
-        <v>0.7745205550651616</v>
+        <v>0.913165349549161</v>
       </c>
       <c r="E25">
-        <v>0.8002977925861875</v>
+        <v>0.9215071722981721</v>
       </c>
       <c r="F25">
-        <v>0.809841296319645</v>
+        <v>0.9270538391349039</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028601567868896</v>
+        <v>1.039612280357252</v>
       </c>
       <c r="J25">
-        <v>0.7942043460045394</v>
+        <v>0.9308454060854303</v>
       </c>
       <c r="K25">
-        <v>0.7899657702730142</v>
+        <v>0.9272799384340935</v>
       </c>
       <c r="L25">
-        <v>0.8150916730870359</v>
+        <v>0.9354598561337091</v>
       </c>
       <c r="M25">
-        <v>0.8244081047062168</v>
+        <v>0.9409009760247459</v>
       </c>
       <c r="N25">
-        <v>0.7953322072723776</v>
+        <v>0.9780399631935571</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_30/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.920672473437085</v>
+        <v>1.013193762863988</v>
       </c>
       <c r="D2">
-        <v>0.9299987051174089</v>
+        <v>1.015839054349307</v>
       </c>
       <c r="E2">
-        <v>0.9368067666714419</v>
+        <v>1.015006082329285</v>
       </c>
       <c r="F2">
-        <v>0.9441505507444166</v>
+        <v>1.024440664508684</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040917352208846</v>
+        <v>1.025606812330986</v>
       </c>
       <c r="J2">
-        <v>0.9455156060290532</v>
+        <v>1.018432134943767</v>
       </c>
       <c r="K2">
-        <v>0.9425278227943399</v>
+        <v>1.018693014191807</v>
       </c>
       <c r="L2">
-        <v>0.9492228162617951</v>
+        <v>1.017862533226702</v>
       </c>
       <c r="M2">
-        <v>0.9564469812330506</v>
+        <v>1.027269158509428</v>
       </c>
       <c r="N2">
-        <v>0.9834275374890271</v>
+        <v>1.009893179867788</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9328611544850587</v>
+        <v>1.015326193525176</v>
       </c>
       <c r="D3">
-        <v>0.9413297316689435</v>
+        <v>1.017882829165986</v>
       </c>
       <c r="E3">
-        <v>0.9471096080355247</v>
+        <v>1.016857263799404</v>
       </c>
       <c r="F3">
-        <v>0.955655699815231</v>
+        <v>1.026463788833949</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041757103069852</v>
+        <v>1.02563770556681</v>
       </c>
       <c r="J3">
-        <v>0.955365916296957</v>
+        <v>1.020192331381777</v>
       </c>
       <c r="K3">
-        <v>0.9527727489303385</v>
+        <v>1.020538611398353</v>
       </c>
       <c r="L3">
-        <v>0.9584671594390941</v>
+        <v>1.019515883541158</v>
       </c>
       <c r="M3">
-        <v>0.9668892808859625</v>
+        <v>1.029096070049915</v>
       </c>
       <c r="N3">
-        <v>0.9870394287031984</v>
+        <v>1.010511492568047</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9403618754400772</v>
+        <v>1.016700364374441</v>
       </c>
       <c r="D4">
-        <v>0.9483123717013862</v>
+        <v>1.01920009781476</v>
       </c>
       <c r="E4">
-        <v>0.9534597901296908</v>
+        <v>1.018050135534325</v>
       </c>
       <c r="F4">
-        <v>0.9627409046400047</v>
+        <v>1.027765535553417</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042255067594463</v>
+        <v>1.025654747514573</v>
       </c>
       <c r="J4">
-        <v>0.9614247693831717</v>
+        <v>1.021325661524972</v>
       </c>
       <c r="K4">
-        <v>0.9590774264273068</v>
+        <v>1.021727303580986</v>
       </c>
       <c r="L4">
-        <v>0.9641543810115244</v>
+        <v>1.020580357523859</v>
       </c>
       <c r="M4">
-        <v>0.9733108349736664</v>
+        <v>1.030270504295453</v>
       </c>
       <c r="N4">
-        <v>0.9892575965029728</v>
+        <v>1.010908673224233</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9434314754417175</v>
+        <v>1.017276745396144</v>
       </c>
       <c r="D5">
-        <v>0.9511720494623714</v>
+        <v>1.01975266561617</v>
       </c>
       <c r="E5">
-        <v>0.9560606271065886</v>
+        <v>1.018550457328437</v>
       </c>
       <c r="F5">
-        <v>0.9656410299389503</v>
+        <v>1.028311059398515</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042454096550337</v>
+        <v>1.02566120715142</v>
       </c>
       <c r="J5">
-        <v>0.9639034110457805</v>
+        <v>1.021800792128579</v>
       </c>
       <c r="K5">
-        <v>0.9616573770385016</v>
+        <v>1.022225733782121</v>
       </c>
       <c r="L5">
-        <v>0.9664812058595061</v>
+        <v>1.02102660628689</v>
       </c>
       <c r="M5">
-        <v>0.9759370947069135</v>
+        <v>1.030762420045761</v>
       </c>
       <c r="N5">
-        <v>0.9901640849355742</v>
+        <v>1.011074961240664</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.943942195874413</v>
+        <v>1.01737344583738</v>
       </c>
       <c r="D6">
-        <v>0.9516479603550714</v>
+        <v>1.019845373997367</v>
       </c>
       <c r="E6">
-        <v>0.9564934691832283</v>
+        <v>1.018634396243218</v>
       </c>
       <c r="F6">
-        <v>0.9661235691996324</v>
+        <v>1.028402554617162</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042486924119122</v>
+        <v>1.025662250450633</v>
       </c>
       <c r="J6">
-        <v>0.9643157502631076</v>
+        <v>1.021880491956386</v>
       </c>
       <c r="K6">
-        <v>0.9620866134852449</v>
+        <v>1.022309347232147</v>
       </c>
       <c r="L6">
-        <v>0.9668683007411745</v>
+        <v>1.021101460501895</v>
       </c>
       <c r="M6">
-        <v>0.9763739351089846</v>
+        <v>1.030844909126277</v>
       </c>
       <c r="N6">
-        <v>0.9903148264316305</v>
+        <v>1.011102841739707</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9404032099208525</v>
+        <v>1.016708071149521</v>
       </c>
       <c r="D7">
-        <v>0.9483508713696656</v>
+        <v>1.019207485973731</v>
       </c>
       <c r="E7">
-        <v>0.9534948044599457</v>
+        <v>1.018056825385526</v>
       </c>
       <c r="F7">
-        <v>0.9627799555566415</v>
+        <v>1.02777283163009</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042257766887378</v>
+        <v>1.025654836596532</v>
       </c>
       <c r="J7">
-        <v>0.9614581499324363</v>
+        <v>1.0213320153985</v>
       </c>
       <c r="K7">
-        <v>0.9591121683767239</v>
+        <v>1.021733968683787</v>
       </c>
       <c r="L7">
-        <v>0.9641857162030737</v>
+        <v>1.020586325222746</v>
       </c>
       <c r="M7">
-        <v>0.9733462070805309</v>
+        <v>1.030277084398754</v>
       </c>
       <c r="N7">
-        <v>0.9892698083566159</v>
+        <v>1.010910897858182</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9248773784092502</v>
+        <v>1.013915618730264</v>
       </c>
       <c r="D8">
-        <v>0.9339054997865632</v>
+        <v>1.016530850876518</v>
       </c>
       <c r="E8">
-        <v>0.9403587426591268</v>
+        <v>1.015632742780939</v>
       </c>
       <c r="F8">
-        <v>0.9481181130707753</v>
+        <v>1.025125928380495</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041210915473886</v>
+        <v>1.025617863854005</v>
       </c>
       <c r="J8">
-        <v>0.9489142900794207</v>
+        <v>1.019028184969715</v>
       </c>
       <c r="K8">
-        <v>0.9460619989932469</v>
+        <v>1.019317905268105</v>
       </c>
       <c r="L8">
-        <v>0.9524121554122756</v>
+        <v>1.018422414922443</v>
       </c>
       <c r="M8">
-        <v>0.9600499488187452</v>
+        <v>1.027888182414642</v>
       </c>
       <c r="N8">
-        <v>0.9846744274302227</v>
+        <v>1.010102749746004</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.8940754288149148</v>
+        <v>1.008950146588167</v>
       </c>
       <c r="D9">
-        <v>0.9053436759779825</v>
+        <v>1.011773137018571</v>
       </c>
       <c r="E9">
-        <v>0.9144015226254033</v>
+        <v>1.011321915271883</v>
       </c>
       <c r="F9">
-        <v>0.919112684625329</v>
+        <v>1.020404131336477</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038987778424663</v>
+        <v>1.025530088701005</v>
       </c>
       <c r="J9">
-        <v>0.9240158872757382</v>
+        <v>1.014924136612974</v>
       </c>
       <c r="K9">
-        <v>0.9201850260659994</v>
+        <v>1.01501682563427</v>
       </c>
       <c r="L9">
-        <v>0.9290549158658364</v>
+        <v>1.014567155098706</v>
       </c>
       <c r="M9">
-        <v>0.9336702462350212</v>
+        <v>1.023618438524257</v>
       </c>
       <c r="N9">
-        <v>0.9755301449075342</v>
+        <v>1.008655969886184</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.8703361371997652</v>
+        <v>1.005607572478285</v>
       </c>
       <c r="D10">
-        <v>0.8834246632921808</v>
+        <v>1.008571706134578</v>
       </c>
       <c r="E10">
-        <v>0.8945037326505573</v>
+        <v>1.008419857104194</v>
       </c>
       <c r="F10">
-        <v>0.8968870674961418</v>
+        <v>1.01721565766169</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037195714603193</v>
+        <v>1.025456291900837</v>
       </c>
       <c r="J10">
-        <v>0.9048404510112652</v>
+        <v>1.012156483934058</v>
       </c>
       <c r="K10">
-        <v>0.900274461476957</v>
+        <v>1.012118252963713</v>
       </c>
       <c r="L10">
-        <v>0.9110803707803135</v>
+        <v>1.011966979735253</v>
       </c>
       <c r="M10">
-        <v>0.9134061277020592</v>
+        <v>1.020729740931483</v>
       </c>
       <c r="N10">
-        <v>0.9684838374444216</v>
+        <v>1.007675552062586</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C11">
-        <v>0.8590049632660715</v>
+        <v>1.004152070080325</v>
       </c>
       <c r="D11">
-        <v>0.8729933007166643</v>
+        <v>1.007177983666579</v>
       </c>
       <c r="E11">
-        <v>0.8850433303951976</v>
+        <v>1.007156154887436</v>
       </c>
       <c r="F11">
-        <v>0.8863318489619446</v>
+        <v>1.015824958637285</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036328286390668</v>
+        <v>1.02542069627375</v>
       </c>
       <c r="J11">
-        <v>0.8956984000596512</v>
+        <v>1.010950162025065</v>
       </c>
       <c r="K11">
-        <v>0.8907863873913869</v>
+        <v>1.010855330390328</v>
       </c>
       <c r="L11">
-        <v>0.9025159820984615</v>
+        <v>1.010833587762245</v>
       </c>
       <c r="M11">
-        <v>0.9037709346308304</v>
+        <v>1.019468501979665</v>
       </c>
       <c r="N11">
-        <v>0.9651272349547353</v>
+        <v>1.007247108944062</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8546023718728026</v>
+        <v>1.003610166227729</v>
       </c>
       <c r="D12">
-        <v>0.8689459801339708</v>
+        <v>1.006659130654608</v>
       </c>
       <c r="E12">
-        <v>0.8813745370074343</v>
+        <v>1.006685659660439</v>
       </c>
       <c r="F12">
-        <v>0.8822414052867972</v>
+        <v>1.015306841499203</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035990184606838</v>
+        <v>1.025406925875131</v>
       </c>
       <c r="J12">
-        <v>0.8921488574825794</v>
+        <v>1.010500857372336</v>
       </c>
       <c r="K12">
-        <v>0.8871031675900189</v>
+        <v>1.010385013838931</v>
       </c>
       <c r="L12">
-        <v>0.8991917093293113</v>
+        <v>1.010411436612878</v>
       </c>
       <c r="M12">
-        <v>0.9000353477227344</v>
+        <v>1.018998422965191</v>
       </c>
       <c r="N12">
-        <v>0.9638248220987596</v>
+        <v>1.007087365537009</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8555562183990109</v>
+        <v>1.003726464384762</v>
       </c>
       <c r="D13">
-        <v>0.8698225813807716</v>
+        <v>1.006770479612945</v>
       </c>
       <c r="E13">
-        <v>0.882169064416478</v>
+        <v>1.006786632819329</v>
       </c>
       <c r="F13">
-        <v>0.8831270937638699</v>
+        <v>1.015418050105905</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036063470851983</v>
+        <v>1.025409904523278</v>
       </c>
       <c r="J13">
-        <v>0.8929177570257697</v>
+        <v>1.010597290650125</v>
       </c>
       <c r="K13">
-        <v>0.8879009939937648</v>
+        <v>1.010485953711809</v>
       </c>
       <c r="L13">
-        <v>0.8999117627378248</v>
+        <v>1.010502042434882</v>
       </c>
       <c r="M13">
-        <v>0.9008442750125224</v>
+        <v>1.019099329409692</v>
       </c>
       <c r="N13">
-        <v>0.9641069041645322</v>
+        <v>1.007121658415814</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8586452460154348</v>
+        <v>1.00410730219742</v>
       </c>
       <c r="D14">
-        <v>0.8726624905694073</v>
+        <v>1.007135119052572</v>
       </c>
       <c r="E14">
-        <v>0.8847434202335531</v>
+        <v>1.007117286245754</v>
       </c>
       <c r="F14">
-        <v>0.8859974040531692</v>
+        <v>1.015782162740211</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036300678262528</v>
+        <v>1.025419569208786</v>
       </c>
       <c r="J14">
-        <v>0.8954083257628401</v>
+        <v>1.010913047513225</v>
       </c>
       <c r="K14">
-        <v>0.8904853752690012</v>
+        <v>1.01081647878838</v>
       </c>
       <c r="L14">
-        <v>0.9022442959888517</v>
+        <v>1.010798716446792</v>
       </c>
       <c r="M14">
-        <v>0.9034655371625154</v>
+        <v>1.019429677914884</v>
       </c>
       <c r="N14">
-        <v>0.9650207799985842</v>
+        <v>1.007233916827147</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8605215548406401</v>
+        <v>1.004341779998811</v>
       </c>
       <c r="D15">
-        <v>0.8743882522149329</v>
+        <v>1.007359630252192</v>
       </c>
       <c r="E15">
-        <v>0.8863080589234608</v>
+        <v>1.007320865937265</v>
       </c>
       <c r="F15">
-        <v>0.8877423364866724</v>
+        <v>1.01600629809943</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036444645728188</v>
+        <v>1.02542545119822</v>
       </c>
       <c r="J15">
-        <v>0.8969214783793599</v>
+        <v>1.011107432634816</v>
       </c>
       <c r="K15">
-        <v>0.8920556113094814</v>
+        <v>1.011019964662021</v>
       </c>
       <c r="L15">
-        <v>0.9036615688526148</v>
+        <v>1.010981352554649</v>
       </c>
       <c r="M15">
-        <v>0.9050588502814028</v>
+        <v>1.019633003653952</v>
       </c>
       <c r="N15">
-        <v>0.9655761314933897</v>
+        <v>1.007303002988979</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.8710632098895917</v>
+        <v>1.005703994219459</v>
       </c>
       <c r="D16">
-        <v>0.884094700788254</v>
+        <v>1.008664042012205</v>
       </c>
       <c r="E16">
-        <v>0.8951116188189244</v>
+        <v>1.008503572511613</v>
       </c>
       <c r="F16">
-        <v>0.8975656300054159</v>
+        <v>1.017307738505443</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037251187205849</v>
+        <v>1.025458577419319</v>
       </c>
       <c r="J16">
-        <v>0.9054273401214056</v>
+        <v>1.012236373952719</v>
       </c>
       <c r="K16">
-        <v>0.9008836543855325</v>
+        <v>1.012201901146182</v>
       </c>
       <c r="L16">
-        <v>0.911630295669175</v>
+        <v>1.012042038492712</v>
       </c>
       <c r="M16">
-        <v>0.9140253155170498</v>
+        <v>1.020813222899502</v>
       </c>
       <c r="N16">
-        <v>0.9686994086077224</v>
+        <v>1.007703902879983</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.8773724124144733</v>
+        <v>1.006556265196287</v>
       </c>
       <c r="D17">
-        <v>0.8899124534155965</v>
+        <v>1.009480235087914</v>
       </c>
       <c r="E17">
-        <v>0.9003907582533849</v>
+        <v>1.009243530254226</v>
       </c>
       <c r="F17">
-        <v>0.9034599631407616</v>
+        <v>1.018121376158442</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037731303422822</v>
+        <v>1.025478380708179</v>
       </c>
       <c r="J17">
-        <v>0.9105213415686788</v>
+        <v>1.012942387052339</v>
       </c>
       <c r="K17">
-        <v>0.9061717337355898</v>
+        <v>1.012941179584229</v>
       </c>
       <c r="L17">
-        <v>0.9164040397716426</v>
+        <v>1.012705348488431</v>
       </c>
       <c r="M17">
-        <v>0.9194026319174314</v>
+        <v>1.02155073127031</v>
       </c>
       <c r="N17">
-        <v>0.9705708369626922</v>
+        <v>1.00795431985342</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.8809538818058359</v>
+        <v>1.00705259734141</v>
       </c>
       <c r="D18">
-        <v>0.8932176857949811</v>
+        <v>1.009955587444754</v>
       </c>
       <c r="E18">
-        <v>0.9033907802661207</v>
+        <v>1.009674453183094</v>
       </c>
       <c r="F18">
-        <v>0.9068105923209129</v>
+        <v>1.018594988260295</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038002698707219</v>
+        <v>1.02548958042486</v>
       </c>
       <c r="J18">
-        <v>0.9134139006500327</v>
+        <v>1.013353431712695</v>
       </c>
       <c r="K18">
-        <v>0.9091749022781469</v>
+        <v>1.013371635979825</v>
       </c>
       <c r="L18">
-        <v>0.9191151954961378</v>
+        <v>1.013091524663187</v>
       </c>
       <c r="M18">
-        <v>0.9224583105129647</v>
+        <v>1.021979904981986</v>
       </c>
       <c r="N18">
-        <v>0.971633724521466</v>
+        <v>1.008100006865976</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.8821592487910427</v>
+        <v>1.007221702199079</v>
       </c>
       <c r="D19">
-        <v>0.8943305237103826</v>
+        <v>1.010117549467267</v>
       </c>
       <c r="E19">
-        <v>0.9044009806248053</v>
+        <v>1.00982127213742</v>
       </c>
       <c r="F19">
-        <v>0.9079389959121993</v>
+        <v>1.018756314497618</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03809382550496</v>
+        <v>1.025493339714151</v>
       </c>
       <c r="J19">
-        <v>0.9143875433058889</v>
+        <v>1.013493459306006</v>
       </c>
       <c r="K19">
-        <v>0.9101858450007548</v>
+        <v>1.013518283972265</v>
       </c>
       <c r="L19">
-        <v>0.9200278486153347</v>
+        <v>1.013223079378375</v>
       </c>
       <c r="M19">
-        <v>0.9234872024944482</v>
+        <v>1.022126073118413</v>
       </c>
       <c r="N19">
-        <v>0.9719915225160586</v>
+        <v>1.008149618799085</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.8767059118497964</v>
+        <v>1.006464905884827</v>
       </c>
       <c r="D20">
-        <v>0.8892975771460019</v>
+        <v>1.009392739966967</v>
       </c>
       <c r="E20">
-        <v>0.8998327225419757</v>
+        <v>1.009164210571543</v>
       </c>
       <c r="F20">
-        <v>0.9028367859880272</v>
+        <v>1.01803418102897</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037680699482122</v>
+        <v>1.025476292340809</v>
       </c>
       <c r="J20">
-        <v>0.9099831139937736</v>
+        <v>1.012866717473723</v>
       </c>
       <c r="K20">
-        <v>0.9056129577328449</v>
+        <v>1.012861940065976</v>
       </c>
       <c r="L20">
-        <v>0.9158996019659044</v>
+        <v>1.012634256445203</v>
       </c>
       <c r="M20">
-        <v>0.9188342258778587</v>
+        <v>1.02147170753457</v>
       </c>
       <c r="N20">
-        <v>0.9703730777238131</v>
+        <v>1.007927491562098</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8577413003487316</v>
+        <v>1.003995190224707</v>
       </c>
       <c r="D21">
-        <v>0.8718312808753704</v>
+        <v>1.00702777422648</v>
       </c>
       <c r="E21">
-        <v>0.8839898818144234</v>
+        <v>1.00701994769722</v>
       </c>
       <c r="F21">
-        <v>0.8851571465809466</v>
+        <v>1.01567498372072</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036231286528904</v>
+        <v>1.025416738356609</v>
       </c>
       <c r="J21">
-        <v>0.8946794314938252</v>
+        <v>1.010820099028342</v>
       </c>
       <c r="K21">
-        <v>0.8897290073303137</v>
+        <v>1.01071918110818</v>
       </c>
       <c r="L21">
-        <v>0.9015616238233639</v>
+        <v>1.010711385598358</v>
       </c>
       <c r="M21">
-        <v>0.902698231666645</v>
+        <v>1.019332442923583</v>
       </c>
       <c r="N21">
-        <v>0.9647532966530789</v>
+        <v>1.007200876200891</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8446686855533978</v>
+        <v>1.00243503924645</v>
       </c>
       <c r="D22">
-        <v>0.8598259247300484</v>
+        <v>1.00553408140702</v>
       </c>
       <c r="E22">
-        <v>0.8731114287312451</v>
+        <v>1.005665382969716</v>
       </c>
       <c r="F22">
-        <v>0.8730356809564416</v>
+        <v>1.014182678456709</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035226308168048</v>
+        <v>1.025376119566924</v>
       </c>
       <c r="J22">
-        <v>0.8841458562017952</v>
+        <v>1.009526215375146</v>
       </c>
       <c r="K22">
-        <v>0.8788000267339962</v>
+        <v>1.009364919546081</v>
       </c>
       <c r="L22">
-        <v>0.8916987585080312</v>
+        <v>1.009495678880874</v>
       </c>
       <c r="M22">
-        <v>0.8916251702880192</v>
+        <v>1.017978135306703</v>
       </c>
       <c r="N22">
-        <v>0.9608904846148574</v>
+        <v>1.00674054340692</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8517231616821276</v>
+        <v>1.003262814907603</v>
       </c>
       <c r="D23">
-        <v>0.8663008641214076</v>
+        <v>1.006326568576381</v>
       </c>
       <c r="E23">
-        <v>0.878977382379892</v>
+        <v>1.006384079935383</v>
       </c>
       <c r="F23">
-        <v>0.8795697463058607</v>
+        <v>1.014974641810342</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035768878002381</v>
+        <v>1.025397953830631</v>
       </c>
       <c r="J23">
-        <v>0.889828365229906</v>
+        <v>1.010212811668405</v>
       </c>
       <c r="K23">
-        <v>0.8846954744997012</v>
+        <v>1.010083517133198</v>
       </c>
       <c r="L23">
-        <v>0.8970187966196923</v>
+        <v>1.010140796067329</v>
       </c>
       <c r="M23">
-        <v>0.8975949948953679</v>
+        <v>1.018696969382584</v>
       </c>
       <c r="N23">
-        <v>0.9629736782638066</v>
+        <v>1.006984908632195</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.8770073768660761</v>
+        <v>1.006506189643186</v>
       </c>
       <c r="D24">
-        <v>0.8895756834762121</v>
+        <v>1.009432277466876</v>
       </c>
       <c r="E24">
-        <v>0.9000851176495756</v>
+        <v>1.00920005382757</v>
       </c>
       <c r="F24">
-        <v>0.9031186409864282</v>
+        <v>1.018073583747463</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037703591796009</v>
+        <v>1.025477237069366</v>
       </c>
       <c r="J24">
-        <v>0.9102265570471222</v>
+        <v>1.012900911648704</v>
       </c>
       <c r="K24">
-        <v>0.9058656936786352</v>
+        <v>1.012897747316312</v>
       </c>
       <c r="L24">
-        <v>0.9161277603428755</v>
+        <v>1.01266638210699</v>
       </c>
       <c r="M24">
-        <v>0.91909131189955</v>
+        <v>1.021507418055492</v>
       </c>
       <c r="N24">
-        <v>0.9704625245609598</v>
+        <v>1.007939615276504</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9025248260050421</v>
+        <v>1.01023936779762</v>
       </c>
       <c r="D25">
-        <v>0.913165349549161</v>
+        <v>1.013008195302354</v>
       </c>
       <c r="E25">
-        <v>0.9215071722981721</v>
+        <v>1.012441202297609</v>
       </c>
       <c r="F25">
-        <v>0.9270538391349039</v>
+        <v>1.021631847346842</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039612280357252</v>
+        <v>1.025555468655154</v>
       </c>
       <c r="J25">
-        <v>0.9308454060854303</v>
+        <v>1.015990573526646</v>
       </c>
       <c r="K25">
-        <v>0.9272799384340935</v>
+        <v>1.016134118743947</v>
       </c>
       <c r="L25">
-        <v>0.9354598561337091</v>
+        <v>1.015568997755284</v>
       </c>
       <c r="M25">
-        <v>0.9409009760247459</v>
+        <v>1.024729579113322</v>
       </c>
       <c r="N25">
-        <v>0.9780399631935571</v>
+        <v>1.009032752944889</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_30/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.013193762863988</v>
+        <v>0.920672473437084</v>
       </c>
       <c r="D2">
-        <v>1.015839054349307</v>
+        <v>0.9299987051174076</v>
       </c>
       <c r="E2">
-        <v>1.015006082329285</v>
+        <v>0.9368067666714408</v>
       </c>
       <c r="F2">
-        <v>1.024440664508684</v>
+        <v>0.9441505507444158</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.025606812330986</v>
+        <v>1.040917352208846</v>
       </c>
       <c r="J2">
-        <v>1.018432134943767</v>
+        <v>0.945515606029052</v>
       </c>
       <c r="K2">
-        <v>1.018693014191807</v>
+        <v>0.9425278227943386</v>
       </c>
       <c r="L2">
-        <v>1.017862533226702</v>
+        <v>0.9492228162617939</v>
       </c>
       <c r="M2">
-        <v>1.027269158509428</v>
+        <v>0.9564469812330498</v>
       </c>
       <c r="N2">
-        <v>1.009893179867788</v>
+        <v>0.9834275374890267</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015326193525176</v>
+        <v>0.932861154485058</v>
       </c>
       <c r="D3">
-        <v>1.017882829165986</v>
+        <v>0.9413297316689431</v>
       </c>
       <c r="E3">
-        <v>1.016857263799404</v>
+        <v>0.947109608035524</v>
       </c>
       <c r="F3">
-        <v>1.026463788833949</v>
+        <v>0.9556556998152307</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.02563770556681</v>
+        <v>1.041757103069852</v>
       </c>
       <c r="J3">
-        <v>1.020192331381777</v>
+        <v>0.9553659162969564</v>
       </c>
       <c r="K3">
-        <v>1.020538611398353</v>
+        <v>0.952772748930338</v>
       </c>
       <c r="L3">
-        <v>1.019515883541158</v>
+        <v>0.9584671594390934</v>
       </c>
       <c r="M3">
-        <v>1.029096070049915</v>
+        <v>0.9668892808859622</v>
       </c>
       <c r="N3">
-        <v>1.010511492568047</v>
+        <v>0.9870394287031983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016700364374441</v>
+        <v>0.940361875440076</v>
       </c>
       <c r="D4">
-        <v>1.01920009781476</v>
+        <v>0.9483123717013848</v>
       </c>
       <c r="E4">
-        <v>1.018050135534325</v>
+        <v>0.9534597901296894</v>
       </c>
       <c r="F4">
-        <v>1.027765535553417</v>
+        <v>0.9627409046400038</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.025654747514573</v>
+        <v>1.042255067594463</v>
       </c>
       <c r="J4">
-        <v>1.021325661524972</v>
+        <v>0.9614247693831703</v>
       </c>
       <c r="K4">
-        <v>1.021727303580986</v>
+        <v>0.9590774264273053</v>
       </c>
       <c r="L4">
-        <v>1.020580357523859</v>
+        <v>0.964154381011523</v>
       </c>
       <c r="M4">
-        <v>1.030270504295453</v>
+        <v>0.9733108349736654</v>
       </c>
       <c r="N4">
-        <v>1.010908673224233</v>
+        <v>0.9892575965029722</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017276745396144</v>
+        <v>0.9434314754417163</v>
       </c>
       <c r="D5">
-        <v>1.01975266561617</v>
+        <v>0.9511720494623703</v>
       </c>
       <c r="E5">
-        <v>1.018550457328437</v>
+        <v>0.9560606271065873</v>
       </c>
       <c r="F5">
-        <v>1.028311059398515</v>
+        <v>0.9656410299389492</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.02566120715142</v>
+        <v>1.042454096550337</v>
       </c>
       <c r="J5">
-        <v>1.021800792128579</v>
+        <v>0.9639034110457794</v>
       </c>
       <c r="K5">
-        <v>1.022225733782121</v>
+        <v>0.9616573770385004</v>
       </c>
       <c r="L5">
-        <v>1.02102660628689</v>
+        <v>0.9664812058595051</v>
       </c>
       <c r="M5">
-        <v>1.030762420045761</v>
+        <v>0.9759370947069124</v>
       </c>
       <c r="N5">
-        <v>1.011074961240664</v>
+        <v>0.9901640849355738</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01737344583738</v>
+        <v>0.9439421958744137</v>
       </c>
       <c r="D6">
-        <v>1.019845373997367</v>
+        <v>0.9516479603550724</v>
       </c>
       <c r="E6">
-        <v>1.018634396243218</v>
+        <v>0.9564934691832288</v>
       </c>
       <c r="F6">
-        <v>1.028402554617162</v>
+        <v>0.9661235691996332</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.025662250450633</v>
+        <v>1.042486924119122</v>
       </c>
       <c r="J6">
-        <v>1.021880491956386</v>
+        <v>0.9643157502631086</v>
       </c>
       <c r="K6">
-        <v>1.022309347232147</v>
+        <v>0.9620866134852458</v>
       </c>
       <c r="L6">
-        <v>1.021101460501895</v>
+        <v>0.9668683007411749</v>
       </c>
       <c r="M6">
-        <v>1.030844909126277</v>
+        <v>0.9763739351089854</v>
       </c>
       <c r="N6">
-        <v>1.011102841739707</v>
+        <v>0.9903148264316309</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016708071149521</v>
+        <v>0.940403209920852</v>
       </c>
       <c r="D7">
-        <v>1.019207485973731</v>
+        <v>0.948350871369665</v>
       </c>
       <c r="E7">
-        <v>1.018056825385526</v>
+        <v>0.9534948044599451</v>
       </c>
       <c r="F7">
-        <v>1.02777283163009</v>
+        <v>0.9627799555566405</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.025654836596532</v>
+        <v>1.042257766887378</v>
       </c>
       <c r="J7">
-        <v>1.0213320153985</v>
+        <v>0.9614581499324355</v>
       </c>
       <c r="K7">
-        <v>1.021733968683787</v>
+        <v>0.9591121683767232</v>
       </c>
       <c r="L7">
-        <v>1.020586325222746</v>
+        <v>0.9641857162030726</v>
       </c>
       <c r="M7">
-        <v>1.030277084398754</v>
+        <v>0.9733462070805302</v>
       </c>
       <c r="N7">
-        <v>1.010910897858182</v>
+        <v>0.9892698083566158</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013915618730264</v>
+        <v>0.9248773784092482</v>
       </c>
       <c r="D8">
-        <v>1.016530850876518</v>
+        <v>0.9339054997865615</v>
       </c>
       <c r="E8">
-        <v>1.015632742780939</v>
+        <v>0.9403587426591248</v>
       </c>
       <c r="F8">
-        <v>1.025125928380495</v>
+        <v>0.948118113070774</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.025617863854005</v>
+        <v>1.041210915473886</v>
       </c>
       <c r="J8">
-        <v>1.019028184969715</v>
+        <v>0.9489142900794189</v>
       </c>
       <c r="K8">
-        <v>1.019317905268105</v>
+        <v>0.9460619989932453</v>
       </c>
       <c r="L8">
-        <v>1.018422414922443</v>
+        <v>0.9524121554122739</v>
       </c>
       <c r="M8">
-        <v>1.027888182414642</v>
+        <v>0.9600499488187438</v>
       </c>
       <c r="N8">
-        <v>1.010102749746004</v>
+        <v>0.9846744274302223</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.008950146588167</v>
+        <v>0.8940754288149144</v>
       </c>
       <c r="D9">
-        <v>1.011773137018571</v>
+        <v>0.9053436759779824</v>
       </c>
       <c r="E9">
-        <v>1.011321915271883</v>
+        <v>0.9144015226254035</v>
       </c>
       <c r="F9">
-        <v>1.020404131336477</v>
+        <v>0.919112684625329</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025530088701005</v>
+        <v>1.038987778424663</v>
       </c>
       <c r="J9">
-        <v>1.014924136612974</v>
+        <v>0.9240158872757381</v>
       </c>
       <c r="K9">
-        <v>1.01501682563427</v>
+        <v>0.9201850260659994</v>
       </c>
       <c r="L9">
-        <v>1.014567155098706</v>
+        <v>0.9290549158658366</v>
       </c>
       <c r="M9">
-        <v>1.023618438524257</v>
+        <v>0.933670246235021</v>
       </c>
       <c r="N9">
-        <v>1.008655969886184</v>
+        <v>0.9755301449075342</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.005607572478285</v>
+        <v>0.8703361371997647</v>
       </c>
       <c r="D10">
-        <v>1.008571706134578</v>
+        <v>0.8834246632921803</v>
       </c>
       <c r="E10">
-        <v>1.008419857104194</v>
+        <v>0.8945037326505566</v>
       </c>
       <c r="F10">
-        <v>1.01721565766169</v>
+        <v>0.8968870674961411</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025456291900837</v>
+        <v>1.037195714603193</v>
       </c>
       <c r="J10">
-        <v>1.012156483934058</v>
+        <v>0.9048404510112646</v>
       </c>
       <c r="K10">
-        <v>1.012118252963713</v>
+        <v>0.9002744614769562</v>
       </c>
       <c r="L10">
-        <v>1.011966979735253</v>
+        <v>0.9110803707803128</v>
       </c>
       <c r="M10">
-        <v>1.020729740931483</v>
+        <v>0.9134061277020585</v>
       </c>
       <c r="N10">
-        <v>1.007675552062586</v>
+        <v>0.9684838374444215</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.004152070080325</v>
+        <v>0.8590049632660695</v>
       </c>
       <c r="D11">
-        <v>1.007177983666579</v>
+        <v>0.8729933007166626</v>
       </c>
       <c r="E11">
-        <v>1.007156154887436</v>
+        <v>0.885043330395196</v>
       </c>
       <c r="F11">
-        <v>1.015824958637285</v>
+        <v>0.8863318489619434</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02542069627375</v>
+        <v>1.036328286390668</v>
       </c>
       <c r="J11">
-        <v>1.010950162025065</v>
+        <v>0.8956984000596494</v>
       </c>
       <c r="K11">
-        <v>1.010855330390328</v>
+        <v>0.8907863873913852</v>
       </c>
       <c r="L11">
-        <v>1.010833587762245</v>
+        <v>0.9025159820984603</v>
       </c>
       <c r="M11">
-        <v>1.019468501979665</v>
+        <v>0.9037709346308292</v>
       </c>
       <c r="N11">
-        <v>1.007247108944062</v>
+        <v>0.9651272349547348</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.003610166227729</v>
+        <v>0.8546023718728017</v>
       </c>
       <c r="D12">
-        <v>1.006659130654608</v>
+        <v>0.8689459801339695</v>
       </c>
       <c r="E12">
-        <v>1.006685659660439</v>
+        <v>0.8813745370074334</v>
       </c>
       <c r="F12">
-        <v>1.015306841499203</v>
+        <v>0.8822414052867964</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025406925875131</v>
+        <v>1.035990184606837</v>
       </c>
       <c r="J12">
-        <v>1.010500857372336</v>
+        <v>0.8921488574825783</v>
       </c>
       <c r="K12">
-        <v>1.010385013838931</v>
+        <v>0.8871031675900178</v>
       </c>
       <c r="L12">
-        <v>1.010411436612878</v>
+        <v>0.8991917093293104</v>
       </c>
       <c r="M12">
-        <v>1.018998422965191</v>
+        <v>0.9000353477227335</v>
       </c>
       <c r="N12">
-        <v>1.007087365537009</v>
+        <v>0.9638248220987591</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.003726464384762</v>
+        <v>0.8555562183990122</v>
       </c>
       <c r="D13">
-        <v>1.006770479612945</v>
+        <v>0.8698225813807732</v>
       </c>
       <c r="E13">
-        <v>1.006786632819329</v>
+        <v>0.8821690644164792</v>
       </c>
       <c r="F13">
-        <v>1.015418050105905</v>
+        <v>0.8831270937638709</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025409904523278</v>
+        <v>1.036063470851983</v>
       </c>
       <c r="J13">
-        <v>1.010597290650125</v>
+        <v>0.8929177570257708</v>
       </c>
       <c r="K13">
-        <v>1.010485953711809</v>
+        <v>0.8879009939937662</v>
       </c>
       <c r="L13">
-        <v>1.010502042434882</v>
+        <v>0.8999117627378257</v>
       </c>
       <c r="M13">
-        <v>1.019099329409692</v>
+        <v>0.9008442750125235</v>
       </c>
       <c r="N13">
-        <v>1.007121658415814</v>
+        <v>0.9641069041645326</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.00410730219742</v>
+        <v>0.8586452460154372</v>
       </c>
       <c r="D14">
-        <v>1.007135119052572</v>
+        <v>0.87266249056941</v>
       </c>
       <c r="E14">
-        <v>1.007117286245754</v>
+        <v>0.8847434202335551</v>
       </c>
       <c r="F14">
-        <v>1.015782162740211</v>
+        <v>0.8859974040531708</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025419569208786</v>
+        <v>1.036300678262529</v>
       </c>
       <c r="J14">
-        <v>1.010913047513225</v>
+        <v>0.8954083257628425</v>
       </c>
       <c r="K14">
-        <v>1.01081647878838</v>
+        <v>0.8904853752690038</v>
       </c>
       <c r="L14">
-        <v>1.010798716446792</v>
+        <v>0.9022442959888536</v>
       </c>
       <c r="M14">
-        <v>1.019429677914884</v>
+        <v>0.9034655371625174</v>
       </c>
       <c r="N14">
-        <v>1.007233916827147</v>
+        <v>0.9650207799985848</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.004341779998811</v>
+        <v>0.8605215548406403</v>
       </c>
       <c r="D15">
-        <v>1.007359630252192</v>
+        <v>0.8743882522149331</v>
       </c>
       <c r="E15">
-        <v>1.007320865937265</v>
+        <v>0.886308058923461</v>
       </c>
       <c r="F15">
-        <v>1.01600629809943</v>
+        <v>0.8877423364866727</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02542545119822</v>
+        <v>1.036444645728188</v>
       </c>
       <c r="J15">
-        <v>1.011107432634816</v>
+        <v>0.8969214783793601</v>
       </c>
       <c r="K15">
-        <v>1.011019964662021</v>
+        <v>0.8920556113094815</v>
       </c>
       <c r="L15">
-        <v>1.010981352554649</v>
+        <v>0.9036615688526149</v>
       </c>
       <c r="M15">
-        <v>1.019633003653952</v>
+        <v>0.905058850281403</v>
       </c>
       <c r="N15">
-        <v>1.007303002988979</v>
+        <v>0.9655761314933897</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.005703994219459</v>
+        <v>0.8710632098895889</v>
       </c>
       <c r="D16">
-        <v>1.008664042012205</v>
+        <v>0.8840947007882513</v>
       </c>
       <c r="E16">
-        <v>1.008503572511613</v>
+        <v>0.895111618818922</v>
       </c>
       <c r="F16">
-        <v>1.017307738505443</v>
+        <v>0.8975656300054139</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025458577419319</v>
+        <v>1.037251187205849</v>
       </c>
       <c r="J16">
-        <v>1.012236373952719</v>
+        <v>0.905427340121403</v>
       </c>
       <c r="K16">
-        <v>1.012201901146182</v>
+        <v>0.9008836543855296</v>
       </c>
       <c r="L16">
-        <v>1.012042038492712</v>
+        <v>0.9116302956691726</v>
       </c>
       <c r="M16">
-        <v>1.020813222899502</v>
+        <v>0.9140253155170478</v>
       </c>
       <c r="N16">
-        <v>1.007703902879983</v>
+        <v>0.9686994086077217</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.006556265196287</v>
+        <v>0.8773724124144736</v>
       </c>
       <c r="D17">
-        <v>1.009480235087914</v>
+        <v>0.8899124534155967</v>
       </c>
       <c r="E17">
-        <v>1.009243530254226</v>
+        <v>0.9003907582533852</v>
       </c>
       <c r="F17">
-        <v>1.018121376158442</v>
+        <v>0.9034599631407624</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025478380708179</v>
+        <v>1.037731303422822</v>
       </c>
       <c r="J17">
-        <v>1.012942387052339</v>
+        <v>0.910521341568679</v>
       </c>
       <c r="K17">
-        <v>1.012941179584229</v>
+        <v>0.9061717337355898</v>
       </c>
       <c r="L17">
-        <v>1.012705348488431</v>
+        <v>0.916404039771643</v>
       </c>
       <c r="M17">
-        <v>1.02155073127031</v>
+        <v>0.9194026319174322</v>
       </c>
       <c r="N17">
-        <v>1.00795431985342</v>
+        <v>0.9705708369626923</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.00705259734141</v>
+        <v>0.8809538818058342</v>
       </c>
       <c r="D18">
-        <v>1.009955587444754</v>
+        <v>0.8932176857949796</v>
       </c>
       <c r="E18">
-        <v>1.009674453183094</v>
+        <v>0.9033907802661195</v>
       </c>
       <c r="F18">
-        <v>1.018594988260295</v>
+        <v>0.9068105923209122</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02548958042486</v>
+        <v>1.038002698707219</v>
       </c>
       <c r="J18">
-        <v>1.013353431712695</v>
+        <v>0.9134139006500311</v>
       </c>
       <c r="K18">
-        <v>1.013371635979825</v>
+        <v>0.9091749022781452</v>
       </c>
       <c r="L18">
-        <v>1.013091524663187</v>
+        <v>0.9191151954961366</v>
       </c>
       <c r="M18">
-        <v>1.021979904981986</v>
+        <v>0.922458310512964</v>
       </c>
       <c r="N18">
-        <v>1.008100006865976</v>
+        <v>0.9716337245214653</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.007221702199079</v>
+        <v>0.8821592487910405</v>
       </c>
       <c r="D19">
-        <v>1.010117549467267</v>
+        <v>0.8943305237103802</v>
       </c>
       <c r="E19">
-        <v>1.00982127213742</v>
+        <v>0.9044009806248035</v>
       </c>
       <c r="F19">
-        <v>1.018756314497618</v>
+        <v>0.9079389959121978</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025493339714151</v>
+        <v>1.03809382550496</v>
       </c>
       <c r="J19">
-        <v>1.013493459306006</v>
+        <v>0.9143875433058869</v>
       </c>
       <c r="K19">
-        <v>1.013518283972265</v>
+        <v>0.9101858450007526</v>
       </c>
       <c r="L19">
-        <v>1.013223079378375</v>
+        <v>0.9200278486153332</v>
       </c>
       <c r="M19">
-        <v>1.022126073118413</v>
+        <v>0.9234872024944467</v>
       </c>
       <c r="N19">
-        <v>1.008149618799085</v>
+        <v>0.9719915225160577</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006464905884827</v>
+        <v>0.8767059118497965</v>
       </c>
       <c r="D20">
-        <v>1.009392739966967</v>
+        <v>0.8892975771460018</v>
       </c>
       <c r="E20">
-        <v>1.009164210571543</v>
+        <v>0.8998327225419755</v>
       </c>
       <c r="F20">
-        <v>1.01803418102897</v>
+        <v>0.9028367859880271</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025476292340809</v>
+        <v>1.037680699482122</v>
       </c>
       <c r="J20">
-        <v>1.012866717473723</v>
+        <v>0.9099831139937739</v>
       </c>
       <c r="K20">
-        <v>1.012861940065976</v>
+        <v>0.9056129577328448</v>
       </c>
       <c r="L20">
-        <v>1.012634256445203</v>
+        <v>0.9158996019659041</v>
       </c>
       <c r="M20">
-        <v>1.02147170753457</v>
+        <v>0.9188342258778585</v>
       </c>
       <c r="N20">
-        <v>1.007927491562098</v>
+        <v>0.9703730777238131</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.003995190224707</v>
+        <v>0.8577413003487312</v>
       </c>
       <c r="D21">
-        <v>1.00702777422648</v>
+        <v>0.8718312808753699</v>
       </c>
       <c r="E21">
-        <v>1.00701994769722</v>
+        <v>0.8839898818144226</v>
       </c>
       <c r="F21">
-        <v>1.01567498372072</v>
+        <v>0.8851571465809461</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025416738356609</v>
+        <v>1.036231286528905</v>
       </c>
       <c r="J21">
-        <v>1.010820099028342</v>
+        <v>0.8946794314938247</v>
       </c>
       <c r="K21">
-        <v>1.01071918110818</v>
+        <v>0.8897290073303128</v>
       </c>
       <c r="L21">
-        <v>1.010711385598358</v>
+        <v>0.9015616238233632</v>
       </c>
       <c r="M21">
-        <v>1.019332442923583</v>
+        <v>0.9026982316666448</v>
       </c>
       <c r="N21">
-        <v>1.007200876200891</v>
+        <v>0.9647532966530787</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.00243503924645</v>
+        <v>0.8446686855533987</v>
       </c>
       <c r="D22">
-        <v>1.00553408140702</v>
+        <v>0.8598259247300492</v>
       </c>
       <c r="E22">
-        <v>1.005665382969716</v>
+        <v>0.8731114287312455</v>
       </c>
       <c r="F22">
-        <v>1.014182678456709</v>
+        <v>0.8730356809564422</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025376119566924</v>
+        <v>1.035226308168048</v>
       </c>
       <c r="J22">
-        <v>1.009526215375146</v>
+        <v>0.8841458562017961</v>
       </c>
       <c r="K22">
-        <v>1.009364919546081</v>
+        <v>0.8788000267339969</v>
       </c>
       <c r="L22">
-        <v>1.009495678880874</v>
+        <v>0.8916987585080318</v>
       </c>
       <c r="M22">
-        <v>1.017978135306703</v>
+        <v>0.8916251702880199</v>
       </c>
       <c r="N22">
-        <v>1.00674054340692</v>
+        <v>0.9608904846148576</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.003262814907603</v>
+        <v>0.8517231616821256</v>
       </c>
       <c r="D23">
-        <v>1.006326568576381</v>
+        <v>0.8663008641214061</v>
       </c>
       <c r="E23">
-        <v>1.006384079935383</v>
+        <v>0.8789773823798903</v>
       </c>
       <c r="F23">
-        <v>1.014974641810342</v>
+        <v>0.8795697463058592</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025397953830631</v>
+        <v>1.035768878002381</v>
       </c>
       <c r="J23">
-        <v>1.010212811668405</v>
+        <v>0.8898283652299043</v>
       </c>
       <c r="K23">
-        <v>1.010083517133198</v>
+        <v>0.8846954744996995</v>
       </c>
       <c r="L23">
-        <v>1.010140796067329</v>
+        <v>0.897018796619691</v>
       </c>
       <c r="M23">
-        <v>1.018696969382584</v>
+        <v>0.8975949948953663</v>
       </c>
       <c r="N23">
-        <v>1.006984908632195</v>
+        <v>0.962973678263806</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006506189643186</v>
+        <v>0.8770073768660747</v>
       </c>
       <c r="D24">
-        <v>1.009432277466876</v>
+        <v>0.8895756834762104</v>
       </c>
       <c r="E24">
-        <v>1.00920005382757</v>
+        <v>0.9000851176495741</v>
       </c>
       <c r="F24">
-        <v>1.018073583747463</v>
+        <v>0.9031186409864272</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025477237069366</v>
+        <v>1.037703591796009</v>
       </c>
       <c r="J24">
-        <v>1.012900911648704</v>
+        <v>0.9102265570471206</v>
       </c>
       <c r="K24">
-        <v>1.012897747316312</v>
+        <v>0.9058656936786337</v>
       </c>
       <c r="L24">
-        <v>1.01266638210699</v>
+        <v>0.9161277603428741</v>
       </c>
       <c r="M24">
-        <v>1.021507418055492</v>
+        <v>0.9190913118995487</v>
       </c>
       <c r="N24">
-        <v>1.007939615276504</v>
+        <v>0.9704625245609593</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.01023936779762</v>
+        <v>0.9025248260050422</v>
       </c>
       <c r="D25">
-        <v>1.013008195302354</v>
+        <v>0.913165349549161</v>
       </c>
       <c r="E25">
-        <v>1.012441202297609</v>
+        <v>0.9215071722981723</v>
       </c>
       <c r="F25">
-        <v>1.021631847346842</v>
+        <v>0.9270538391349038</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025555468655154</v>
+        <v>1.039612280357252</v>
       </c>
       <c r="J25">
-        <v>1.015990573526646</v>
+        <v>0.9308454060854303</v>
       </c>
       <c r="K25">
-        <v>1.016134118743947</v>
+        <v>0.9272799384340934</v>
       </c>
       <c r="L25">
-        <v>1.015568997755284</v>
+        <v>0.9354598561337092</v>
       </c>
       <c r="M25">
-        <v>1.024729579113322</v>
+        <v>0.9409009760247456</v>
       </c>
       <c r="N25">
-        <v>1.009032752944889</v>
+        <v>0.9780399631935571</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_30/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.920672473437084</v>
+        <v>0.9911168399220335</v>
       </c>
       <c r="D2">
-        <v>0.9299987051174076</v>
+        <v>1.005045616272852</v>
       </c>
       <c r="E2">
-        <v>0.9368067666714408</v>
+        <v>1.008539652425247</v>
       </c>
       <c r="F2">
-        <v>0.9441505507444158</v>
+        <v>1.02081874366624</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040917352208846</v>
+        <v>1.046407551961524</v>
       </c>
       <c r="J2">
-        <v>0.945515606029052</v>
+        <v>1.013566530399298</v>
       </c>
       <c r="K2">
-        <v>0.9425278227943386</v>
+        <v>1.0164351023752</v>
       </c>
       <c r="L2">
-        <v>0.9492228162617939</v>
+        <v>1.019881284661836</v>
       </c>
       <c r="M2">
-        <v>0.9564469812330498</v>
+        <v>1.031995463794035</v>
       </c>
       <c r="N2">
-        <v>0.9834275374890267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.006746230857068</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.033894623171086</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.022690854522873</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.932861154485058</v>
+        <v>0.9968910503140683</v>
       </c>
       <c r="D3">
-        <v>0.9413297316689431</v>
+        <v>1.009479352482554</v>
       </c>
       <c r="E3">
-        <v>0.947109608035524</v>
+        <v>1.01315860931643</v>
       </c>
       <c r="F3">
-        <v>0.9556556998152307</v>
+        <v>1.025028052637135</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041757103069852</v>
+        <v>1.046721472252294</v>
       </c>
       <c r="J3">
-        <v>0.9553659162969564</v>
+        <v>1.017466828741169</v>
       </c>
       <c r="K3">
-        <v>0.952772748930338</v>
+        <v>1.019992363153125</v>
       </c>
       <c r="L3">
-        <v>0.9584671594390934</v>
+        <v>1.023625846870882</v>
       </c>
       <c r="M3">
-        <v>0.9668892808859622</v>
+        <v>1.035350404991418</v>
       </c>
       <c r="N3">
-        <v>0.9870394287031983</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.008251459504316</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.036549853820937</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.025203543109363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.940361875440076</v>
+        <v>1.000539979817271</v>
       </c>
       <c r="D4">
-        <v>0.9483123717013848</v>
+        <v>1.012288319140738</v>
       </c>
       <c r="E4">
-        <v>0.9534597901296894</v>
+        <v>1.016082317038388</v>
       </c>
       <c r="F4">
-        <v>0.9627409046400038</v>
+        <v>1.027691720880753</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042255067594463</v>
+        <v>1.046901223334482</v>
       </c>
       <c r="J4">
-        <v>0.9614247693831703</v>
+        <v>1.019929882934718</v>
       </c>
       <c r="K4">
-        <v>0.9590774264273053</v>
+        <v>1.022240663225187</v>
       </c>
       <c r="L4">
-        <v>0.964154381011523</v>
+        <v>1.0259904414443</v>
       </c>
       <c r="M4">
-        <v>0.9733108349736654</v>
+        <v>1.037467035465105</v>
       </c>
       <c r="N4">
-        <v>0.9892575965029722</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.009199181808372</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.038225032200882</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.026794264788195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9434314754417163</v>
+        <v>1.002064050965709</v>
       </c>
       <c r="D5">
-        <v>0.9511720494623703</v>
+        <v>1.013466681994456</v>
       </c>
       <c r="E5">
-        <v>0.9560606271065873</v>
+        <v>1.017305329101955</v>
       </c>
       <c r="F5">
-        <v>0.9656410299389492</v>
+        <v>1.028804830026797</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042454096550337</v>
+        <v>1.046972099249746</v>
       </c>
       <c r="J5">
-        <v>0.9639034110457794</v>
+        <v>1.02096120091835</v>
       </c>
       <c r="K5">
-        <v>0.9616573770385004</v>
+        <v>1.023184653900943</v>
       </c>
       <c r="L5">
-        <v>0.9664812058595051</v>
+        <v>1.026979806863576</v>
       </c>
       <c r="M5">
-        <v>0.9759370947069124</v>
+        <v>1.038351398515345</v>
       </c>
       <c r="N5">
-        <v>0.9901640849355738</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.009596456033488</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.038924948136208</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.027469066376546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9439421958744137</v>
+        <v>1.002331052980776</v>
       </c>
       <c r="D6">
-        <v>0.9516479603550724</v>
+        <v>1.01367741604455</v>
       </c>
       <c r="E6">
-        <v>0.9564934691832288</v>
+        <v>1.01752058991673</v>
       </c>
       <c r="F6">
-        <v>0.9661235691996332</v>
+        <v>1.02899964142305</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042486924119122</v>
+        <v>1.046984728326185</v>
       </c>
       <c r="J6">
-        <v>0.9643157502631086</v>
+        <v>1.021145511945497</v>
       </c>
       <c r="K6">
-        <v>0.9620866134852458</v>
+        <v>1.023355964755217</v>
       </c>
       <c r="L6">
-        <v>0.9668683007411749</v>
+        <v>1.02715580259324</v>
       </c>
       <c r="M6">
-        <v>0.9763739351089854</v>
+        <v>1.038507782122363</v>
       </c>
       <c r="N6">
-        <v>0.9903148264316309</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.009668821070748</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.039048715536488</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.027599094794691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.940403209920852</v>
+        <v>1.000593762769528</v>
       </c>
       <c r="D7">
-        <v>0.948350871369665</v>
+        <v>1.012341195949674</v>
       </c>
       <c r="E7">
-        <v>0.9534948044599451</v>
+        <v>1.016128056120809</v>
       </c>
       <c r="F7">
-        <v>0.9627799555566405</v>
+        <v>1.027730402723382</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042257766887378</v>
+        <v>1.046905068914159</v>
       </c>
       <c r="J7">
-        <v>0.9614581499324355</v>
+        <v>1.019976207087204</v>
       </c>
       <c r="K7">
-        <v>0.9591121683767232</v>
+        <v>1.022289968697492</v>
       </c>
       <c r="L7">
-        <v>0.9641857162030726</v>
+        <v>1.026032712466957</v>
       </c>
       <c r="M7">
-        <v>0.9733462070805302</v>
+        <v>1.037502387869185</v>
       </c>
       <c r="N7">
-        <v>0.9892698083566158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.00922090138305</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.038253011346528</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.0268495968746</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9248773784092482</v>
+        <v>0.9931303790147631</v>
       </c>
       <c r="D8">
-        <v>0.9339054997865615</v>
+        <v>1.006604549795045</v>
       </c>
       <c r="E8">
-        <v>0.9403587426591248</v>
+        <v>1.010152843472674</v>
       </c>
       <c r="F8">
-        <v>0.948118113070774</v>
+        <v>1.02228519479558</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041210915473886</v>
+        <v>1.046522300353263</v>
       </c>
       <c r="J8">
-        <v>0.9489142900794189</v>
+        <v>1.014939748565186</v>
       </c>
       <c r="K8">
-        <v>0.9460619989932453</v>
+        <v>1.017695795331964</v>
       </c>
       <c r="L8">
-        <v>0.9524121554122739</v>
+        <v>1.02119702211299</v>
       </c>
       <c r="M8">
-        <v>0.9600499488187438</v>
+        <v>1.033171528516034</v>
       </c>
       <c r="N8">
-        <v>0.9846744274302223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.007281953647732</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.034825407564129</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.023605697978849</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8940754288149144</v>
+        <v>0.979208333737294</v>
       </c>
       <c r="D9">
-        <v>0.9053436759779824</v>
+        <v>0.9959454084371602</v>
       </c>
       <c r="E9">
-        <v>0.9144015226254035</v>
+        <v>0.9990452471777806</v>
       </c>
       <c r="F9">
-        <v>0.919112684625329</v>
+        <v>1.012164091739679</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038987778424663</v>
+        <v>1.045661756169763</v>
       </c>
       <c r="J9">
-        <v>0.9240158872757381</v>
+        <v>1.005517284678698</v>
       </c>
       <c r="K9">
-        <v>0.9201850260659994</v>
+        <v>1.009104612886027</v>
       </c>
       <c r="L9">
-        <v>0.9290549158658366</v>
+        <v>1.012153833596257</v>
       </c>
       <c r="M9">
-        <v>0.933670246235021</v>
+        <v>1.025062850388131</v>
       </c>
       <c r="N9">
-        <v>0.9755301449075342</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.003626059825487</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.028407852048206</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.017527593797955</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8703361371997647</v>
+        <v>0.9695291275721515</v>
       </c>
       <c r="D10">
-        <v>0.8834246632921803</v>
+        <v>0.9885988819156531</v>
       </c>
       <c r="E10">
-        <v>0.8945037326505566</v>
+        <v>0.9913998344586482</v>
       </c>
       <c r="F10">
-        <v>0.8968870674961411</v>
+        <v>1.005248293429748</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037195714603193</v>
+        <v>1.044989393216682</v>
       </c>
       <c r="J10">
-        <v>0.9048404510112646</v>
+        <v>0.9990061180817357</v>
       </c>
       <c r="K10">
-        <v>0.9002744614769562</v>
+        <v>1.00317708412545</v>
       </c>
       <c r="L10">
-        <v>0.9110803707803128</v>
+        <v>1.005926123317141</v>
       </c>
       <c r="M10">
-        <v>0.9134061277020585</v>
+        <v>1.019523430499178</v>
       </c>
       <c r="N10">
-        <v>0.9684838374444215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.001105761063318</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.024076036715019</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.013353491044873</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8590049632660695</v>
+        <v>0.9663923135503588</v>
       </c>
       <c r="D11">
-        <v>0.8729933007166626</v>
+        <v>0.9863652340818048</v>
       </c>
       <c r="E11">
-        <v>0.885043330395196</v>
+        <v>0.9892654428086629</v>
       </c>
       <c r="F11">
-        <v>0.8863318489619434</v>
+        <v>1.003726474283801</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036328286390668</v>
+        <v>1.0448824122514</v>
       </c>
       <c r="J11">
-        <v>0.8956984000596494</v>
+        <v>0.9972332716256586</v>
       </c>
       <c r="K11">
-        <v>0.8907863873913852</v>
+        <v>1.001548945767105</v>
       </c>
       <c r="L11">
-        <v>0.9025159820984603</v>
+        <v>1.004392676745724</v>
       </c>
       <c r="M11">
-        <v>0.9037709346308292</v>
+        <v>1.018578455271011</v>
       </c>
       <c r="N11">
-        <v>0.9651272349547348</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.000573736280681</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.023771924249118</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.012236117805966</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8546023718728017</v>
+        <v>0.9656533252334496</v>
       </c>
       <c r="D12">
-        <v>0.8689459801339695</v>
+        <v>0.9859048407192765</v>
       </c>
       <c r="E12">
-        <v>0.8813745370074334</v>
+        <v>0.9889345609822159</v>
       </c>
       <c r="F12">
-        <v>0.8822414052867964</v>
+        <v>1.00373292152575</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035990184606837</v>
+        <v>1.04492373848545</v>
       </c>
       <c r="J12">
-        <v>0.8921488574825783</v>
+        <v>0.9969859448223564</v>
       </c>
       <c r="K12">
-        <v>0.8871031675900178</v>
+        <v>1.001307157266851</v>
       </c>
       <c r="L12">
-        <v>0.8991917093293104</v>
+        <v>1.004276872878137</v>
       </c>
       <c r="M12">
-        <v>0.9000353477227335</v>
+        <v>1.018788952398522</v>
       </c>
       <c r="N12">
-        <v>0.9638248220987591</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.000606673722971</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.024269803417758</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.012065155249345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8555562183990122</v>
+        <v>0.9667626898714615</v>
       </c>
       <c r="D13">
-        <v>0.8698225813807732</v>
+        <v>0.9868291403762606</v>
       </c>
       <c r="E13">
-        <v>0.8821690644164792</v>
+        <v>0.9900148299517054</v>
       </c>
       <c r="F13">
-        <v>0.8831270937638709</v>
+        <v>1.004962862215093</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036063470851983</v>
+        <v>1.045092297961684</v>
       </c>
       <c r="J13">
-        <v>0.8929177570257708</v>
+        <v>0.997945456959393</v>
       </c>
       <c r="K13">
-        <v>0.8879009939937662</v>
+        <v>1.002168200872928</v>
       </c>
       <c r="L13">
-        <v>0.8999117627378257</v>
+        <v>1.005291176948697</v>
       </c>
       <c r="M13">
-        <v>0.9008442750125235</v>
+        <v>1.019951878668355</v>
       </c>
       <c r="N13">
-        <v>0.9641069041645326</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.001099955927299</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.025469534281959</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.012671407353597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8586452460154372</v>
+        <v>0.9683756527860227</v>
       </c>
       <c r="D14">
-        <v>0.87266249056941</v>
+        <v>0.9881050046310664</v>
       </c>
       <c r="E14">
-        <v>0.8847434202335551</v>
+        <v>0.9914084192992159</v>
       </c>
       <c r="F14">
-        <v>0.8859974040531708</v>
+        <v>1.006375397451333</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036300678262529</v>
+        <v>1.045266917423922</v>
       </c>
       <c r="J14">
-        <v>0.8954083257628425</v>
+        <v>0.9991635322004448</v>
       </c>
       <c r="K14">
-        <v>0.8904853752690038</v>
+        <v>1.003272052941109</v>
       </c>
       <c r="L14">
-        <v>0.9022442959888536</v>
+        <v>1.006511383925409</v>
       </c>
       <c r="M14">
-        <v>0.9034655371625174</v>
+        <v>1.02119488884346</v>
       </c>
       <c r="N14">
-        <v>0.9650207799985848</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.001654049104824</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.026627249788834</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.013453381163205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8605215548406403</v>
+        <v>0.9691841909342823</v>
       </c>
       <c r="D15">
-        <v>0.8743882522149331</v>
+        <v>0.9887320541564487</v>
       </c>
       <c r="E15">
-        <v>0.886308058923461</v>
+        <v>0.9920714361144352</v>
       </c>
       <c r="F15">
-        <v>0.8877423364866727</v>
+        <v>1.007007145298612</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036444645728188</v>
+        <v>1.045338642853168</v>
       </c>
       <c r="J15">
-        <v>0.8969214783793601</v>
+        <v>0.9997383736686849</v>
       </c>
       <c r="K15">
-        <v>0.8920556113094815</v>
+        <v>1.003796513458303</v>
       </c>
       <c r="L15">
-        <v>0.9036615688526149</v>
+        <v>1.007071669785178</v>
       </c>
       <c r="M15">
-        <v>0.905058850281403</v>
+        <v>1.021726915877281</v>
       </c>
       <c r="N15">
-        <v>0.9655761314933897</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.001895687143201</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.027085641743551</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.013830258779227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8710632098895889</v>
+        <v>0.9730858051222042</v>
       </c>
       <c r="D16">
-        <v>0.8840947007882513</v>
+        <v>0.9916731460313262</v>
       </c>
       <c r="E16">
-        <v>0.895111618818922</v>
+        <v>0.9951147919150496</v>
       </c>
       <c r="F16">
-        <v>0.8975656300054139</v>
+        <v>1.009737336937925</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037251187205849</v>
+        <v>1.04561008043888</v>
       </c>
       <c r="J16">
-        <v>0.905427340121403</v>
+        <v>1.002329151572711</v>
       </c>
       <c r="K16">
-        <v>0.9008836543855296</v>
+        <v>1.006157264528984</v>
       </c>
       <c r="L16">
-        <v>0.9116302956691726</v>
+        <v>1.009535875122217</v>
       </c>
       <c r="M16">
-        <v>0.9140253155170478</v>
+        <v>1.02389681060337</v>
       </c>
       <c r="N16">
-        <v>0.9686994086077217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.00287312036095</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.028761641923081</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.015502729338821</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8773724124144736</v>
+        <v>0.9752344329832242</v>
       </c>
       <c r="D17">
-        <v>0.8899124534155967</v>
+        <v>0.9932639578700649</v>
       </c>
       <c r="E17">
-        <v>0.9003907582533852</v>
+        <v>0.9967205831626584</v>
       </c>
       <c r="F17">
-        <v>0.9034599631407624</v>
+        <v>1.011087189555425</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037731303422822</v>
+        <v>1.045722754996818</v>
       </c>
       <c r="J17">
-        <v>0.910521341568679</v>
+        <v>1.003678746419176</v>
       </c>
       <c r="K17">
-        <v>0.9061717337355898</v>
+        <v>1.007391134216691</v>
       </c>
       <c r="L17">
-        <v>0.916404039771643</v>
+        <v>1.010786357805018</v>
       </c>
       <c r="M17">
-        <v>0.9194026319174322</v>
+        <v>1.024903573288503</v>
       </c>
       <c r="N17">
-        <v>0.9705708369626923</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.003332632822132</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.029427205830318</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.016377815968858</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8809538818058342</v>
+        <v>0.9760475876578163</v>
       </c>
       <c r="D18">
-        <v>0.8932176857949796</v>
+        <v>0.9938052506157918</v>
       </c>
       <c r="E18">
-        <v>0.9033907802661195</v>
+        <v>0.9971953872646102</v>
       </c>
       <c r="F18">
-        <v>0.9068105923209122</v>
+        <v>1.011313511166469</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038002698707219</v>
+        <v>1.045707949544045</v>
       </c>
       <c r="J18">
-        <v>0.9134139006500311</v>
+        <v>1.004047060145782</v>
       </c>
       <c r="K18">
-        <v>0.9091749022781452</v>
+        <v>1.00773177716546</v>
       </c>
       <c r="L18">
-        <v>0.9191151954961366</v>
+        <v>1.011062708225736</v>
       </c>
       <c r="M18">
-        <v>0.922458310512964</v>
+        <v>1.024939774974497</v>
       </c>
       <c r="N18">
-        <v>0.9716337245214653</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.003371720090396</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.02921569993548</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.016606719619164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8821592487910405</v>
+        <v>0.9757302169106851</v>
       </c>
       <c r="D19">
-        <v>0.8943305237103802</v>
+        <v>0.993478196539801</v>
       </c>
       <c r="E19">
-        <v>0.9044009806248035</v>
+        <v>0.996712036841334</v>
       </c>
       <c r="F19">
-        <v>0.9079389959121978</v>
+        <v>1.010575640915151</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03809382550496</v>
+        <v>1.045589722841967</v>
       </c>
       <c r="J19">
-        <v>0.9143875433058869</v>
+        <v>1.003602337769615</v>
       </c>
       <c r="K19">
-        <v>0.9101858450007526</v>
+        <v>1.007345308856724</v>
       </c>
       <c r="L19">
-        <v>0.9200278486153332</v>
+        <v>1.010522917579235</v>
       </c>
       <c r="M19">
-        <v>0.9234872024944467</v>
+        <v>1.024150710289307</v>
       </c>
       <c r="N19">
-        <v>0.9719915225160577</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.003078877697458</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.028262355804066</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.016340030767592</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8767059118497965</v>
+        <v>0.9721540864921483</v>
       </c>
       <c r="D20">
-        <v>0.8892975771460018</v>
+        <v>0.9906189995066619</v>
       </c>
       <c r="E20">
-        <v>0.8998327225419755</v>
+        <v>0.9934816486637216</v>
       </c>
       <c r="F20">
-        <v>0.9028367859880271</v>
+        <v>1.007126178963083</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037680699482122</v>
+        <v>1.045180573841725</v>
       </c>
       <c r="J20">
-        <v>0.9099831139937739</v>
+        <v>1.000802290216078</v>
       </c>
       <c r="K20">
-        <v>0.9056129577328448</v>
+        <v>1.004828832865569</v>
       </c>
       <c r="L20">
-        <v>0.9158996019659041</v>
+        <v>1.007640092036458</v>
       </c>
       <c r="M20">
-        <v>0.9188342258778585</v>
+        <v>1.021044869888248</v>
       </c>
       <c r="N20">
-        <v>0.9703730777238131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.001814975246043</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.025269382633876</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.014564744547248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8577413003487312</v>
+        <v>0.9645930264714023</v>
       </c>
       <c r="D21">
-        <v>0.8718312808753699</v>
+        <v>0.9848681718418537</v>
       </c>
       <c r="E21">
-        <v>0.8839898818144226</v>
+        <v>0.9874593504351756</v>
       </c>
       <c r="F21">
-        <v>0.8851571465809461</v>
+        <v>1.00160127988617</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036231286528905</v>
+        <v>1.044601838034309</v>
       </c>
       <c r="J21">
-        <v>0.8946794314938247</v>
+        <v>0.9956494913000354</v>
       </c>
       <c r="K21">
-        <v>0.8897290073303128</v>
+        <v>1.000142006325849</v>
       </c>
       <c r="L21">
-        <v>0.9015616238233632</v>
+        <v>1.002682268991865</v>
       </c>
       <c r="M21">
-        <v>0.9026982316666448</v>
+        <v>1.016552378901057</v>
       </c>
       <c r="N21">
-        <v>0.9647532966530787</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9997881951741016</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.021672235766429</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.01125416080766</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8446686855533987</v>
+        <v>0.959725461232422</v>
       </c>
       <c r="D22">
-        <v>0.8598259247300492</v>
+        <v>0.9811726058942269</v>
       </c>
       <c r="E22">
-        <v>0.8731114287312455</v>
+        <v>0.9836088690618461</v>
       </c>
       <c r="F22">
-        <v>0.8730356809564422</v>
+        <v>0.9980993491135004</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035226308168048</v>
+        <v>1.044219478076716</v>
       </c>
       <c r="J22">
-        <v>0.8841458562017961</v>
+        <v>0.9923410800600297</v>
       </c>
       <c r="K22">
-        <v>0.8788000267339969</v>
+        <v>0.9971264968796815</v>
       </c>
       <c r="L22">
-        <v>0.8916987585080318</v>
+        <v>0.9995121840672517</v>
       </c>
       <c r="M22">
-        <v>0.8916251702880199</v>
+        <v>1.013708552534235</v>
       </c>
       <c r="N22">
-        <v>0.9608904846148576</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9984878704639731</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.019421473221713</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.009107996159513</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8517231616821256</v>
+        <v>0.9622816937712338</v>
       </c>
       <c r="D23">
-        <v>0.8663008641214061</v>
+        <v>0.9831010442313589</v>
       </c>
       <c r="E23">
-        <v>0.8789773823798903</v>
+        <v>0.9856263946743317</v>
       </c>
       <c r="F23">
-        <v>0.8795697463058592</v>
+        <v>0.9999371087867632</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035768878002381</v>
+        <v>1.044421380032249</v>
       </c>
       <c r="J23">
-        <v>0.8898283652299043</v>
+        <v>0.9940679966349767</v>
       </c>
       <c r="K23">
-        <v>0.8846954744996995</v>
+        <v>0.9986941041935915</v>
       </c>
       <c r="L23">
-        <v>0.897018796619691</v>
+        <v>1.001168521075419</v>
       </c>
       <c r="M23">
-        <v>0.8975949948953663</v>
+        <v>1.015196971281724</v>
       </c>
       <c r="N23">
-        <v>0.962973678263806</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9991621949912927</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.020599491644352</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.010206466370959</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8770073768660747</v>
+        <v>0.9721113113289107</v>
       </c>
       <c r="D24">
-        <v>0.8895756834762104</v>
+        <v>0.9905577224003783</v>
       </c>
       <c r="E24">
-        <v>0.9000851176495741</v>
+        <v>0.9934108220092683</v>
       </c>
       <c r="F24">
-        <v>0.9031186409864272</v>
+        <v>1.00702598838898</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037703591796009</v>
+        <v>1.045164667045738</v>
       </c>
       <c r="J24">
-        <v>0.9102265570471206</v>
+        <v>1.000726851793927</v>
       </c>
       <c r="K24">
-        <v>0.9058656936786337</v>
+        <v>1.004752709199105</v>
       </c>
       <c r="L24">
-        <v>0.9161277603428741</v>
+        <v>1.007554647607839</v>
       </c>
       <c r="M24">
-        <v>0.9190913118995487</v>
+        <v>1.020930833103125</v>
       </c>
       <c r="N24">
-        <v>0.9704625245609593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.001765629575267</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.025137573529221</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.014482706781663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9025248260050422</v>
+        <v>0.9829578413843122</v>
       </c>
       <c r="D25">
-        <v>0.913165349549161</v>
+        <v>0.9988270881007543</v>
       </c>
       <c r="E25">
-        <v>0.9215071722981723</v>
+        <v>1.002036155074508</v>
       </c>
       <c r="F25">
-        <v>0.9270538391349038</v>
+        <v>1.014884521002316</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039612280357252</v>
+        <v>1.045911217643475</v>
       </c>
       <c r="J25">
-        <v>0.9308454060854303</v>
+        <v>1.008072675895894</v>
       </c>
       <c r="K25">
-        <v>0.9272799384340934</v>
+        <v>1.011443639343956</v>
       </c>
       <c r="L25">
-        <v>0.9354598561337092</v>
+        <v>1.014602944377371</v>
       </c>
       <c r="M25">
-        <v>0.9409009760247456</v>
+        <v>1.027256085965599</v>
       </c>
       <c r="N25">
-        <v>0.9780399631935571</v>
+        <v>1.00462699481323</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.030143678549825</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.019210834602193</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_30/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9911168399220335</v>
+        <v>0.9942582435475928</v>
       </c>
       <c r="D2">
-        <v>1.005045616272852</v>
+        <v>1.008064415454671</v>
       </c>
       <c r="E2">
-        <v>1.008539652425247</v>
+        <v>1.011238836348169</v>
       </c>
       <c r="F2">
-        <v>1.02081874366624</v>
+        <v>1.022980405834198</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.046407551961524</v>
+        <v>1.046648770261103</v>
       </c>
       <c r="J2">
-        <v>1.013566530399298</v>
+        <v>1.016612056396081</v>
       </c>
       <c r="K2">
-        <v>1.0164351023752</v>
+        <v>1.019412531934297</v>
       </c>
       <c r="L2">
-        <v>1.019881284661836</v>
+        <v>1.022543785728286</v>
       </c>
       <c r="M2">
-        <v>1.031995463794035</v>
+        <v>1.034128608047467</v>
       </c>
       <c r="N2">
-        <v>1.006746230857068</v>
+        <v>1.010573580048447</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.033894623171086</v>
+        <v>1.035582877462475</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.022690854522873</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.02480519539963</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.016597164226985</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9968910503140683</v>
+        <v>0.9993371998280565</v>
       </c>
       <c r="D3">
-        <v>1.009479352482554</v>
+        <v>1.011739775304155</v>
       </c>
       <c r="E3">
-        <v>1.01315860931643</v>
+        <v>1.015278684293551</v>
       </c>
       <c r="F3">
-        <v>1.025028052637135</v>
+        <v>1.026733341710469</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.046721472252294</v>
+        <v>1.046917832128822</v>
       </c>
       <c r="J3">
-        <v>1.017466828741169</v>
+        <v>1.019845949767019</v>
       </c>
       <c r="K3">
-        <v>1.019992363153125</v>
+        <v>1.022224615248566</v>
       </c>
       <c r="L3">
-        <v>1.023625846870882</v>
+        <v>1.025719733791677</v>
       </c>
       <c r="M3">
-        <v>1.035350404991418</v>
+        <v>1.037035219793273</v>
       </c>
       <c r="N3">
-        <v>1.008251459504316</v>
+        <v>1.011550954081625</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.036549853820937</v>
+        <v>1.03788327788418</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.025203543109363</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.026790657015191</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.017326441057018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.000539979817271</v>
+        <v>1.00255587228161</v>
       </c>
       <c r="D4">
-        <v>1.012288319140738</v>
+        <v>1.014075655693745</v>
       </c>
       <c r="E4">
-        <v>1.016082317038388</v>
+        <v>1.017843885284868</v>
       </c>
       <c r="F4">
-        <v>1.027691720880753</v>
+        <v>1.029115093096455</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046901223334482</v>
+        <v>1.047069984595959</v>
       </c>
       <c r="J4">
-        <v>1.019929882934718</v>
+        <v>1.021894423781639</v>
       </c>
       <c r="K4">
-        <v>1.022240663225187</v>
+        <v>1.024007117095084</v>
       </c>
       <c r="L4">
-        <v>1.0259904414443</v>
+        <v>1.02773161677474</v>
       </c>
       <c r="M4">
-        <v>1.037467035465105</v>
+        <v>1.038874378544657</v>
       </c>
       <c r="N4">
-        <v>1.009199181808372</v>
+        <v>1.012168597022385</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.038225032200882</v>
+        <v>1.039338852552194</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.026794264788195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.02805207145237</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.017785167919753</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.002064050965709</v>
+        <v>1.003901503469272</v>
       </c>
       <c r="D5">
-        <v>1.013466681994456</v>
+        <v>1.015057170698771</v>
       </c>
       <c r="E5">
-        <v>1.017305329101955</v>
+        <v>1.018918136826297</v>
       </c>
       <c r="F5">
-        <v>1.028804830026797</v>
+        <v>1.030111370435214</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046972099249746</v>
+        <v>1.047129430098459</v>
       </c>
       <c r="J5">
-        <v>1.02096120091835</v>
+        <v>1.022753300317293</v>
       </c>
       <c r="K5">
-        <v>1.023184653900943</v>
+        <v>1.024757072220973</v>
       </c>
       <c r="L5">
-        <v>1.026979806863576</v>
+        <v>1.028574460940249</v>
       </c>
       <c r="M5">
-        <v>1.038351398515345</v>
+        <v>1.039643628111135</v>
       </c>
       <c r="N5">
-        <v>1.009596456033488</v>
+        <v>1.012427998968961</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.038924948136208</v>
+        <v>1.039947662732183</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.027469066376546</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.028590364785418</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.017978355730232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002331052980776</v>
+        <v>1.004136390230392</v>
       </c>
       <c r="D6">
-        <v>1.01367741604455</v>
+        <v>1.015232698916815</v>
       </c>
       <c r="E6">
-        <v>1.01752058991673</v>
+        <v>1.019106537906813</v>
       </c>
       <c r="F6">
-        <v>1.02899964142305</v>
+        <v>1.030285096608514</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046984728326185</v>
+        <v>1.04713997113463</v>
       </c>
       <c r="J6">
-        <v>1.021145511945497</v>
+        <v>1.02290652768375</v>
       </c>
       <c r="K6">
-        <v>1.023355964755217</v>
+        <v>1.024893661396853</v>
       </c>
       <c r="L6">
-        <v>1.02715580259324</v>
+        <v>1.02872398454351</v>
       </c>
       <c r="M6">
-        <v>1.038507782122363</v>
+        <v>1.039779223840066</v>
       </c>
       <c r="N6">
-        <v>1.009668821070748</v>
+        <v>1.012475235548233</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.039048715536488</v>
+        <v>1.040054977734515</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.027599094794691</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.028696699031616</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.018014766804662</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.000593762769528</v>
+        <v>1.002613868733769</v>
       </c>
       <c r="D7">
-        <v>1.012341195949674</v>
+        <v>1.014130514460365</v>
       </c>
       <c r="E7">
-        <v>1.016128056120809</v>
+        <v>1.017893828295365</v>
       </c>
       <c r="F7">
-        <v>1.027730402723382</v>
+        <v>1.029157594355045</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046905068914159</v>
+        <v>1.047074466414576</v>
       </c>
       <c r="J7">
-        <v>1.019976207087204</v>
+        <v>1.021944880694292</v>
       </c>
       <c r="K7">
-        <v>1.022289968697492</v>
+        <v>1.024058391119499</v>
       </c>
       <c r="L7">
-        <v>1.026032712466957</v>
+        <v>1.02777805227374</v>
       </c>
       <c r="M7">
-        <v>1.037502387869185</v>
+        <v>1.038913514276245</v>
       </c>
       <c r="N7">
-        <v>1.00922090138305</v>
+        <v>1.012213795419949</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.038253011346528</v>
+        <v>1.039369825909105</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.0268495968746</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.028110768310727</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.017803338619051</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9931303790147631</v>
+        <v>0.9960648387898753</v>
       </c>
       <c r="D8">
-        <v>1.006604549795045</v>
+        <v>1.009389443007764</v>
       </c>
       <c r="E8">
-        <v>1.010152843472674</v>
+        <v>1.012682625778057</v>
       </c>
       <c r="F8">
-        <v>1.02228519479558</v>
+        <v>1.024315006067329</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.046522300353263</v>
+        <v>1.046751572512182</v>
       </c>
       <c r="J8">
-        <v>1.014939748565186</v>
+        <v>1.017787810800272</v>
       </c>
       <c r="K8">
-        <v>1.017695795331964</v>
+        <v>1.020443712842861</v>
       </c>
       <c r="L8">
-        <v>1.02119702211299</v>
+        <v>1.023693500183113</v>
       </c>
       <c r="M8">
-        <v>1.033171528516034</v>
+        <v>1.035175387662561</v>
       </c>
       <c r="N8">
-        <v>1.007281953647732</v>
+        <v>1.011016257640333</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.034825407564129</v>
+        <v>1.036411338561621</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.023605697978849</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.025559960483856</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.016874691886132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.979208333737294</v>
+        <v>0.9838881425289751</v>
       </c>
       <c r="D9">
-        <v>0.9959454084371602</v>
+        <v>1.000607141745475</v>
       </c>
       <c r="E9">
-        <v>0.9990452471777806</v>
+        <v>1.003028234922629</v>
       </c>
       <c r="F9">
-        <v>1.012164091739679</v>
+        <v>1.015343519568292</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045661756169763</v>
+        <v>1.046005055684949</v>
       </c>
       <c r="J9">
-        <v>1.005517284678698</v>
+        <v>1.010022968376515</v>
       </c>
       <c r="K9">
-        <v>1.009104612886027</v>
+        <v>1.013690376172701</v>
       </c>
       <c r="L9">
-        <v>1.012153833596257</v>
+        <v>1.016072371450065</v>
       </c>
       <c r="M9">
-        <v>1.025062850388131</v>
+        <v>1.028192468934614</v>
       </c>
       <c r="N9">
-        <v>1.003626059825487</v>
+        <v>1.008669894662515</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.028407852048206</v>
+        <v>1.030884773344005</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.017527593797955</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.02078121292741</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.015100912309553</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9695291275721515</v>
+        <v>0.9755354105575332</v>
       </c>
       <c r="D10">
-        <v>0.9885988819156531</v>
+        <v>0.9946498658927301</v>
       </c>
       <c r="E10">
-        <v>0.9913998344586482</v>
+        <v>0.9964880045897643</v>
       </c>
       <c r="F10">
-        <v>1.005248293429748</v>
+        <v>1.009308269657169</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044989393216682</v>
+        <v>1.045421190351326</v>
       </c>
       <c r="J10">
-        <v>0.9990061180817357</v>
+        <v>1.004754459782758</v>
       </c>
       <c r="K10">
-        <v>1.00317708412545</v>
+        <v>1.009116395263454</v>
       </c>
       <c r="L10">
-        <v>1.005926123317141</v>
+        <v>1.01092096004732</v>
       </c>
       <c r="M10">
-        <v>1.019523430499178</v>
+        <v>1.02351146992464</v>
       </c>
       <c r="N10">
-        <v>1.001105761063318</v>
+        <v>1.007203298564633</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.024076036715019</v>
+        <v>1.027232166313083</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.013353491044873</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.01756590061131</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.013900810424937</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9663923135503588</v>
+        <v>0.9728403253233678</v>
       </c>
       <c r="D11">
-        <v>0.9863652340818048</v>
+        <v>0.9928727269574156</v>
       </c>
       <c r="E11">
-        <v>0.9892654428086629</v>
+        <v>0.9947146754025662</v>
       </c>
       <c r="F11">
-        <v>1.003726474283801</v>
+        <v>1.008074178180989</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.0448824122514</v>
+        <v>1.045334708668132</v>
       </c>
       <c r="J11">
-        <v>0.9972332716256586</v>
+        <v>1.003388314907848</v>
       </c>
       <c r="K11">
-        <v>1.001548945767105</v>
+        <v>1.007930316614552</v>
       </c>
       <c r="L11">
-        <v>1.004392676745724</v>
+        <v>1.009736958291217</v>
       </c>
       <c r="M11">
-        <v>1.018578455271011</v>
+        <v>1.022845416933521</v>
       </c>
       <c r="N11">
-        <v>1.000573736280681</v>
+        <v>1.007136603070493</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.023771924249118</v>
+        <v>1.027147043182767</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.012236117805966</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.016764202351549</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.013686496650324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9656533252334496</v>
+        <v>0.9721721872706118</v>
       </c>
       <c r="D12">
-        <v>0.9859048407192765</v>
+        <v>0.99249075004681</v>
       </c>
       <c r="E12">
-        <v>0.9889345609822159</v>
+        <v>0.9944333807249671</v>
       </c>
       <c r="F12">
-        <v>1.00373292152575</v>
+        <v>1.008117796648891</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.04492373848545</v>
+        <v>1.045371008766357</v>
       </c>
       <c r="J12">
-        <v>0.9969859448223564</v>
+        <v>1.003202816155114</v>
       </c>
       <c r="K12">
-        <v>1.001307157266851</v>
+        <v>1.007763243500491</v>
       </c>
       <c r="L12">
-        <v>1.004276872878137</v>
+        <v>1.009668011132246</v>
       </c>
       <c r="M12">
-        <v>1.018788952398522</v>
+        <v>1.023091107699935</v>
       </c>
       <c r="N12">
-        <v>1.000606673722971</v>
+        <v>1.007271825895698</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.024269803417758</v>
+        <v>1.027671576532063</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.012065155249345</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.016646073230698</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.013715025972727</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9667626898714615</v>
+        <v>0.9730381727081342</v>
       </c>
       <c r="D13">
-        <v>0.9868291403762606</v>
+        <v>0.9931780318772618</v>
       </c>
       <c r="E13">
-        <v>0.9900148299517054</v>
+        <v>0.9952968539064145</v>
       </c>
       <c r="F13">
-        <v>1.004962862215093</v>
+        <v>1.009169316976214</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045092297961684</v>
+        <v>1.045511972146365</v>
       </c>
       <c r="J13">
-        <v>0.997945456959393</v>
+        <v>1.003932143161755</v>
       </c>
       <c r="K13">
-        <v>1.002168200872928</v>
+        <v>1.008392629956107</v>
       </c>
       <c r="L13">
-        <v>1.005291176948697</v>
+        <v>1.010470378029154</v>
       </c>
       <c r="M13">
-        <v>1.019951878668355</v>
+        <v>1.024079479545464</v>
       </c>
       <c r="N13">
-        <v>1.001099955927299</v>
+        <v>1.007543151708849</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.025469534281959</v>
+        <v>1.028732447085818</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.012671407353597</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.017088279134595</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.013940851531031</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9683756527860227</v>
+        <v>0.9743407753377387</v>
       </c>
       <c r="D14">
-        <v>0.9881050046310664</v>
+        <v>0.9941471799761195</v>
       </c>
       <c r="E14">
-        <v>0.9914084192992159</v>
+        <v>0.9964204673037669</v>
       </c>
       <c r="F14">
-        <v>1.006375397451333</v>
+        <v>1.010361654900549</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045266917423922</v>
+        <v>1.045657765186953</v>
       </c>
       <c r="J14">
-        <v>0.9991635322004448</v>
+        <v>1.004858630531768</v>
       </c>
       <c r="K14">
-        <v>1.003272052941109</v>
+        <v>1.009197437465643</v>
       </c>
       <c r="L14">
-        <v>1.006511383925409</v>
+        <v>1.011427263508651</v>
       </c>
       <c r="M14">
-        <v>1.02119488884346</v>
+        <v>1.025107491912248</v>
       </c>
       <c r="N14">
-        <v>1.001654049104824</v>
+        <v>1.007797293514226</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.026627249788834</v>
+        <v>1.029719781691441</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.013453381163205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.017658919846638</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.014190156357045</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9691841909342823</v>
+        <v>0.9750053689068382</v>
       </c>
       <c r="D15">
-        <v>0.9887320541564487</v>
+        <v>0.9946304074929826</v>
       </c>
       <c r="E15">
-        <v>0.9920714361144352</v>
+        <v>0.9969601353621292</v>
       </c>
       <c r="F15">
-        <v>1.007007145298612</v>
+        <v>1.010893448812684</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045338642853168</v>
+        <v>1.045717878216795</v>
       </c>
       <c r="J15">
-        <v>0.9997383736686849</v>
+        <v>1.005298595283148</v>
       </c>
       <c r="K15">
-        <v>1.003796513458303</v>
+        <v>1.009581806704526</v>
       </c>
       <c r="L15">
-        <v>1.007071669785178</v>
+        <v>1.011867359833832</v>
       </c>
       <c r="M15">
-        <v>1.021726915877281</v>
+        <v>1.025542010704869</v>
       </c>
       <c r="N15">
-        <v>1.001895687143201</v>
+        <v>1.007897169924029</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.027085641743551</v>
+        <v>1.030101023268228</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.013830258779227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.017937282292022</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.014299225259188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9730858051222042</v>
+        <v>0.978292320273535</v>
       </c>
       <c r="D16">
-        <v>0.9916731460313262</v>
+        <v>0.9969446932441336</v>
       </c>
       <c r="E16">
-        <v>0.9951147919150496</v>
+        <v>0.9994875927535217</v>
       </c>
       <c r="F16">
-        <v>1.009737336937925</v>
+        <v>1.013209391682088</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.04561008043888</v>
+        <v>1.045948604750131</v>
       </c>
       <c r="J16">
-        <v>1.002329151572711</v>
+        <v>1.007314844053848</v>
       </c>
       <c r="K16">
-        <v>1.006157264528984</v>
+        <v>1.011332491516312</v>
       </c>
       <c r="L16">
-        <v>1.009535875122217</v>
+        <v>1.013829400069294</v>
       </c>
       <c r="M16">
-        <v>1.02389681060337</v>
+        <v>1.027308183525773</v>
       </c>
       <c r="N16">
-        <v>1.00287312036095</v>
+        <v>1.008268645138275</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.028761641923081</v>
+        <v>1.031458009361635</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.015502729338821</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.019178653659386</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.014738679922003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9752344329832242</v>
+        <v>0.9801490754160591</v>
       </c>
       <c r="D17">
-        <v>0.9932639578700649</v>
+        <v>0.9982293353655324</v>
       </c>
       <c r="E17">
-        <v>0.9967205831626584</v>
+        <v>1.000854202679983</v>
       </c>
       <c r="F17">
-        <v>1.011087189555425</v>
+        <v>1.014369705623962</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045722754996818</v>
+        <v>1.046046343334176</v>
       </c>
       <c r="J17">
-        <v>1.003678746419176</v>
+        <v>1.008392064475073</v>
       </c>
       <c r="K17">
-        <v>1.007391134216691</v>
+        <v>1.012268482138411</v>
       </c>
       <c r="L17">
-        <v>1.010786357805018</v>
+        <v>1.014847271187771</v>
       </c>
       <c r="M17">
-        <v>1.024903573288503</v>
+        <v>1.028130387144961</v>
       </c>
       <c r="N17">
-        <v>1.003332632822132</v>
+        <v>1.008454069137964</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.029427205830318</v>
+        <v>1.03197795543409</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.016377815968858</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.01984334488278</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.014950155500505</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9760475876578163</v>
+        <v>0.9809017326165929</v>
       </c>
       <c r="D18">
-        <v>0.9938052506157918</v>
+        <v>0.9986973322803818</v>
       </c>
       <c r="E18">
-        <v>0.9971953872646102</v>
+        <v>1.001287830781542</v>
       </c>
       <c r="F18">
-        <v>1.011313511166469</v>
+        <v>1.014566282043155</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045707949544045</v>
+        <v>1.046035333280051</v>
       </c>
       <c r="J18">
-        <v>1.004047060145782</v>
+        <v>1.008706185102884</v>
       </c>
       <c r="K18">
-        <v>1.00773177716546</v>
+        <v>1.012538589414763</v>
       </c>
       <c r="L18">
-        <v>1.011062708225736</v>
+        <v>1.015084371554275</v>
       </c>
       <c r="M18">
-        <v>1.024939774974497</v>
+        <v>1.028138231729904</v>
       </c>
       <c r="N18">
-        <v>1.003371720090396</v>
+        <v>1.008439416495328</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.02921569993548</v>
+        <v>1.031744570093899</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.016606719619164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.020021273399186</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.014965889016908</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9757302169106851</v>
+        <v>0.9806987871452978</v>
       </c>
       <c r="D19">
-        <v>0.993478196539801</v>
+        <v>0.9984771702840698</v>
       </c>
       <c r="E19">
-        <v>0.996712036841334</v>
+        <v>1.000911491291762</v>
       </c>
       <c r="F19">
-        <v>1.010575640915151</v>
+        <v>1.013917804357043</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045589722841967</v>
+        <v>1.0459344271566</v>
       </c>
       <c r="J19">
-        <v>1.003602337769615</v>
+        <v>1.008372315643699</v>
       </c>
       <c r="K19">
-        <v>1.007345308856724</v>
+        <v>1.012257556747478</v>
       </c>
       <c r="L19">
-        <v>1.010522917579235</v>
+        <v>1.014650050674698</v>
       </c>
       <c r="M19">
-        <v>1.024150710289307</v>
+        <v>1.027437267494159</v>
       </c>
       <c r="N19">
-        <v>1.003078877697458</v>
+        <v>1.008249140524457</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.028262355804066</v>
+        <v>1.030861750275392</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.016340030767592</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.019829743201504</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.014828484716634</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9721540864921483</v>
+        <v>0.9777470964276948</v>
       </c>
       <c r="D20">
-        <v>0.9906189995066619</v>
+        <v>0.9962483948606183</v>
       </c>
       <c r="E20">
-        <v>0.9934816486637216</v>
+        <v>0.998221083418865</v>
       </c>
       <c r="F20">
-        <v>1.007126178963083</v>
+        <v>1.010906163224604</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045180573841725</v>
+        <v>1.045582695072087</v>
       </c>
       <c r="J20">
-        <v>1.000802290216078</v>
+        <v>1.006163625829902</v>
       </c>
       <c r="K20">
-        <v>1.004828832865569</v>
+        <v>1.010357534061661</v>
       </c>
       <c r="L20">
-        <v>1.007640092036458</v>
+        <v>1.012295285219672</v>
       </c>
       <c r="M20">
-        <v>1.021044869888248</v>
+        <v>1.024759913950219</v>
       </c>
       <c r="N20">
-        <v>1.001814975246043</v>
+        <v>1.007532220096419</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.025269382633876</v>
+        <v>1.028209498411368</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.014564744547248</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.018490737504482</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.014233415719528</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9645930264714023</v>
+        <v>0.9714578973493549</v>
       </c>
       <c r="D21">
-        <v>0.9848681718418537</v>
+        <v>0.9917815874917418</v>
       </c>
       <c r="E21">
-        <v>0.9874593504351756</v>
+        <v>0.9932805451894233</v>
       </c>
       <c r="F21">
-        <v>1.00160127988617</v>
+        <v>1.006256866765259</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044601838034309</v>
+        <v>1.045100910148147</v>
       </c>
       <c r="J21">
-        <v>0.9956494913000354</v>
+        <v>1.002199395730326</v>
       </c>
       <c r="K21">
-        <v>1.000142006325849</v>
+        <v>1.006920351123703</v>
       </c>
       <c r="L21">
-        <v>1.002682268991865</v>
+        <v>1.008390347819587</v>
       </c>
       <c r="M21">
-        <v>1.016552378901057</v>
+        <v>1.02112066260498</v>
       </c>
       <c r="N21">
-        <v>0.9997881951741016</v>
+        <v>1.006768662039125</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.021672235766429</v>
+        <v>1.025287814129655</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.01125416080766</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.016064112186638</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.013336246270072</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.959725461232422</v>
+        <v>0.9674259655959576</v>
       </c>
       <c r="D22">
-        <v>0.9811726058942269</v>
+        <v>0.9889249477311255</v>
       </c>
       <c r="E22">
-        <v>0.9836088690618461</v>
+        <v>0.9901416462501259</v>
       </c>
       <c r="F22">
-        <v>0.9980993491135004</v>
+        <v>1.003333441309031</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.044219478076716</v>
+        <v>1.0447830222757</v>
       </c>
       <c r="J22">
-        <v>0.9923410800600297</v>
+        <v>0.9996655640125124</v>
       </c>
       <c r="K22">
-        <v>0.9971264968796815</v>
+        <v>1.004719043219478</v>
       </c>
       <c r="L22">
-        <v>0.9995121840672517</v>
+        <v>1.005910961850733</v>
       </c>
       <c r="M22">
-        <v>1.013708552534235</v>
+        <v>1.018839150054776</v>
       </c>
       <c r="N22">
-        <v>0.9984878704639731</v>
+        <v>1.006276617471418</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.019421473221713</v>
+        <v>1.023482108328463</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.009107996159513</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.014492458638264</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.012761466178678</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9622816937712338</v>
+        <v>0.9695209239814153</v>
       </c>
       <c r="D23">
-        <v>0.9831010442313589</v>
+        <v>0.9903933834570162</v>
       </c>
       <c r="E23">
-        <v>0.9856263946743317</v>
+        <v>0.9917640162640275</v>
       </c>
       <c r="F23">
-        <v>0.9999371087867632</v>
+        <v>1.004848286167572</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044421380032249</v>
+        <v>1.044948165543859</v>
       </c>
       <c r="J23">
-        <v>0.9940679966349767</v>
+        <v>1.000965112225435</v>
       </c>
       <c r="K23">
-        <v>0.9986941041935915</v>
+        <v>1.005840295210063</v>
       </c>
       <c r="L23">
-        <v>1.001168521075419</v>
+        <v>1.007183773897831</v>
       </c>
       <c r="M23">
-        <v>1.015196971281724</v>
+        <v>1.020013705307875</v>
       </c>
       <c r="N23">
-        <v>0.9991621949912927</v>
+        <v>1.006477126199836</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.020599491644352</v>
+        <v>1.02441171206955</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.010206466370959</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.015274400637038</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.013046699961436</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9721113113289107</v>
+        <v>0.9777226035072171</v>
       </c>
       <c r="D24">
-        <v>0.9905577224003783</v>
+        <v>0.9962040524054753</v>
       </c>
       <c r="E24">
-        <v>0.9934108220092683</v>
+        <v>0.998167211179473</v>
       </c>
       <c r="F24">
-        <v>1.00702598838898</v>
+        <v>1.010819869991767</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045164667045738</v>
+        <v>1.045569240701588</v>
       </c>
       <c r="J24">
-        <v>1.000726851793927</v>
+        <v>1.006106018323655</v>
       </c>
       <c r="K24">
-        <v>1.004752709199105</v>
+        <v>1.010298158686605</v>
       </c>
       <c r="L24">
-        <v>1.007554647607839</v>
+        <v>1.012226589272685</v>
       </c>
       <c r="M24">
-        <v>1.020930833103125</v>
+        <v>1.024659604017111</v>
       </c>
       <c r="N24">
-        <v>1.001765629575267</v>
+        <v>1.007497360007254</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.025137573529221</v>
+        <v>1.028088704034211</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.014482706781663</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.018417972020598</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.014204431928842</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9829578413843122</v>
+        <v>0.9871352184489665</v>
       </c>
       <c r="D25">
-        <v>0.9988270881007543</v>
+        <v>1.002957747034867</v>
       </c>
       <c r="E25">
-        <v>1.002036155074508</v>
+        <v>1.005599295175085</v>
       </c>
       <c r="F25">
-        <v>1.014884521002316</v>
+        <v>1.017730456459926</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.045911217643475</v>
+        <v>1.046220722468136</v>
       </c>
       <c r="J25">
-        <v>1.008072675895894</v>
+        <v>1.012103428102033</v>
       </c>
       <c r="K25">
-        <v>1.011443639343956</v>
+        <v>1.015510320654289</v>
       </c>
       <c r="L25">
-        <v>1.014602944377371</v>
+        <v>1.018111306724452</v>
       </c>
       <c r="M25">
-        <v>1.027256085965599</v>
+        <v>1.030059626645934</v>
       </c>
       <c r="N25">
-        <v>1.00462699481323</v>
+        <v>1.009272105565667</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.030143678549825</v>
+        <v>1.032362521980349</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.019210834602193</v>
+        <v>1.022100108903018</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.015586142566082</v>
       </c>
     </row>
   </sheetData>
